--- a/stats_loc.xlsx
+++ b/stats_loc.xlsx
@@ -904,28 +904,28 @@
         <v>1017</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>43871</v>
+        <v>43891</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00336743583991702</v>
+        <v>0.00367153526710032</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0419143362874356</v>
+        <v>0.0548866847638496</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00164615324896019</v>
+        <v>0.00161632067581442</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00386220057221968</v>
+        <v>0.00391961848129912</v>
       </c>
       <c r="K2" t="n">
-        <v>0.000758091791177313</v>
+        <v>0.000724350478633115</v>
       </c>
     </row>
     <row r="3">
@@ -939,28 +939,28 @@
         <v>991</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>43872</v>
+        <v>43905</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>45017</v>
+        <v>44895</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0487726763500536</v>
+        <v>0.0512171480954373</v>
       </c>
       <c r="G3" t="n">
-        <v>0.150286681316461</v>
+        <v>0.19962423673086</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00341519778493948</v>
+        <v>0.00276079199848962</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0335855536269913</v>
+        <v>0.035242199334583</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0690824335893259</v>
+        <v>0.0732472625683264</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0197377948541743</v>
+        <v>0.0187237539646794</v>
       </c>
     </row>
     <row r="4">
@@ -974,28 +974,28 @@
         <v>1016</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>43871</v>
+        <v>43892</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F4" t="n">
-        <v>0.012008025204828</v>
+        <v>0.012358883503337</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0488092674755223</v>
+        <v>0.05641925627467</v>
       </c>
       <c r="H4" t="n">
-        <v>0.000123695748590865</v>
+        <v>0.0000979159328071494</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0102376174991338</v>
+        <v>0.00978897339029682</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0180623036310201</v>
+        <v>0.0181142422535608</v>
       </c>
       <c r="K4" t="n">
-        <v>0.00127254366062673</v>
+        <v>0.00126083905963514</v>
       </c>
     </row>
     <row r="5">
@@ -1009,28 +1009,28 @@
         <v>1005</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>43871</v>
+        <v>43898</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>45017</v>
+        <v>44902</v>
       </c>
       <c r="F5" t="n">
-        <v>0.431656270767191</v>
+        <v>0.455518616362651</v>
       </c>
       <c r="G5" t="n">
-        <v>2.09578387228817</v>
+        <v>2.24502323949838</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.343176172305171</v>
+        <v>0.366434591425431</v>
       </c>
       <c r="J5" t="n">
-        <v>0.606836788432997</v>
+        <v>0.615955972906404</v>
       </c>
       <c r="K5" t="n">
-        <v>0.122321900171662</v>
+        <v>0.114366287151531</v>
       </c>
     </row>
     <row r="6">
@@ -1044,28 +1044,28 @@
         <v>985</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>43883</v>
+        <v>43916</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>45017</v>
+        <v>44900</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00249662091034705</v>
+        <v>0.00282655072614321</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0308662701175628</v>
+        <v>0.0436133791637616</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00116485541605499</v>
+        <v>0.00113742489733064</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00232712430809687</v>
+        <v>0.00227217521064162</v>
       </c>
       <c r="K6" t="n">
-        <v>0.000407613414492351</v>
+        <v>0.000406319392189178</v>
       </c>
     </row>
     <row r="7">
@@ -1079,28 +1079,28 @@
         <v>1007</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>43871</v>
+        <v>43900</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>45017</v>
+        <v>44906</v>
       </c>
       <c r="F7" t="n">
-        <v>0.182092235985219</v>
+        <v>0.185248712295755</v>
       </c>
       <c r="G7" t="n">
-        <v>0.471903056819696</v>
+        <v>0.5023132528369</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00253761854354636</v>
+        <v>0.00206142623693097</v>
       </c>
       <c r="I7" t="n">
-        <v>0.16302960639579</v>
+        <v>0.158510180509541</v>
       </c>
       <c r="J7" t="n">
-        <v>0.318826484524691</v>
+        <v>0.319997747682622</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0356457232754576</v>
+        <v>0.0343416646627078</v>
       </c>
     </row>
     <row r="8">
@@ -1114,28 +1114,28 @@
         <v>1011</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>43871</v>
+        <v>43897</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0594442929289533</v>
+        <v>0.0625425159527209</v>
       </c>
       <c r="G8" t="n">
-        <v>0.221393534357912</v>
+        <v>0.258739305710104</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0570812560129769</v>
+        <v>0.0562611761749927</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0919218800441044</v>
+        <v>0.0971108978702471</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0134500060891179</v>
+        <v>0.0128999645760949</v>
       </c>
     </row>
     <row r="9">
@@ -1149,28 +1149,28 @@
         <v>1016</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>43871</v>
+        <v>43890</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>45017</v>
+        <v>44905</v>
       </c>
       <c r="F9" t="n">
-        <v>0.240414007941445</v>
+        <v>0.245634047898832</v>
       </c>
       <c r="G9" t="n">
-        <v>1.13642167658197</v>
+        <v>1.28702055114405</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.174693935008167</v>
+        <v>0.173287454222707</v>
       </c>
       <c r="J9" t="n">
-        <v>0.352068845825835</v>
+        <v>0.377989043829009</v>
       </c>
       <c r="K9" t="n">
-        <v>0.067723161438717</v>
+        <v>0.0607497912126572</v>
       </c>
     </row>
     <row r="10">
@@ -1184,28 +1184,28 @@
         <v>1016</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>43871</v>
+        <v>43892</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F10" t="n">
-        <v>0.392972284737389</v>
+        <v>0.405637163115154</v>
       </c>
       <c r="G10" t="n">
-        <v>1.79475481586415</v>
+        <v>2.17434603087311</v>
       </c>
       <c r="H10" t="n">
-        <v>0.00156613085414819</v>
+        <v>0.00099526007389806</v>
       </c>
       <c r="I10" t="n">
-        <v>0.347663860412697</v>
+        <v>0.342793857253967</v>
       </c>
       <c r="J10" t="n">
-        <v>0.473122116404621</v>
+        <v>0.496336777438072</v>
       </c>
       <c r="K10" t="n">
-        <v>0.228499961525948</v>
+        <v>0.218069936777627</v>
       </c>
     </row>
     <row r="11">
@@ -1219,28 +1219,28 @@
         <v>1013</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>43871</v>
+        <v>43895</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0454251495596774</v>
+        <v>0.0494350687014031</v>
       </c>
       <c r="G11" t="n">
-        <v>0.212855300758446</v>
+        <v>0.270225389109464</v>
       </c>
       <c r="H11" t="n">
-        <v>0.000436938023478361</v>
+        <v>0.000418480917906962</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0291061257700802</v>
+        <v>0.0269206875129426</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0701518650117043</v>
+        <v>0.0732395505621845</v>
       </c>
       <c r="K11" t="n">
-        <v>0.00777603371893816</v>
+        <v>0.00764337527896381</v>
       </c>
     </row>
     <row r="12">
@@ -1254,28 +1254,28 @@
         <v>986</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>43879</v>
+        <v>43912</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>45017</v>
+        <v>44897</v>
       </c>
       <c r="F12" t="n">
-        <v>0.102074629789328</v>
+        <v>0.107153101786549</v>
       </c>
       <c r="G12" t="n">
-        <v>1.01043564684446</v>
+        <v>0.999024521510983</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0646869584325729</v>
+        <v>0.0663175646401072</v>
       </c>
       <c r="J12" t="n">
-        <v>0.145620232662991</v>
+        <v>0.147960187369067</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0171178652815282</v>
+        <v>0.0161653684725229</v>
       </c>
     </row>
     <row r="13">
@@ -1289,28 +1289,28 @@
         <v>1017</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>43871</v>
+        <v>43891</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F13" t="n">
-        <v>0.324076822859315</v>
+        <v>0.338165724723558</v>
       </c>
       <c r="G13" t="n">
-        <v>1.17885768323249</v>
+        <v>1.58776929358578</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0152097342299071</v>
+        <v>0.0161078253202683</v>
       </c>
       <c r="I13" t="n">
-        <v>0.285287752554829</v>
+        <v>0.277999791500156</v>
       </c>
       <c r="J13" t="n">
-        <v>0.444135341461701</v>
+        <v>0.457985488023719</v>
       </c>
       <c r="K13" t="n">
-        <v>0.13837870157461</v>
+        <v>0.131849602707988</v>
       </c>
     </row>
     <row r="14">
@@ -1324,28 +1324,28 @@
         <v>1004</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>43871</v>
+        <v>43904</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F14" t="n">
-        <v>0.00763861919909711</v>
+        <v>0.00821764362044173</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0306119331304111</v>
+        <v>0.0352063093401216</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0000268370425257092</v>
+        <v>0.0000210861326345858</v>
       </c>
       <c r="I14" t="n">
-        <v>0.00666893945688807</v>
+        <v>0.0062656484843965</v>
       </c>
       <c r="J14" t="n">
-        <v>0.00997586025356317</v>
+        <v>0.0107361043499766</v>
       </c>
       <c r="K14" t="n">
-        <v>0.00167371989553907</v>
+        <v>0.0018834755989756</v>
       </c>
     </row>
     <row r="15">
@@ -1359,28 +1359,28 @@
         <v>848</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>43871</v>
+        <v>43895</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>45017</v>
+        <v>44742</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0608554969320707</v>
+        <v>0.0610852898287099</v>
       </c>
       <c r="G15" t="n">
-        <v>0.161725362009933</v>
+        <v>0.19355242436015</v>
       </c>
       <c r="H15" t="n">
-        <v>0.000484697167941375</v>
+        <v>0.000359488519734122</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0681707958506524</v>
+        <v>0.0665075835229924</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0902957692698281</v>
+        <v>0.0902330644875965</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0280689807991966</v>
+        <v>0.0273894592210754</v>
       </c>
     </row>
     <row r="16">
@@ -1397,25 +1397,25 @@
         <v>43871</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F16" t="n">
-        <v>0.290257819924716</v>
+        <v>0.296509255509531</v>
       </c>
       <c r="G16" t="n">
-        <v>0.921897050234175</v>
+        <v>1.13440756533602</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.269285342835647</v>
+        <v>0.269349431478818</v>
       </c>
       <c r="J16" t="n">
-        <v>0.452943561668283</v>
+        <v>0.444840235240227</v>
       </c>
       <c r="K16" t="n">
-        <v>0.112012925338723</v>
+        <v>0.107250454289041</v>
       </c>
     </row>
     <row r="17">
@@ -1429,28 +1429,28 @@
         <v>989</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>43886</v>
+        <v>43919</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0799253678808864</v>
+        <v>0.0836024970579226</v>
       </c>
       <c r="G17" t="n">
-        <v>0.391802301761704</v>
+        <v>0.504832259497889</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0618984622480065</v>
+        <v>0.0595087312979739</v>
       </c>
       <c r="J17" t="n">
-        <v>0.115624836090227</v>
+        <v>0.114226304725345</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0143651587439823</v>
+        <v>0.0141371504032448</v>
       </c>
     </row>
     <row r="18">
@@ -1464,28 +1464,28 @@
         <v>983</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>43879</v>
+        <v>43912</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>45017</v>
+        <v>44894</v>
       </c>
       <c r="F18" t="n">
-        <v>0.00454925309024735</v>
+        <v>0.00528918521543821</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0842635038482407</v>
+        <v>0.114443471965596</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0012765484806943</v>
+        <v>0.0013005042705309</v>
       </c>
       <c r="J18" t="n">
-        <v>0.00421821309635377</v>
+        <v>0.00427656174483056</v>
       </c>
       <c r="K18" t="n">
-        <v>0.00025027680513569</v>
+        <v>0.000250852485044297</v>
       </c>
     </row>
     <row r="19">
@@ -1499,28 +1499,28 @@
         <v>1001</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>43874</v>
+        <v>43907</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0373374216220428</v>
+        <v>0.0393581423386706</v>
       </c>
       <c r="G19" t="n">
-        <v>0.180441404745648</v>
+        <v>0.238655951461007</v>
       </c>
       <c r="H19" t="n">
-        <v>0.00137949716074403</v>
+        <v>0.00121414355831076</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0353765540020691</v>
+        <v>0.0369315442678066</v>
       </c>
       <c r="J19" t="n">
-        <v>0.048817203325315</v>
+        <v>0.0506870608262995</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0148049283631541</v>
+        <v>0.0128833327172904</v>
       </c>
     </row>
     <row r="20">
@@ -1534,28 +1534,28 @@
         <v>1007</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>43871</v>
+        <v>43901</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0544734447576508</v>
+        <v>0.0563170241679913</v>
       </c>
       <c r="G20" t="n">
-        <v>0.171716116315998</v>
+        <v>0.20599872241177</v>
       </c>
       <c r="H20" t="n">
-        <v>0.000839086101117274</v>
+        <v>0.000806765130627386</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0469524944082466</v>
+        <v>0.0479053467230536</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0818809095872308</v>
+        <v>0.084747816966138</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0181118312784743</v>
+        <v>0.0184357034255873</v>
       </c>
     </row>
     <row r="21">
@@ -1569,28 +1569,28 @@
         <v>982</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>43893</v>
+        <v>43926</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F21" t="n">
-        <v>0.102593618471784</v>
+        <v>0.108119234968697</v>
       </c>
       <c r="G21" t="n">
-        <v>0.699136370231584</v>
+        <v>0.711206197931862</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0623066101021566</v>
+        <v>0.0605264580521458</v>
       </c>
       <c r="J21" t="n">
-        <v>0.118812938475742</v>
+        <v>0.121222288876698</v>
       </c>
       <c r="K21" t="n">
-        <v>0.00932348960378753</v>
+        <v>0.009014453177787</v>
       </c>
     </row>
     <row r="22">
@@ -1607,25 +1607,25 @@
         <v>43871</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0965175489520617</v>
+        <v>0.0978804402599703</v>
       </c>
       <c r="G22" t="n">
-        <v>0.231473698275117</v>
+        <v>0.239578705212048</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.113562294393195</v>
+        <v>0.1140768245287</v>
       </c>
       <c r="J22" t="n">
-        <v>0.158299792144884</v>
+        <v>0.160115596483158</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0268138096752281</v>
+        <v>0.025666322498694</v>
       </c>
     </row>
     <row r="23">
@@ -1639,28 +1639,28 @@
         <v>1004</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>43871</v>
+        <v>43904</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0823474658411574</v>
+        <v>0.0854732533878147</v>
       </c>
       <c r="G23" t="n">
-        <v>0.323098224849039</v>
+        <v>0.344701251210644</v>
       </c>
       <c r="H23" t="n">
-        <v>0.00859536982102763</v>
+        <v>0.0085954959601169</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0581546064110423</v>
+        <v>0.0582386104117602</v>
       </c>
       <c r="J23" t="n">
-        <v>0.107607097588308</v>
+        <v>0.107027100803485</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0355138832708929</v>
+        <v>0.0317720359525052</v>
       </c>
     </row>
     <row r="24">
@@ -1674,28 +1674,28 @@
         <v>926</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>43873</v>
+        <v>43906</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>45017</v>
+        <v>44831</v>
       </c>
       <c r="F24" t="n">
-        <v>0.000578482761317354</v>
+        <v>0.00062334494744197</v>
       </c>
       <c r="G24" t="n">
-        <v>0.00414358023460433</v>
+        <v>0.00583949543542085</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0000110824847172536</v>
+        <v>0.0000102344941250049</v>
       </c>
       <c r="I24" t="n">
-        <v>0.000365443187842417</v>
+        <v>0.000327420566049374</v>
       </c>
       <c r="J24" t="n">
-        <v>0.000826059937510613</v>
+        <v>0.000856021217243464</v>
       </c>
       <c r="K24" t="n">
-        <v>0.000129807981742953</v>
+        <v>0.000127286112080773</v>
       </c>
     </row>
     <row r="25">
@@ -1709,28 +1709,28 @@
         <v>992</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>43883</v>
+        <v>43916</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0637538857242821</v>
+        <v>0.0681562583754222</v>
       </c>
       <c r="G25" t="n">
-        <v>0.302368995346147</v>
+        <v>0.372251289450353</v>
       </c>
       <c r="H25" t="n">
-        <v>0.00094665593789937</v>
+        <v>0.000886705622600353</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0376401112099418</v>
+        <v>0.0380470571021607</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0911225077922702</v>
+        <v>0.0974456994590161</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0108709091458665</v>
+        <v>0.0107301541443178</v>
       </c>
     </row>
     <row r="26">
@@ -1747,25 +1747,25 @@
         <v>43871</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F26" t="n">
-        <v>0.00915187478477236</v>
+        <v>0.00933696390787261</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0738325509893717</v>
+        <v>0.0741702942022231</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.00492056640192529</v>
+        <v>0.00505535614984076</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0147499361127602</v>
+        <v>0.0147646885007781</v>
       </c>
       <c r="K26" t="n">
-        <v>0.000657813574338973</v>
+        <v>0.000620441692440849</v>
       </c>
     </row>
     <row r="27">
@@ -1779,28 +1779,28 @@
         <v>971</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>43871</v>
+        <v>43902</v>
       </c>
       <c r="E27" s="1" t="n">
-        <v>45017</v>
+        <v>44872</v>
       </c>
       <c r="F27" t="n">
-        <v>0.00364779316732222</v>
+        <v>0.00381168759428293</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0142489811342644</v>
+        <v>0.0187732266557675</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.00284464286046949</v>
+        <v>0.00265263101438004</v>
       </c>
       <c r="J27" t="n">
-        <v>0.00634755783543131</v>
+        <v>0.00636013917848214</v>
       </c>
       <c r="K27" t="n">
-        <v>0.000375862836849966</v>
+        <v>0.000339712736468986</v>
       </c>
     </row>
     <row r="28">
@@ -1817,25 +1817,25 @@
         <v>43871</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2030018070481</v>
+        <v>0.204531025621609</v>
       </c>
       <c r="G28" t="n">
-        <v>0.525841507227993</v>
+        <v>0.578568309974466</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.193276724622014</v>
+        <v>0.18591071001031</v>
       </c>
       <c r="J28" t="n">
-        <v>0.341984533179063</v>
+        <v>0.345700095217332</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0475991130916917</v>
+        <v>0.0456809009602303</v>
       </c>
     </row>
     <row r="29">
@@ -1849,28 +1849,28 @@
         <v>977</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>43894</v>
+        <v>43911</v>
       </c>
       <c r="E29" s="1" t="n">
-        <v>45017</v>
+        <v>44887</v>
       </c>
       <c r="F29" t="n">
-        <v>0.00181121111069905</v>
+        <v>0.00211780427425949</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0245481500084278</v>
+        <v>0.0296938889780953</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.000953265934181279</v>
+        <v>0.000918833326697315</v>
       </c>
       <c r="J29" t="n">
-        <v>0.00213142307858065</v>
+        <v>0.0022459949718183</v>
       </c>
       <c r="K29" t="n">
-        <v>0.000190058492023388</v>
+        <v>0.000166283590844259</v>
       </c>
     </row>
     <row r="30">
@@ -1884,28 +1884,28 @@
         <v>993</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>43882</v>
+        <v>43915</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F30" t="n">
-        <v>0.000598025963312256</v>
+        <v>0.000637987655606043</v>
       </c>
       <c r="G30" t="n">
-        <v>0.00484116149146502</v>
+        <v>0.00565894126867804</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.000238978628773048</v>
+        <v>0.000248147212193498</v>
       </c>
       <c r="J30" t="n">
-        <v>0.000888420987168978</v>
+        <v>0.000966515897190443</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0000420850936132432</v>
+        <v>0.0000384431903684313</v>
       </c>
     </row>
     <row r="31">
@@ -1919,28 +1919,28 @@
         <v>1009</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>43871</v>
+        <v>43899</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F31" t="n">
-        <v>0.287348887731074</v>
+        <v>0.289120291683164</v>
       </c>
       <c r="G31" t="n">
-        <v>0.71438230395855</v>
+        <v>0.772776963485457</v>
       </c>
       <c r="H31" t="n">
-        <v>0.00710574934074437</v>
+        <v>0.00460812976493418</v>
       </c>
       <c r="I31" t="n">
-        <v>0.292388547563299</v>
+        <v>0.298459645467385</v>
       </c>
       <c r="J31" t="n">
-        <v>0.399757695659037</v>
+        <v>0.392273447798701</v>
       </c>
       <c r="K31" t="n">
-        <v>0.127888361998277</v>
+        <v>0.125795008480304</v>
       </c>
     </row>
     <row r="32">
@@ -1957,25 +1957,25 @@
         <v>43871</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F32" t="n">
-        <v>0.145178957474413</v>
+        <v>0.15077467470659</v>
       </c>
       <c r="G32" t="n">
-        <v>0.896198839220603</v>
+        <v>1.05263157894737</v>
       </c>
       <c r="H32" t="n">
-        <v>0.000513810560582002</v>
+        <v>0.000426748652609149</v>
       </c>
       <c r="I32" t="n">
-        <v>0.10944822631957</v>
+        <v>0.103844323813691</v>
       </c>
       <c r="J32" t="n">
-        <v>0.214321088853596</v>
+        <v>0.218913561231621</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0326974739387169</v>
+        <v>0.0336601319192956</v>
       </c>
     </row>
     <row r="33">
@@ -1989,28 +1989,28 @@
         <v>1001</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>43871</v>
+        <v>43902</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>45017</v>
+        <v>44902</v>
       </c>
       <c r="F33" t="n">
-        <v>0.110717316532999</v>
+        <v>0.113618141296858</v>
       </c>
       <c r="G33" t="n">
-        <v>0.394399351318233</v>
+        <v>0.452355498132638</v>
       </c>
       <c r="H33" t="n">
-        <v>0.000353561066180796</v>
+        <v>0.000252000887568658</v>
       </c>
       <c r="I33" t="n">
-        <v>0.103328090645395</v>
+        <v>0.0923751978132643</v>
       </c>
       <c r="J33" t="n">
-        <v>0.176460301289934</v>
+        <v>0.177952323875071</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0128621612085652</v>
+        <v>0.0124197816598034</v>
       </c>
     </row>
     <row r="34">
@@ -2024,28 +2024,28 @@
         <v>970</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>43878</v>
+        <v>43911</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>45017</v>
+        <v>44880</v>
       </c>
       <c r="F34" t="n">
-        <v>0.00266991351525941</v>
+        <v>0.00282644462769596</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0310965820940877</v>
+        <v>0.0388143092441679</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.00177049707740673</v>
+        <v>0.00171710926063722</v>
       </c>
       <c r="J34" t="n">
-        <v>0.00355804632907411</v>
+        <v>0.00368951633758362</v>
       </c>
       <c r="K34" t="n">
-        <v>0.000460171390523824</v>
+        <v>0.000439754361820045</v>
       </c>
     </row>
     <row r="35">
@@ -2059,28 +2059,28 @@
         <v>996</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>43871</v>
+        <v>43902</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>45017</v>
+        <v>44897</v>
       </c>
       <c r="F35" t="n">
-        <v>0.113982126502623</v>
+        <v>0.115385473174419</v>
       </c>
       <c r="G35" t="n">
-        <v>0.249089115538716</v>
+        <v>0.2579663519477</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0066331118408178</v>
+        <v>0.00522311481276991</v>
       </c>
       <c r="I35" t="n">
-        <v>0.118396005043372</v>
+        <v>0.115857403925355</v>
       </c>
       <c r="J35" t="n">
-        <v>0.161096395675708</v>
+        <v>0.16227191887064</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0657290514000478</v>
+        <v>0.0656336981883681</v>
       </c>
     </row>
     <row r="36">
@@ -2094,28 +2094,28 @@
         <v>1016</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>43871</v>
+        <v>43892</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F36" t="n">
-        <v>0.136336313287224</v>
+        <v>0.14011891385709</v>
       </c>
       <c r="G36" t="n">
-        <v>0.37419578329014</v>
+        <v>0.434098240313962</v>
       </c>
       <c r="H36" t="n">
-        <v>0.000874829408265388</v>
+        <v>0.000578439255201615</v>
       </c>
       <c r="I36" t="n">
-        <v>0.132258111992104</v>
+        <v>0.127620785340411</v>
       </c>
       <c r="J36" t="n">
-        <v>0.192591949832607</v>
+        <v>0.198035089384414</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0530753804680962</v>
+        <v>0.052635405819842</v>
       </c>
     </row>
     <row r="37">
@@ -2129,28 +2129,28 @@
         <v>1000</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>43875</v>
+        <v>43908</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F37" t="n">
-        <v>0.217259524159504</v>
+        <v>0.227381079574035</v>
       </c>
       <c r="G37" t="n">
-        <v>1.11082961247162</v>
+        <v>1.35612431516066</v>
       </c>
       <c r="H37" t="n">
-        <v>0.00106424793855174</v>
+        <v>0.00083763599020301</v>
       </c>
       <c r="I37" t="n">
-        <v>0.158305816285599</v>
+        <v>0.146061221223922</v>
       </c>
       <c r="J37" t="n">
-        <v>0.33582294289329</v>
+        <v>0.332054735382065</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0190661051122885</v>
+        <v>0.0184020693382498</v>
       </c>
     </row>
     <row r="38">
@@ -2164,28 +2164,28 @@
         <v>1000</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>43872</v>
+        <v>43905</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>45017</v>
+        <v>44904</v>
       </c>
       <c r="F38" t="n">
-        <v>0.56624006097688</v>
+        <v>0.594411220462214</v>
       </c>
       <c r="G38" t="n">
-        <v>2.59367737141771</v>
+        <v>3.03658672277238</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0420673076923077</v>
+        <v>0.0399042298483639</v>
       </c>
       <c r="I38" t="n">
-        <v>0.437179748228058</v>
+        <v>0.44434473747185</v>
       </c>
       <c r="J38" t="n">
-        <v>0.803485768975664</v>
+        <v>0.791990310024458</v>
       </c>
       <c r="K38" t="n">
-        <v>0.213639336506728</v>
+        <v>0.206307574854834</v>
       </c>
     </row>
     <row r="39">
@@ -2199,28 +2199,28 @@
         <v>1011</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>43871</v>
+        <v>43897</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F39" t="n">
-        <v>0.183494557849279</v>
+        <v>0.190567407184184</v>
       </c>
       <c r="G39" t="n">
-        <v>0.612928296053732</v>
+        <v>0.663345055195275</v>
       </c>
       <c r="H39" t="n">
-        <v>0.00239733113956505</v>
+        <v>0.00158715308175008</v>
       </c>
       <c r="I39" t="n">
-        <v>0.155100571449719</v>
+        <v>0.153283927379762</v>
       </c>
       <c r="J39" t="n">
-        <v>0.258260639580897</v>
+        <v>0.278808137090694</v>
       </c>
       <c r="K39" t="n">
-        <v>0.07870598603708</v>
+        <v>0.0727579379089821</v>
       </c>
     </row>
     <row r="40">
@@ -2237,25 +2237,25 @@
         <v>43871</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F40" t="n">
-        <v>0.00236388469455879</v>
+        <v>0.00252943250880526</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0225527633530787</v>
+        <v>0.0264942578018778</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.00130397605814451</v>
+        <v>0.0013325402630742</v>
       </c>
       <c r="J40" t="n">
-        <v>0.00308167246573167</v>
+        <v>0.00328235651315268</v>
       </c>
       <c r="K40" t="n">
-        <v>0.000329792654446344</v>
+        <v>0.000338061649396856</v>
       </c>
     </row>
     <row r="41">
@@ -2269,28 +2269,28 @@
         <v>1001</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>43874</v>
+        <v>43907</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F41" t="n">
-        <v>0.000455095184984271</v>
+        <v>0.000483154984301707</v>
       </c>
       <c r="G41" t="n">
-        <v>0.00196987741924352</v>
+        <v>0.00391417972765401</v>
       </c>
       <c r="H41" t="n">
-        <v>0.00000837180038025682</v>
+        <v>0.0000094127047952654</v>
       </c>
       <c r="I41" t="n">
-        <v>0.000380546065503865</v>
+        <v>0.000377609858747644</v>
       </c>
       <c r="J41" t="n">
-        <v>0.000661734179736256</v>
+        <v>0.000690044105822884</v>
       </c>
       <c r="K41" t="n">
-        <v>0.00016235611788663</v>
+        <v>0.00015477495510471</v>
       </c>
     </row>
     <row r="42">
@@ -2304,28 +2304,28 @@
         <v>1014</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>43871</v>
+        <v>43894</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F42" t="n">
-        <v>0.479791873562203</v>
+        <v>0.486279610456625</v>
       </c>
       <c r="G42" t="n">
-        <v>1.88470169178676</v>
+        <v>2.20313114511584</v>
       </c>
       <c r="H42" t="n">
-        <v>0.000737478838454441</v>
+        <v>0.000718621396712547</v>
       </c>
       <c r="I42" t="n">
-        <v>0.448452846197556</v>
+        <v>0.406806507407532</v>
       </c>
       <c r="J42" t="n">
-        <v>0.714892930234142</v>
+        <v>0.7266745420987</v>
       </c>
       <c r="K42" t="n">
-        <v>0.159785937696546</v>
+        <v>0.165534169425647</v>
       </c>
     </row>
     <row r="43">
@@ -2339,28 +2339,28 @@
         <v>1002</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>43871</v>
+        <v>43897</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>45017</v>
+        <v>44898</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0818350945908304</v>
+        <v>0.0841139489359432</v>
       </c>
       <c r="G43" t="n">
-        <v>0.52400857233843</v>
+        <v>0.696910642624871</v>
       </c>
       <c r="H43" t="n">
-        <v>0.000110412892692654</v>
+        <v>0.0000852634127874656</v>
       </c>
       <c r="I43" t="n">
-        <v>0.0694630652599762</v>
+        <v>0.0701655990068386</v>
       </c>
       <c r="J43" t="n">
-        <v>0.126716344382949</v>
+        <v>0.126571005685105</v>
       </c>
       <c r="K43" t="n">
-        <v>0.0177251210119405</v>
+        <v>0.0174159594950699</v>
       </c>
     </row>
     <row r="44">
@@ -2374,28 +2374,28 @@
         <v>1007</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>43871</v>
+        <v>43897</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>45017</v>
+        <v>44903</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0311285500069033</v>
+        <v>0.0317472156333742</v>
       </c>
       <c r="G44" t="n">
-        <v>0.117122198528185</v>
+        <v>0.116047054313967</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0000977297262431557</v>
+        <v>0.0000831232911669658</v>
       </c>
       <c r="I44" t="n">
-        <v>0.030871652008125</v>
+        <v>0.0305541594617154</v>
       </c>
       <c r="J44" t="n">
-        <v>0.0449873194582675</v>
+        <v>0.0468731251315689</v>
       </c>
       <c r="K44" t="n">
-        <v>0.0110036500246906</v>
+        <v>0.0108434588540408</v>
       </c>
     </row>
     <row r="45">
@@ -2409,28 +2409,28 @@
         <v>1020</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>43871</v>
+        <v>43881</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>45017</v>
+        <v>44900</v>
       </c>
       <c r="F45" t="n">
-        <v>0.00271539980342284</v>
+        <v>0.00281138736770114</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0154581459004111</v>
+        <v>0.0182440507298423</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.00229196132947681</v>
+        <v>0.00226075938949994</v>
       </c>
       <c r="J45" t="n">
-        <v>0.00399490783364177</v>
+        <v>0.00405401268338967</v>
       </c>
       <c r="K45" t="n">
-        <v>0.000778950666671377</v>
+        <v>0.000670038380549887</v>
       </c>
     </row>
     <row r="46">
@@ -2444,28 +2444,28 @@
         <v>888</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>43882</v>
+        <v>43915</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>45017</v>
+        <v>44802</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0315110345016969</v>
+        <v>0.0325088598136897</v>
       </c>
       <c r="G46" t="n">
-        <v>0.163268477116171</v>
+        <v>0.177947125787939</v>
       </c>
       <c r="H46" t="n">
-        <v>0.000734964302458984</v>
+        <v>0.000580083118539665</v>
       </c>
       <c r="I46" t="n">
-        <v>0.0287509996624551</v>
+        <v>0.0288132505878382</v>
       </c>
       <c r="J46" t="n">
-        <v>0.0371131321568059</v>
+        <v>0.0370573796726328</v>
       </c>
       <c r="K46" t="n">
-        <v>0.0179212943384241</v>
+        <v>0.0182997193319582</v>
       </c>
     </row>
     <row r="47">
@@ -2479,28 +2479,28 @@
         <v>997</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>43878</v>
+        <v>43911</v>
       </c>
       <c r="E47" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F47" t="n">
-        <v>0.00849350547404149</v>
+        <v>0.00949568948817881</v>
       </c>
       <c r="G47" t="n">
-        <v>0.129815801696531</v>
+        <v>0.133472619309435</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0.00313938571190802</v>
+        <v>0.00326959154377491</v>
       </c>
       <c r="J47" t="n">
-        <v>0.0108209826283515</v>
+        <v>0.011462089293997</v>
       </c>
       <c r="K47" t="n">
-        <v>0.000487939376110619</v>
+        <v>0.000499673269201195</v>
       </c>
     </row>
     <row r="48">
@@ -2514,28 +2514,28 @@
         <v>1001</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>43871</v>
+        <v>43894</v>
       </c>
       <c r="E48" s="1" t="n">
-        <v>45017</v>
+        <v>44894</v>
       </c>
       <c r="F48" t="n">
-        <v>0.317621978293855</v>
+        <v>0.32528901485029</v>
       </c>
       <c r="G48" t="n">
-        <v>1.10463278585495</v>
+        <v>1.33088924319067</v>
       </c>
       <c r="H48" t="n">
-        <v>0.00388507935274578</v>
+        <v>0.00242151271899556</v>
       </c>
       <c r="I48" t="n">
-        <v>0.318131954239147</v>
+        <v>0.307681351871013</v>
       </c>
       <c r="J48" t="n">
-        <v>0.445228068395149</v>
+        <v>0.448670386260599</v>
       </c>
       <c r="K48" t="n">
-        <v>0.120433560818948</v>
+        <v>0.121828342270176</v>
       </c>
     </row>
     <row r="49">
@@ -2549,28 +2549,28 @@
         <v>990</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>43893</v>
+        <v>43910</v>
       </c>
       <c r="E49" s="1" t="n">
-        <v>45017</v>
+        <v>44899</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0505025241486117</v>
+        <v>0.0583103142905026</v>
       </c>
       <c r="G49" t="n">
-        <v>0.547768262928766</v>
+        <v>1.00619485639197</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0.0238348806588013</v>
+        <v>0.0234358252427937</v>
       </c>
       <c r="J49" t="n">
-        <v>0.0564762729243947</v>
+        <v>0.0591306420614008</v>
       </c>
       <c r="K49" t="n">
-        <v>0.00689405313545371</v>
+        <v>0.00706805174039359</v>
       </c>
     </row>
     <row r="50">
@@ -2584,28 +2584,28 @@
         <v>999</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>43876</v>
+        <v>43909</v>
       </c>
       <c r="E50" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F50" t="n">
-        <v>0.00245576531097386</v>
+        <v>0.00253178177390816</v>
       </c>
       <c r="G50" t="n">
-        <v>0.00764017445057542</v>
+        <v>0.0088294598358218</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0000557616261188668</v>
+        <v>0.0000455862747853658</v>
       </c>
       <c r="I50" t="n">
-        <v>0.00244827676071634</v>
+        <v>0.00236776693935981</v>
       </c>
       <c r="J50" t="n">
-        <v>0.00373459505609883</v>
+        <v>0.00383159411734752</v>
       </c>
       <c r="K50" t="n">
-        <v>0.000474931064777343</v>
+        <v>0.000502058079047876</v>
       </c>
     </row>
     <row r="51">
@@ -2619,28 +2619,28 @@
         <v>990</v>
       </c>
       <c r="D51" s="1" t="n">
-        <v>43882</v>
+        <v>43915</v>
       </c>
       <c r="E51" s="1" t="n">
-        <v>45017</v>
+        <v>44904</v>
       </c>
       <c r="F51" t="n">
-        <v>0.032495688185762</v>
+        <v>0.035150712073729</v>
       </c>
       <c r="G51" t="n">
-        <v>0.340497275172207</v>
+        <v>0.362058806701551</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0.00561291295384529</v>
+        <v>0.00568490282691362</v>
       </c>
       <c r="J51" t="n">
-        <v>0.036554892519578</v>
+        <v>0.0344691237278004</v>
       </c>
       <c r="K51" t="n">
-        <v>0.000449050758141566</v>
+        <v>0.000454440403112342</v>
       </c>
     </row>
     <row r="52">
@@ -2657,25 +2657,25 @@
         <v>43871</v>
       </c>
       <c r="E52" s="1" t="n">
-        <v>45017</v>
+        <v>44903</v>
       </c>
       <c r="F52" t="n">
-        <v>0.23829341606454</v>
+        <v>0.242143570777063</v>
       </c>
       <c r="G52" t="n">
-        <v>0.739664460291746</v>
+        <v>0.827559510776064</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0.206803679861916</v>
+        <v>0.205408157492787</v>
       </c>
       <c r="J52" t="n">
-        <v>0.322133608523641</v>
+        <v>0.32825476106621</v>
       </c>
       <c r="K52" t="n">
-        <v>0.123543144718076</v>
+        <v>0.117991522090635</v>
       </c>
     </row>
     <row r="53">
@@ -2689,28 +2689,28 @@
         <v>1010</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>43871</v>
+        <v>43897</v>
       </c>
       <c r="E53" s="1" t="n">
-        <v>45017</v>
+        <v>44906</v>
       </c>
       <c r="F53" t="n">
-        <v>0.377854568665019</v>
+        <v>0.3881909131201</v>
       </c>
       <c r="G53" t="n">
-        <v>1.1566863234178</v>
+        <v>1.35268094803233</v>
       </c>
       <c r="H53" t="n">
-        <v>0.00350313985496338</v>
+        <v>0.00294668755763969</v>
       </c>
       <c r="I53" t="n">
-        <v>0.310770760060105</v>
+        <v>0.295925647645358</v>
       </c>
       <c r="J53" t="n">
-        <v>0.495552572501994</v>
+        <v>0.488910814460069</v>
       </c>
       <c r="K53" t="n">
-        <v>0.196040407784183</v>
+        <v>0.184607033449095</v>
       </c>
     </row>
     <row r="54">
@@ -2724,28 +2724,28 @@
         <v>998</v>
       </c>
       <c r="D54" s="1" t="n">
-        <v>43877</v>
+        <v>43910</v>
       </c>
       <c r="E54" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0150959329396259</v>
+        <v>0.0165807052201894</v>
       </c>
       <c r="G54" t="n">
-        <v>0.100508859798227</v>
+        <v>0.113146789969212</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0.00902848441103845</v>
+        <v>0.00862603252267183</v>
       </c>
       <c r="J54" t="n">
-        <v>0.02206521706841</v>
+        <v>0.0228234795249647</v>
       </c>
       <c r="K54" t="n">
-        <v>0.00232542615833412</v>
+        <v>0.00221729989042974</v>
       </c>
     </row>
     <row r="55">
@@ -2759,28 +2759,28 @@
         <v>975</v>
       </c>
       <c r="D55" s="1" t="n">
-        <v>43880</v>
+        <v>43913</v>
       </c>
       <c r="E55" s="1" t="n">
-        <v>45017</v>
+        <v>44887</v>
       </c>
       <c r="F55" t="n">
-        <v>0.00263369233235059</v>
+        <v>0.00292347930476193</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0193509592318469</v>
+        <v>0.0204162649577497</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0.00103323290309515</v>
+        <v>0.000994453802841293</v>
       </c>
       <c r="J55" t="n">
-        <v>0.0041032998823058</v>
+        <v>0.00425342420249928</v>
       </c>
       <c r="K55" t="n">
-        <v>0.000264947423435742</v>
+        <v>0.000257586186409394</v>
       </c>
     </row>
     <row r="56">
@@ -2797,25 +2797,25 @@
         <v>43871</v>
       </c>
       <c r="E56" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F56" t="n">
-        <v>0.315664360497805</v>
+        <v>0.318802811615024</v>
       </c>
       <c r="G56" t="n">
-        <v>0.72664902814899</v>
+        <v>0.861907226695875</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0.302763552753637</v>
+        <v>0.301993515562595</v>
       </c>
       <c r="J56" t="n">
-        <v>0.382326433539189</v>
+        <v>0.38618526808387</v>
       </c>
       <c r="K56" t="n">
-        <v>0.225480295868562</v>
+        <v>0.217648812724822</v>
       </c>
     </row>
     <row r="57">
@@ -2829,28 +2829,28 @@
         <v>998</v>
       </c>
       <c r="D57" s="1" t="n">
-        <v>43877</v>
+        <v>43910</v>
       </c>
       <c r="E57" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0044037247054177</v>
+        <v>0.00462954273251082</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0232549916089744</v>
+        <v>0.0233202506473869</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0.00348034857812301</v>
+        <v>0.00323666723998934</v>
       </c>
       <c r="J57" t="n">
-        <v>0.006711513880161</v>
+        <v>0.00704265460127663</v>
       </c>
       <c r="K57" t="n">
-        <v>0.000878516565658138</v>
+        <v>0.000936047120953487</v>
       </c>
     </row>
     <row r="58">
@@ -2864,28 +2864,28 @@
         <v>1009</v>
       </c>
       <c r="D58" s="1" t="n">
-        <v>43871</v>
+        <v>43893</v>
       </c>
       <c r="E58" s="1" t="n">
-        <v>45017</v>
+        <v>44901</v>
       </c>
       <c r="F58" t="n">
-        <v>0.352827496000168</v>
+        <v>0.355747978431648</v>
       </c>
       <c r="G58" t="n">
-        <v>0.913329989855534</v>
+        <v>1.08309666431031</v>
       </c>
       <c r="H58" t="n">
-        <v>0.00229059840247123</v>
+        <v>0.00166850201888744</v>
       </c>
       <c r="I58" t="n">
-        <v>0.320686635040873</v>
+        <v>0.320981994468387</v>
       </c>
       <c r="J58" t="n">
-        <v>0.431497745527623</v>
+        <v>0.45343154139169</v>
       </c>
       <c r="K58" t="n">
-        <v>0.236343553467215</v>
+        <v>0.225657968509924</v>
       </c>
     </row>
     <row r="59">
@@ -2899,28 +2899,28 @@
         <v>999</v>
       </c>
       <c r="D59" s="1" t="n">
-        <v>43878</v>
+        <v>43909</v>
       </c>
       <c r="E59" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0376807222607619</v>
+        <v>0.038588871570835</v>
       </c>
       <c r="G59" t="n">
-        <v>0.134283216570578</v>
+        <v>0.152435542634101</v>
       </c>
       <c r="H59" t="n">
-        <v>0.00293159658760553</v>
+        <v>0.0022163631605939</v>
       </c>
       <c r="I59" t="n">
-        <v>0.0362045967804591</v>
+        <v>0.0360237209959275</v>
       </c>
       <c r="J59" t="n">
-        <v>0.0477153610849864</v>
+        <v>0.0477600251106826</v>
       </c>
       <c r="K59" t="n">
-        <v>0.0178181701076516</v>
+        <v>0.0176056961836938</v>
       </c>
     </row>
     <row r="60">
@@ -2934,28 +2934,28 @@
         <v>972</v>
       </c>
       <c r="D60" s="1" t="n">
-        <v>43876</v>
+        <v>43909</v>
       </c>
       <c r="E60" s="1" t="n">
-        <v>45017</v>
+        <v>44880</v>
       </c>
       <c r="F60" t="n">
-        <v>0.00392652727656589</v>
+        <v>0.00430978600032966</v>
       </c>
       <c r="G60" t="n">
-        <v>0.058521903912607</v>
+        <v>0.0604290462282204</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0.00143314379862982</v>
+        <v>0.00145280257739082</v>
       </c>
       <c r="J60" t="n">
-        <v>0.00327143078600859</v>
+        <v>0.00319536033419805</v>
       </c>
       <c r="K60" t="n">
-        <v>0.000379024640185755</v>
+        <v>0.000391805047382789</v>
       </c>
     </row>
     <row r="61">
@@ -2969,28 +2969,28 @@
         <v>960</v>
       </c>
       <c r="D61" s="1" t="n">
-        <v>43888</v>
+        <v>43921</v>
       </c>
       <c r="E61" s="1" t="n">
-        <v>45017</v>
+        <v>44880</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0043665181899746</v>
+        <v>0.00510220458714474</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0814166497048646</v>
+        <v>0.152755181878019</v>
       </c>
       <c r="H61" t="n">
-        <v>0.000017001210826235</v>
+        <v>0.0000181317021570561</v>
       </c>
       <c r="I61" t="n">
-        <v>0.00142490119189638</v>
+        <v>0.00136967393350629</v>
       </c>
       <c r="J61" t="n">
-        <v>0.00450705582241066</v>
+        <v>0.00485887733452068</v>
       </c>
       <c r="K61" t="n">
-        <v>0.000372570378698391</v>
+        <v>0.000334441846721225</v>
       </c>
     </row>
     <row r="62">
@@ -3004,28 +3004,28 @@
         <v>1000</v>
       </c>
       <c r="D62" s="1" t="n">
-        <v>43875</v>
+        <v>43908</v>
       </c>
       <c r="E62" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0609430444805918</v>
+        <v>0.0637278003068844</v>
       </c>
       <c r="G62" t="n">
-        <v>0.284789644012945</v>
+        <v>0.360855360855361</v>
       </c>
       <c r="H62" t="n">
-        <v>0.0000375173212782677</v>
+        <v>0.0000375209179117358</v>
       </c>
       <c r="I62" t="n">
-        <v>0.0487450917797183</v>
+        <v>0.0475137454825686</v>
       </c>
       <c r="J62" t="n">
-        <v>0.094337866010247</v>
+        <v>0.0972495290753387</v>
       </c>
       <c r="K62" t="n">
-        <v>0.0183562738672464</v>
+        <v>0.0173371281086678</v>
       </c>
     </row>
     <row r="63">
@@ -3039,28 +3039,28 @@
         <v>989</v>
       </c>
       <c r="D63" s="1" t="n">
-        <v>43883</v>
+        <v>43916</v>
       </c>
       <c r="E63" s="1" t="n">
-        <v>45017</v>
+        <v>44904</v>
       </c>
       <c r="F63" t="n">
-        <v>0.00357727645282056</v>
+        <v>0.00378510837452899</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0265965219932778</v>
+        <v>0.0341386554621849</v>
       </c>
       <c r="H63" t="n">
-        <v>0.00000590476956355599</v>
+        <v>0.00000628154557289231</v>
       </c>
       <c r="I63" t="n">
-        <v>0.00216721422270454</v>
+        <v>0.00226563345206803</v>
       </c>
       <c r="J63" t="n">
-        <v>0.00481556339510075</v>
+        <v>0.00506490383864753</v>
       </c>
       <c r="K63" t="n">
-        <v>0.000574846031083362</v>
+        <v>0.000554220295177729</v>
       </c>
     </row>
     <row r="64">
@@ -3074,28 +3074,28 @@
         <v>1001</v>
       </c>
       <c r="D64" s="1" t="n">
-        <v>43874</v>
+        <v>43907</v>
       </c>
       <c r="E64" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0218516076261078</v>
+        <v>0.0222891775400241</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0881796158532364</v>
+        <v>0.0868641434636679</v>
       </c>
       <c r="H64" t="n">
-        <v>0.00043990708877325</v>
+        <v>0.000383379015825979</v>
       </c>
       <c r="I64" t="n">
-        <v>0.0174997922663395</v>
+        <v>0.0188160091052432</v>
       </c>
       <c r="J64" t="n">
-        <v>0.0358949937573641</v>
+        <v>0.0355174946313564</v>
       </c>
       <c r="K64" t="n">
-        <v>0.00580454917663113</v>
+        <v>0.0057582334518494</v>
       </c>
     </row>
     <row r="65">
@@ -3112,25 +3112,25 @@
         <v>43871</v>
       </c>
       <c r="E65" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F65" t="n">
-        <v>0.213736006971547</v>
+        <v>0.232905397984918</v>
       </c>
       <c r="G65" t="n">
-        <v>1.12243781510786</v>
+        <v>1.65593439792836</v>
       </c>
       <c r="H65" t="n">
-        <v>0.00322216851941356</v>
+        <v>0.00323206205559147</v>
       </c>
       <c r="I65" t="n">
-        <v>0.154505412270354</v>
+        <v>0.152815627944884</v>
       </c>
       <c r="J65" t="n">
-        <v>0.296255332595987</v>
+        <v>0.302832747996888</v>
       </c>
       <c r="K65" t="n">
-        <v>0.0320007314452902</v>
+        <v>0.0307098004671122</v>
       </c>
     </row>
     <row r="66">
@@ -3144,28 +3144,28 @@
         <v>1003</v>
       </c>
       <c r="D66" s="1" t="n">
-        <v>43871</v>
+        <v>43900</v>
       </c>
       <c r="E66" s="1" t="n">
-        <v>45017</v>
+        <v>44902</v>
       </c>
       <c r="F66" t="n">
-        <v>0.101455803490953</v>
+        <v>0.106229308685008</v>
       </c>
       <c r="G66" t="n">
-        <v>0.457064965201341</v>
+        <v>0.5272150718119</v>
       </c>
       <c r="H66" t="n">
-        <v>0.00188369711520349</v>
+        <v>0.00136259696116103</v>
       </c>
       <c r="I66" t="n">
-        <v>0.0785951915347345</v>
+        <v>0.076429064308694</v>
       </c>
       <c r="J66" t="n">
-        <v>0.130870485786095</v>
+        <v>0.136006550502241</v>
       </c>
       <c r="K66" t="n">
-        <v>0.042751686187682</v>
+        <v>0.0405591603643616</v>
       </c>
     </row>
     <row r="67">
@@ -3179,28 +3179,28 @@
         <v>999</v>
       </c>
       <c r="D67" s="1" t="n">
-        <v>43871</v>
+        <v>43895</v>
       </c>
       <c r="E67" s="1" t="n">
-        <v>45017</v>
+        <v>44893</v>
       </c>
       <c r="F67" t="n">
-        <v>0.745962166475097</v>
+        <v>0.839816884657472</v>
       </c>
       <c r="G67" t="n">
-        <v>11.2169312169312</v>
+        <v>14.2222222222222</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0.522284122562674</v>
+        <v>0.50251256281407</v>
       </c>
       <c r="J67" t="n">
-        <v>0.852850717407628</v>
+        <v>0.845240014098631</v>
       </c>
       <c r="K67" t="n">
-        <v>0.186574025952437</v>
+        <v>0.170266246070359</v>
       </c>
     </row>
     <row r="68">
@@ -3217,25 +3217,25 @@
         <v>43871</v>
       </c>
       <c r="E68" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0322670155349497</v>
+        <v>0.0335744937911651</v>
       </c>
       <c r="G68" t="n">
-        <v>0.129998924194831</v>
+        <v>0.137198001322969</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0.0179752301382142</v>
+        <v>0.0162373499154983</v>
       </c>
       <c r="J68" t="n">
-        <v>0.0504793240217128</v>
+        <v>0.0537081120028977</v>
       </c>
       <c r="K68" t="n">
-        <v>0.00330304973217422</v>
+        <v>0.00313729920622865</v>
       </c>
     </row>
     <row r="69">
@@ -3249,28 +3249,28 @@
         <v>1010</v>
       </c>
       <c r="D69" s="1" t="n">
-        <v>43871</v>
+        <v>43898</v>
       </c>
       <c r="E69" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0178129725605832</v>
+        <v>0.0186829986879529</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0626434965766806</v>
+        <v>0.0745626704747029</v>
       </c>
       <c r="H69" t="n">
-        <v>0.0000603539335726501</v>
+        <v>0.0000457743660955984</v>
       </c>
       <c r="I69" t="n">
-        <v>0.0140176568952575</v>
+        <v>0.0134855122293883</v>
       </c>
       <c r="J69" t="n">
-        <v>0.0273996673341735</v>
+        <v>0.0286328400379894</v>
       </c>
       <c r="K69" t="n">
-        <v>0.00599808770521635</v>
+        <v>0.00598045415403902</v>
       </c>
     </row>
     <row r="70">
@@ -3284,28 +3284,28 @@
         <v>1022</v>
       </c>
       <c r="D70" s="1" t="n">
-        <v>43871</v>
+        <v>43886</v>
       </c>
       <c r="E70" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0755925272905982</v>
+        <v>0.0778478079229485</v>
       </c>
       <c r="G70" t="n">
-        <v>0.236875092357262</v>
+        <v>0.258801286947732</v>
       </c>
       <c r="H70" t="n">
-        <v>0.000278639836281503</v>
+        <v>0.000238666476395995</v>
       </c>
       <c r="I70" t="n">
-        <v>0.0415885180160406</v>
+        <v>0.0412232687171745</v>
       </c>
       <c r="J70" t="n">
-        <v>0.123618604673767</v>
+        <v>0.118832468116668</v>
       </c>
       <c r="K70" t="n">
-        <v>0.0145382119794619</v>
+        <v>0.0147661303713165</v>
       </c>
     </row>
     <row r="71">
@@ -3319,28 +3319,28 @@
         <v>1011</v>
       </c>
       <c r="D71" s="1" t="n">
-        <v>43871</v>
+        <v>43890</v>
       </c>
       <c r="E71" s="1" t="n">
-        <v>45017</v>
+        <v>44900</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0367025683200561</v>
+        <v>0.0374652269621986</v>
       </c>
       <c r="G71" t="n">
-        <v>0.168543207970497</v>
+        <v>0.183233133420506</v>
       </c>
       <c r="H71" t="n">
-        <v>0.000431479785073017</v>
+        <v>0.000384597734496286</v>
       </c>
       <c r="I71" t="n">
-        <v>0.020844934599585</v>
+        <v>0.0224795260003389</v>
       </c>
       <c r="J71" t="n">
-        <v>0.0651454487215334</v>
+        <v>0.0648456433406059</v>
       </c>
       <c r="K71" t="n">
-        <v>0.00620050941391389</v>
+        <v>0.00602239163955445</v>
       </c>
     </row>
     <row r="72">
@@ -3354,28 +3354,28 @@
         <v>1007</v>
       </c>
       <c r="D72" s="1" t="n">
-        <v>43871</v>
+        <v>43896</v>
       </c>
       <c r="E72" s="1" t="n">
-        <v>45017</v>
+        <v>44902</v>
       </c>
       <c r="F72" t="n">
-        <v>0.300149651921591</v>
+        <v>0.304688141573668</v>
       </c>
       <c r="G72" t="n">
-        <v>1.10246679872081</v>
+        <v>1.26634158305607</v>
       </c>
       <c r="H72" t="n">
-        <v>0.0146580600328992</v>
+        <v>0.0104187970534098</v>
       </c>
       <c r="I72" t="n">
-        <v>0.31076568796776</v>
+        <v>0.298991516319954</v>
       </c>
       <c r="J72" t="n">
-        <v>0.405724073579083</v>
+        <v>0.404323691962199</v>
       </c>
       <c r="K72" t="n">
-        <v>0.132777703330161</v>
+        <v>0.124368941621134</v>
       </c>
     </row>
     <row r="73">
@@ -3389,28 +3389,28 @@
         <v>1020</v>
       </c>
       <c r="D73" s="1" t="n">
-        <v>43871</v>
+        <v>43888</v>
       </c>
       <c r="E73" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F73" t="n">
-        <v>0.318552782857951</v>
+        <v>0.337309021482117</v>
       </c>
       <c r="G73" t="n">
-        <v>1.17323797429017</v>
+        <v>1.40160648365574</v>
       </c>
       <c r="H73" t="n">
-        <v>0.00246850597789864</v>
+        <v>0.00157580405401856</v>
       </c>
       <c r="I73" t="n">
-        <v>0.250412983959364</v>
+        <v>0.236735223861832</v>
       </c>
       <c r="J73" t="n">
-        <v>0.451522875704962</v>
+        <v>0.472976481796141</v>
       </c>
       <c r="K73" t="n">
-        <v>0.100410298173686</v>
+        <v>0.0940064041207368</v>
       </c>
     </row>
     <row r="74">
@@ -3427,25 +3427,25 @@
         <v>43871</v>
       </c>
       <c r="E74" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F74" t="n">
-        <v>0.284157776209406</v>
+        <v>0.291508722942256</v>
       </c>
       <c r="G74" t="n">
-        <v>0.811316324713544</v>
+        <v>0.914303532624962</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0.257080729705331</v>
+        <v>0.26515797484202</v>
       </c>
       <c r="J74" t="n">
-        <v>0.38095577859586</v>
+        <v>0.386044133077353</v>
       </c>
       <c r="K74" t="n">
-        <v>0.169297888111121</v>
+        <v>0.162452753241814</v>
       </c>
     </row>
     <row r="75">
@@ -3459,28 +3459,28 @@
         <v>989</v>
       </c>
       <c r="D75" s="1" t="n">
-        <v>43874</v>
+        <v>43907</v>
       </c>
       <c r="E75" s="1" t="n">
-        <v>45017</v>
+        <v>44895</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0699328470044438</v>
+        <v>0.0716011576762057</v>
       </c>
       <c r="G75" t="n">
-        <v>0.369659819381405</v>
+        <v>0.407426508509541</v>
       </c>
       <c r="H75" t="n">
-        <v>0.00193552372389274</v>
+        <v>0.00182187725715733</v>
       </c>
       <c r="I75" t="n">
-        <v>0.0484502247669123</v>
+        <v>0.0503635555446808</v>
       </c>
       <c r="J75" t="n">
-        <v>0.102470705616598</v>
+        <v>0.101914460500226</v>
       </c>
       <c r="K75" t="n">
-        <v>0.0221554946965099</v>
+        <v>0.021865495807002</v>
       </c>
     </row>
     <row r="76">
@@ -3497,25 +3497,25 @@
         <v>43871</v>
       </c>
       <c r="E76" s="1" t="n">
-        <v>45017</v>
+        <v>44906</v>
       </c>
       <c r="F76" t="n">
-        <v>0.196474336234787</v>
+        <v>0.205871510804178</v>
       </c>
       <c r="G76" t="n">
-        <v>0.901601292839919</v>
+        <v>1.07043895894717</v>
       </c>
       <c r="H76" t="n">
-        <v>0.00118066542303242</v>
+        <v>0.000841648115339458</v>
       </c>
       <c r="I76" t="n">
-        <v>0.166017891478138</v>
+        <v>0.16257671973438</v>
       </c>
       <c r="J76" t="n">
-        <v>0.263721941588496</v>
+        <v>0.278885684097494</v>
       </c>
       <c r="K76" t="n">
-        <v>0.113148929082283</v>
+        <v>0.106289947009389</v>
       </c>
     </row>
     <row r="77">
@@ -3529,28 +3529,28 @@
         <v>931</v>
       </c>
       <c r="D77" s="1" t="n">
-        <v>43871</v>
+        <v>43899</v>
       </c>
       <c r="E77" s="1" t="n">
-        <v>45017</v>
+        <v>44829</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0625812754479288</v>
+        <v>0.065497291580146</v>
       </c>
       <c r="G77" t="n">
-        <v>0.206051306891436</v>
+        <v>0.281994677680782</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0.0506434699714013</v>
+        <v>0.0472162108990754</v>
       </c>
       <c r="J77" t="n">
-        <v>0.0913058885145391</v>
+        <v>0.0914295119668071</v>
       </c>
       <c r="K77" t="n">
-        <v>0.0147747799136134</v>
+        <v>0.013395029625609</v>
       </c>
     </row>
     <row r="78">
@@ -3564,28 +3564,28 @@
         <v>995</v>
       </c>
       <c r="D78" s="1" t="n">
-        <v>43876</v>
+        <v>43909</v>
       </c>
       <c r="E78" s="1" t="n">
-        <v>45017</v>
+        <v>44903</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0638207848938609</v>
+        <v>0.0669193634588719</v>
       </c>
       <c r="G78" t="n">
-        <v>0.278971894996023</v>
+        <v>0.292536036139378</v>
       </c>
       <c r="H78" t="n">
-        <v>0.000401253454997434</v>
+        <v>0.000305113296657174</v>
       </c>
       <c r="I78" t="n">
-        <v>0.0389981255739643</v>
+        <v>0.0375942420961709</v>
       </c>
       <c r="J78" t="n">
-        <v>0.0857866814552515</v>
+        <v>0.0907486795149033</v>
       </c>
       <c r="K78" t="n">
-        <v>0.0187680131125431</v>
+        <v>0.0188141680803103</v>
       </c>
     </row>
     <row r="79">
@@ -3599,28 +3599,28 @@
         <v>999</v>
       </c>
       <c r="D79" s="1" t="n">
-        <v>43876</v>
+        <v>43909</v>
       </c>
       <c r="E79" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0035947974418542</v>
+        <v>0.00379884201254591</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0126562748192501</v>
+        <v>0.0140574425463304</v>
       </c>
       <c r="H79" t="n">
-        <v>0.0000685236531743369</v>
+        <v>0.0000640572736496975</v>
       </c>
       <c r="I79" t="n">
-        <v>0.00292273083095347</v>
+        <v>0.00289514347106174</v>
       </c>
       <c r="J79" t="n">
-        <v>0.00551311076954427</v>
+        <v>0.00602033369817383</v>
       </c>
       <c r="K79" t="n">
-        <v>0.000897920153408095</v>
+        <v>0.000931156771807078</v>
       </c>
     </row>
     <row r="80">
@@ -3634,28 +3634,28 @@
         <v>1008</v>
       </c>
       <c r="D80" s="1" t="n">
-        <v>43871</v>
+        <v>43891</v>
       </c>
       <c r="E80" s="1" t="n">
-        <v>45017</v>
+        <v>44898</v>
       </c>
       <c r="F80" t="n">
-        <v>0.207939432783971</v>
+        <v>0.217919738447002</v>
       </c>
       <c r="G80" t="n">
-        <v>1.14900266568618</v>
+        <v>1.38428913832245</v>
       </c>
       <c r="H80" t="n">
-        <v>0.00337214046132249</v>
+        <v>0.00337374901953372</v>
       </c>
       <c r="I80" t="n">
-        <v>0.124581303367869</v>
+        <v>0.120353861572575</v>
       </c>
       <c r="J80" t="n">
-        <v>0.271469419359457</v>
+        <v>0.259604079698237</v>
       </c>
       <c r="K80" t="n">
-        <v>0.0391670599664591</v>
+        <v>0.035882841777622</v>
       </c>
     </row>
     <row r="81">
@@ -3669,28 +3669,28 @@
         <v>994</v>
       </c>
       <c r="D81" s="1" t="n">
-        <v>43881</v>
+        <v>43914</v>
       </c>
       <c r="E81" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0267794134944885</v>
+        <v>0.0270986796179525</v>
       </c>
       <c r="G81" t="n">
-        <v>0.126647389485808</v>
+        <v>0.128377304637474</v>
       </c>
       <c r="H81" t="n">
-        <v>0.000240777035649448</v>
+        <v>0.000218614586734426</v>
       </c>
       <c r="I81" t="n">
-        <v>0.0097973213418526</v>
+        <v>0.0103525491677904</v>
       </c>
       <c r="J81" t="n">
-        <v>0.046408273657631</v>
+        <v>0.0466696285459818</v>
       </c>
       <c r="K81" t="n">
-        <v>0.00165712232969092</v>
+        <v>0.00184301554706695</v>
       </c>
     </row>
     <row r="82">
@@ -3704,28 +3704,28 @@
         <v>1010</v>
       </c>
       <c r="D82" s="1" t="n">
-        <v>43871</v>
+        <v>43898</v>
       </c>
       <c r="E82" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F82" t="n">
-        <v>0.24490267845388</v>
+        <v>0.25255161536381</v>
       </c>
       <c r="G82" t="n">
-        <v>0.86590889475126</v>
+        <v>1.05194535810591</v>
       </c>
       <c r="H82" t="n">
-        <v>0.0020165355918532</v>
+        <v>0.00168384185357311</v>
       </c>
       <c r="I82" t="n">
-        <v>0.205369218553972</v>
+        <v>0.198389153963107</v>
       </c>
       <c r="J82" t="n">
-        <v>0.313541419723307</v>
+        <v>0.319723151704415</v>
       </c>
       <c r="K82" t="n">
-        <v>0.114705427180953</v>
+        <v>0.110790995831779</v>
       </c>
     </row>
     <row r="83">
@@ -3739,28 +3739,28 @@
         <v>1020</v>
       </c>
       <c r="D83" s="1" t="n">
-        <v>43871</v>
+        <v>43888</v>
       </c>
       <c r="E83" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F83" t="n">
-        <v>0.137728104937152</v>
+        <v>0.139316352472388</v>
       </c>
       <c r="G83" t="n">
-        <v>0.442194105157035</v>
+        <v>0.536861777678104</v>
       </c>
       <c r="H83" t="n">
-        <v>0.000897746655893707</v>
+        <v>0.000608472369269711</v>
       </c>
       <c r="I83" t="n">
-        <v>0.120135320828517</v>
+        <v>0.112252369402661</v>
       </c>
       <c r="J83" t="n">
-        <v>0.219712515054355</v>
+        <v>0.217718089013602</v>
       </c>
       <c r="K83" t="n">
-        <v>0.033991004821749</v>
+        <v>0.0309590124306756</v>
       </c>
     </row>
     <row r="84">
@@ -3774,28 +3774,28 @@
         <v>851</v>
       </c>
       <c r="D84" s="1" t="n">
-        <v>43937</v>
+        <v>43970</v>
       </c>
       <c r="E84" s="1" t="n">
-        <v>45017</v>
+        <v>44820</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0130226996814069</v>
+        <v>0.0152065802610555</v>
       </c>
       <c r="G84" t="n">
-        <v>0.395190426376862</v>
+        <v>0.411334307893941</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0.00512193969503264</v>
+        <v>0.00496664654366552</v>
       </c>
       <c r="J84" t="n">
-        <v>0.0119642851944708</v>
+        <v>0.0134639202163341</v>
       </c>
       <c r="K84" t="n">
-        <v>0.0018455422963647</v>
+        <v>0.00171721202027629</v>
       </c>
     </row>
     <row r="85">
@@ -3809,28 +3809,28 @@
         <v>996</v>
       </c>
       <c r="D85" s="1" t="n">
-        <v>43879</v>
+        <v>43912</v>
       </c>
       <c r="E85" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F85" t="n">
-        <v>0.000785828231411017</v>
+        <v>0.000833662397456701</v>
       </c>
       <c r="G85" t="n">
-        <v>0.00455862353041345</v>
+        <v>0.00490910485541152</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0.000421755464204586</v>
+        <v>0.000429029245418348</v>
       </c>
       <c r="J85" t="n">
-        <v>0.00123705005072825</v>
+        <v>0.00126240849365462</v>
       </c>
       <c r="K85" t="n">
-        <v>0.000144355007149564</v>
+        <v>0.000144356883512155</v>
       </c>
     </row>
     <row r="86">
@@ -3844,28 +3844,28 @@
         <v>981</v>
       </c>
       <c r="D86" s="1" t="n">
-        <v>43887</v>
+        <v>43920</v>
       </c>
       <c r="E86" s="1" t="n">
-        <v>45017</v>
+        <v>44900</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0362715571724154</v>
+        <v>0.0372125984167719</v>
       </c>
       <c r="G86" t="n">
-        <v>0.14529859417231</v>
+        <v>0.142511612625101</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0.0331760430592219</v>
+        <v>0.0329789052465537</v>
       </c>
       <c r="J86" t="n">
-        <v>0.050826652345698</v>
+        <v>0.0532323125305246</v>
       </c>
       <c r="K86" t="n">
-        <v>0.0048393028822888</v>
+        <v>0.00498075616934571</v>
       </c>
     </row>
     <row r="87">
@@ -3879,28 +3879,28 @@
         <v>1013</v>
       </c>
       <c r="D87" s="1" t="n">
-        <v>43871</v>
+        <v>43895</v>
       </c>
       <c r="E87" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F87" t="n">
-        <v>0.281189887819086</v>
+        <v>0.295873810613503</v>
       </c>
       <c r="G87" t="n">
-        <v>1.56405075403228</v>
+        <v>1.9545275668618</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0.232347947859037</v>
+        <v>0.223483299221546</v>
       </c>
       <c r="J87" t="n">
-        <v>0.362923850415765</v>
+        <v>0.378652710043218</v>
       </c>
       <c r="K87" t="n">
-        <v>0.139338407132715</v>
+        <v>0.130562414299439</v>
       </c>
     </row>
     <row r="88">
@@ -3914,28 +3914,28 @@
         <v>1012</v>
       </c>
       <c r="D88" s="1" t="n">
-        <v>43871</v>
+        <v>43896</v>
       </c>
       <c r="E88" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F88" t="n">
-        <v>0.381381152701937</v>
+        <v>0.390595995351775</v>
       </c>
       <c r="G88" t="n">
-        <v>1.29019766989635</v>
+        <v>1.50367175661499</v>
       </c>
       <c r="H88" t="n">
-        <v>0.000894247145522464</v>
+        <v>0.000718876722444965</v>
       </c>
       <c r="I88" t="n">
-        <v>0.375786404329193</v>
+        <v>0.370941318293487</v>
       </c>
       <c r="J88" t="n">
-        <v>0.520452525306903</v>
+        <v>0.534694106641882</v>
       </c>
       <c r="K88" t="n">
-        <v>0.202876042651936</v>
+        <v>0.201642319526325</v>
       </c>
     </row>
     <row r="89">
@@ -3952,13 +3952,13 @@
         <v>43871</v>
       </c>
       <c r="E89" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0118338785298656</v>
+        <v>0.0134843845994335</v>
       </c>
       <c r="G89" t="n">
-        <v>0.319488817891374</v>
+        <v>0.380228136882129</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3967,7 +3967,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>0.000040332240867369</v>
+        <v>0.0000196394202443144</v>
       </c>
       <c r="K89" t="n">
         <v>0</v>
@@ -3984,28 +3984,28 @@
         <v>991</v>
       </c>
       <c r="D90" s="1" t="n">
-        <v>43883</v>
+        <v>43916</v>
       </c>
       <c r="E90" s="1" t="n">
-        <v>45017</v>
+        <v>44906</v>
       </c>
       <c r="F90" t="n">
-        <v>0.00160235025199422</v>
+        <v>0.0017280693343489</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0123889762446911</v>
+        <v>0.0136387194151717</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0.000803566782101618</v>
+        <v>0.00074030454725048</v>
       </c>
       <c r="J90" t="n">
-        <v>0.00230245230869985</v>
+        <v>0.00221761629267135</v>
       </c>
       <c r="K90" t="n">
-        <v>0.000259010735438313</v>
+        <v>0.000246889527470952</v>
       </c>
     </row>
     <row r="91">
@@ -4019,28 +4019,28 @@
         <v>974</v>
       </c>
       <c r="D91" s="1" t="n">
-        <v>43896</v>
+        <v>43929</v>
       </c>
       <c r="E91" s="1" t="n">
-        <v>45017</v>
+        <v>44902</v>
       </c>
       <c r="F91" t="n">
-        <v>0.00298316405279862</v>
+        <v>0.00332946161824802</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0148569582764858</v>
+        <v>0.0165595218896474</v>
       </c>
       <c r="H91" t="n">
-        <v>0.00000192576902197966</v>
+        <v>0.00000179190429585163</v>
       </c>
       <c r="I91" t="n">
-        <v>0.00208234697189009</v>
+        <v>0.0019727626898684</v>
       </c>
       <c r="J91" t="n">
-        <v>0.00471985669640362</v>
+        <v>0.0054836526510781</v>
       </c>
       <c r="K91" t="n">
-        <v>0.000631347962115658</v>
+        <v>0.00056646519284535</v>
       </c>
     </row>
     <row r="92">
@@ -4057,25 +4057,25 @@
         <v>43871</v>
       </c>
       <c r="E92" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F92" t="n">
-        <v>0.144854514291534</v>
+        <v>0.148621125493654</v>
       </c>
       <c r="G92" t="n">
-        <v>0.464003172389921</v>
+        <v>0.507769781014256</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0.134647398348904</v>
+        <v>0.127227444116309</v>
       </c>
       <c r="J92" t="n">
-        <v>0.212513811170118</v>
+        <v>0.226023686974569</v>
       </c>
       <c r="K92" t="n">
-        <v>0.0381751630869651</v>
+        <v>0.0366360971920204</v>
       </c>
     </row>
     <row r="93">
@@ -4089,28 +4089,28 @@
         <v>1006</v>
       </c>
       <c r="D93" s="1" t="n">
-        <v>43871</v>
+        <v>43902</v>
       </c>
       <c r="E93" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F93" t="n">
-        <v>0.28747265397839</v>
+        <v>0.299614046467597</v>
       </c>
       <c r="G93" t="n">
-        <v>1.33583823408415</v>
+        <v>1.75876156774546</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0.202707337785497</v>
+        <v>0.199353450847475</v>
       </c>
       <c r="J93" t="n">
-        <v>0.451720303202394</v>
+        <v>0.464972312150631</v>
       </c>
       <c r="K93" t="n">
-        <v>0.0527437331915879</v>
+        <v>0.0483430983260426</v>
       </c>
     </row>
     <row r="94">
@@ -4124,28 +4124,28 @@
         <v>987</v>
       </c>
       <c r="D94" s="1" t="n">
-        <v>43888</v>
+        <v>43921</v>
       </c>
       <c r="E94" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F94" t="n">
-        <v>0.000820994573975968</v>
+        <v>0.000891735741190328</v>
       </c>
       <c r="G94" t="n">
-        <v>0.00381330448428175</v>
+        <v>0.00547357695722625</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0.000672331801179756</v>
+        <v>0.000650758834100473</v>
       </c>
       <c r="J94" t="n">
-        <v>0.00107699051299327</v>
+        <v>0.00110190288372855</v>
       </c>
       <c r="K94" t="n">
-        <v>0.000311389150906294</v>
+        <v>0.00029034040764554</v>
       </c>
     </row>
     <row r="95">
@@ -4159,28 +4159,28 @@
         <v>1005</v>
       </c>
       <c r="D95" s="1" t="n">
-        <v>43871</v>
+        <v>43903</v>
       </c>
       <c r="E95" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F95" t="n">
-        <v>0.398824232237514</v>
+        <v>0.431291537462223</v>
       </c>
       <c r="G95" t="n">
-        <v>2.5411596277738</v>
+        <v>2.69756838905775</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0.304840754306533</v>
+        <v>0.322913975716869</v>
       </c>
       <c r="J95" t="n">
-        <v>0.542534797118906</v>
+        <v>0.558006423634978</v>
       </c>
       <c r="K95" t="n">
-        <v>0.109753226137218</v>
+        <v>0.0978473581213307</v>
       </c>
     </row>
     <row r="96">
@@ -4194,28 +4194,28 @@
         <v>998</v>
       </c>
       <c r="D96" s="1" t="n">
-        <v>43877</v>
+        <v>43910</v>
       </c>
       <c r="E96" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0130162216371313</v>
+        <v>0.0138048927275178</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0714236659570085</v>
+        <v>0.0768434065016204</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0.0049238555411898</v>
+        <v>0.00495945467084746</v>
       </c>
       <c r="J96" t="n">
-        <v>0.0218076139893667</v>
+        <v>0.0232724507180187</v>
       </c>
       <c r="K96" t="n">
-        <v>0.000768791949555368</v>
+        <v>0.00076588494607003</v>
       </c>
     </row>
     <row r="97">
@@ -4232,25 +4232,25 @@
         <v>43871</v>
       </c>
       <c r="E97" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0248563946243673</v>
+        <v>0.0253200810447198</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0663462461906962</v>
+        <v>0.0726275088008777</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0.0249449005054283</v>
+        <v>0.0248716243572162</v>
       </c>
       <c r="J97" t="n">
-        <v>0.0374648393631805</v>
+        <v>0.037580177946481</v>
       </c>
       <c r="K97" t="n">
-        <v>0.00788677977691532</v>
+        <v>0.00723514338635193</v>
       </c>
     </row>
     <row r="98">
@@ -4264,28 +4264,28 @@
         <v>1002</v>
       </c>
       <c r="D98" s="1" t="n">
-        <v>43873</v>
+        <v>43906</v>
       </c>
       <c r="E98" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F98" t="n">
-        <v>0.102573125247632</v>
+        <v>0.108064147708709</v>
       </c>
       <c r="G98" t="n">
-        <v>0.643920099520459</v>
+        <v>0.754246768243953</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0.0606143098336203</v>
+        <v>0.0553674537311016</v>
       </c>
       <c r="J98" t="n">
-        <v>0.144176716906236</v>
+        <v>0.146552711271945</v>
       </c>
       <c r="K98" t="n">
-        <v>0.0101889787486174</v>
+        <v>0.00996613194589441</v>
       </c>
     </row>
     <row r="99">
@@ -4299,28 +4299,28 @@
         <v>995</v>
       </c>
       <c r="D99" s="1" t="n">
-        <v>43880</v>
+        <v>43913</v>
       </c>
       <c r="E99" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F99" t="n">
-        <v>0.17961864173934</v>
+        <v>0.187632017660176</v>
       </c>
       <c r="G99" t="n">
-        <v>0.572181441746659</v>
+        <v>0.759392486011191</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0.178267363103197</v>
+        <v>0.176131746772613</v>
       </c>
       <c r="J99" t="n">
-        <v>0.255916289200283</v>
+        <v>0.267246881287908</v>
       </c>
       <c r="K99" t="n">
-        <v>0.0920786229014963</v>
+        <v>0.0904503313631677</v>
       </c>
     </row>
     <row r="100">
@@ -4334,28 +4334,28 @@
         <v>1010</v>
       </c>
       <c r="D100" s="1" t="n">
-        <v>43871</v>
+        <v>43898</v>
       </c>
       <c r="E100" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F100" t="n">
-        <v>0.0250950272376051</v>
+        <v>0.0266443707129391</v>
       </c>
       <c r="G100" t="n">
-        <v>0.127656797100559</v>
+        <v>0.13837028294688</v>
       </c>
       <c r="H100" t="n">
-        <v>0.000030782453016742</v>
+        <v>0.000023551555768671</v>
       </c>
       <c r="I100" t="n">
-        <v>0.0227240777930785</v>
+        <v>0.0228746263349234</v>
       </c>
       <c r="J100" t="n">
-        <v>0.0371193143840206</v>
+        <v>0.0380339678069531</v>
       </c>
       <c r="K100" t="n">
-        <v>0.00598707550134831</v>
+        <v>0.00576788823697165</v>
       </c>
     </row>
     <row r="101">
@@ -4369,28 +4369,28 @@
         <v>990</v>
       </c>
       <c r="D101" s="1" t="n">
-        <v>43885</v>
+        <v>43918</v>
       </c>
       <c r="E101" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F101" t="n">
-        <v>0.00889239005629187</v>
+        <v>0.00974548070071221</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0565319084561766</v>
+        <v>0.0692210031358131</v>
       </c>
       <c r="H101" t="n">
-        <v>0.0000255654209809786</v>
+        <v>0.0000294450484360005</v>
       </c>
       <c r="I101" t="n">
-        <v>0.00560379025282152</v>
+        <v>0.0053660352532408</v>
       </c>
       <c r="J101" t="n">
-        <v>0.0138750857402419</v>
+        <v>0.0141753555096099</v>
       </c>
       <c r="K101" t="n">
-        <v>0.000485418709555524</v>
+        <v>0.000423667045435062</v>
       </c>
     </row>
     <row r="102">
@@ -4404,28 +4404,28 @@
         <v>985</v>
       </c>
       <c r="D102" s="1" t="n">
-        <v>43890</v>
+        <v>43923</v>
       </c>
       <c r="E102" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F102" t="n">
-        <v>0.024902314090108</v>
+        <v>0.0277451672130555</v>
       </c>
       <c r="G102" t="n">
-        <v>0.298430777905113</v>
+        <v>0.388705392955923</v>
       </c>
       <c r="H102" t="n">
-        <v>0.0000777179225199198</v>
+        <v>0.0000708931760355543</v>
       </c>
       <c r="I102" t="n">
-        <v>0.00827521803350307</v>
+        <v>0.00791114205246669</v>
       </c>
       <c r="J102" t="n">
-        <v>0.0396677885083165</v>
+        <v>0.0404522742735749</v>
       </c>
       <c r="K102" t="n">
-        <v>0.00136686666969601</v>
+        <v>0.00126392182322949</v>
       </c>
     </row>
     <row r="103">
@@ -4439,28 +4439,28 @@
         <v>957</v>
       </c>
       <c r="D103" s="1" t="n">
-        <v>43877</v>
+        <v>43910</v>
       </c>
       <c r="E103" s="1" t="n">
-        <v>45017</v>
+        <v>44866</v>
       </c>
       <c r="F103" t="n">
-        <v>0.0390181201515988</v>
+        <v>0.0413518199370278</v>
       </c>
       <c r="G103" t="n">
-        <v>0.201132813615946</v>
+        <v>0.237979665724938</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0.0257253476137596</v>
+        <v>0.0256617667568548</v>
       </c>
       <c r="J103" t="n">
-        <v>0.0614395855516672</v>
+        <v>0.0649055736363743</v>
       </c>
       <c r="K103" t="n">
-        <v>0.00414139813601072</v>
+        <v>0.00353070993148841</v>
       </c>
     </row>
     <row r="104">
@@ -4477,25 +4477,25 @@
         <v>43871</v>
       </c>
       <c r="E104" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F104" t="n">
-        <v>0.0209478105074323</v>
+        <v>0.0221291552215972</v>
       </c>
       <c r="G104" t="n">
-        <v>0.092326722666486</v>
+        <v>0.10071000553905</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0.0124544540614971</v>
+        <v>0.0123189770060587</v>
       </c>
       <c r="J104" t="n">
-        <v>0.0369417243075812</v>
+        <v>0.039707760272594</v>
       </c>
       <c r="K104" t="n">
-        <v>0.00123279209357596</v>
+        <v>0.00119146908137734</v>
       </c>
     </row>
     <row r="105">
@@ -4509,28 +4509,28 @@
         <v>1011</v>
       </c>
       <c r="D105" s="1" t="n">
-        <v>43871</v>
+        <v>43894</v>
       </c>
       <c r="E105" s="1" t="n">
-        <v>45017</v>
+        <v>44904</v>
       </c>
       <c r="F105" t="n">
-        <v>0.436945796208989</v>
+        <v>0.452957028220435</v>
       </c>
       <c r="G105" t="n">
-        <v>1.80634977581963</v>
+        <v>2.09520163161554</v>
       </c>
       <c r="H105" t="n">
-        <v>0.000687385039258498</v>
+        <v>0.000495041398788976</v>
       </c>
       <c r="I105" t="n">
-        <v>0.364778156686554</v>
+        <v>0.334697773127551</v>
       </c>
       <c r="J105" t="n">
-        <v>0.658562690732659</v>
+        <v>0.667413988235471</v>
       </c>
       <c r="K105" t="n">
-        <v>0.0988042967365336</v>
+        <v>0.0993869927151567</v>
       </c>
     </row>
     <row r="106">
@@ -4544,25 +4544,25 @@
         <v>1029</v>
       </c>
       <c r="D106" s="1" t="n">
-        <v>43871</v>
+        <v>43878</v>
       </c>
       <c r="E106" s="1" t="n">
-        <v>45017</v>
+        <v>44906</v>
       </c>
       <c r="F106" t="n">
-        <v>0.237961617271519</v>
+        <v>0.245171027079639</v>
       </c>
       <c r="G106" t="n">
-        <v>1.55888967620691</v>
+        <v>1.59078098578318</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0.0807847663012118</v>
+        <v>0.0750664048966393</v>
       </c>
       <c r="J106" t="n">
-        <v>0.362262183997915</v>
+        <v>0.383311632504767</v>
       </c>
       <c r="K106" t="n">
         <v>0</v>
@@ -4579,28 +4579,28 @@
         <v>992</v>
       </c>
       <c r="D107" s="1" t="n">
-        <v>43883</v>
+        <v>43916</v>
       </c>
       <c r="E107" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F107" t="n">
-        <v>0.00040723564764996</v>
+        <v>0.000436780818442349</v>
       </c>
       <c r="G107" t="n">
-        <v>0.00389796459697423</v>
+        <v>0.00409587194243159</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0.000255590544225514</v>
+        <v>0.000248728690945329</v>
       </c>
       <c r="J107" t="n">
-        <v>0.000627861795921701</v>
+        <v>0.000656935457949181</v>
       </c>
       <c r="K107" t="n">
-        <v>0.0000597307236836025</v>
+        <v>0.0000618033611271781</v>
       </c>
     </row>
     <row r="108">
@@ -4614,28 +4614,28 @@
         <v>1013</v>
       </c>
       <c r="D108" s="1" t="n">
-        <v>43871</v>
+        <v>43895</v>
       </c>
       <c r="E108" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F108" t="n">
-        <v>0.00115842607319999</v>
+        <v>0.00122798482926021</v>
       </c>
       <c r="G108" t="n">
-        <v>0.00549847386343858</v>
+        <v>0.00720337391421316</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0.000842051955036734</v>
+        <v>0.000810650823547164</v>
       </c>
       <c r="J108" t="n">
-        <v>0.00200382244695198</v>
+        <v>0.00204341798011406</v>
       </c>
       <c r="K108" t="n">
-        <v>0.00016591399078729</v>
+        <v>0.000164543810627457</v>
       </c>
     </row>
     <row r="109">
@@ -4649,28 +4649,28 @@
         <v>1014</v>
       </c>
       <c r="D109" s="1" t="n">
-        <v>43871</v>
+        <v>43894</v>
       </c>
       <c r="E109" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F109" t="n">
-        <v>0.384403591247971</v>
+        <v>0.386807305060327</v>
       </c>
       <c r="G109" t="n">
-        <v>1.40795018022439</v>
+        <v>1.54587457110651</v>
       </c>
       <c r="H109" t="n">
-        <v>0.0067960329934606</v>
+        <v>0.00656559213367332</v>
       </c>
       <c r="I109" t="n">
-        <v>0.361287874956492</v>
+        <v>0.364922744954641</v>
       </c>
       <c r="J109" t="n">
-        <v>0.605285763815272</v>
+        <v>0.586362197647758</v>
       </c>
       <c r="K109" t="n">
-        <v>0.0742814123388309</v>
+        <v>0.0767235453124843</v>
       </c>
     </row>
     <row r="110">
@@ -4684,28 +4684,28 @@
         <v>1003</v>
       </c>
       <c r="D110" s="1" t="n">
-        <v>43871</v>
+        <v>43891</v>
       </c>
       <c r="E110" s="1" t="n">
-        <v>45017</v>
+        <v>44893</v>
       </c>
       <c r="F110" t="n">
-        <v>0.0784304265310244</v>
+        <v>0.0800477166718245</v>
       </c>
       <c r="G110" t="n">
-        <v>0.357834914945276</v>
+        <v>0.409450201716829</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0.0666423424786348</v>
+        <v>0.0654149834741094</v>
       </c>
       <c r="J110" t="n">
-        <v>0.135843043911322</v>
+        <v>0.136854723899271</v>
       </c>
       <c r="K110" t="n">
-        <v>0.00833402469829277</v>
+        <v>0.00880245444242682</v>
       </c>
     </row>
     <row r="111">
@@ -4722,25 +4722,25 @@
         <v>43873</v>
       </c>
       <c r="E111" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F111" t="n">
-        <v>0.00379263743812248</v>
+        <v>0.00397469379350357</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0151004986282251</v>
+        <v>0.0168218482556531</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0.00310644371900592</v>
+        <v>0.00320423556660292</v>
       </c>
       <c r="J111" t="n">
-        <v>0.00556750265004626</v>
+        <v>0.00571433494484798</v>
       </c>
       <c r="K111" t="n">
-        <v>0.000593331733618248</v>
+        <v>0.000496269701031925</v>
       </c>
     </row>
     <row r="112">
@@ -4754,28 +4754,28 @@
         <v>960</v>
       </c>
       <c r="D112" s="1" t="n">
-        <v>43871</v>
+        <v>43901</v>
       </c>
       <c r="E112" s="1" t="n">
-        <v>45017</v>
+        <v>44860</v>
       </c>
       <c r="F112" t="n">
-        <v>0.0710938297324389</v>
+        <v>0.0751292547349285</v>
       </c>
       <c r="G112" t="n">
-        <v>0.266056113850911</v>
+        <v>0.31509910176275</v>
       </c>
       <c r="H112" t="n">
-        <v>-0.0112411527964102</v>
+        <v>-0.0119310649580203</v>
       </c>
       <c r="I112" t="n">
-        <v>0.061171642160527</v>
+        <v>0.0579793348486666</v>
       </c>
       <c r="J112" t="n">
-        <v>0.11034904363712</v>
+        <v>0.114891529571646</v>
       </c>
       <c r="K112" t="n">
-        <v>0.0153238405366704</v>
+        <v>0.0146907671257356</v>
       </c>
     </row>
     <row r="113">
@@ -4789,28 +4789,28 @@
         <v>995</v>
       </c>
       <c r="D113" s="1" t="n">
-        <v>43873</v>
+        <v>43906</v>
       </c>
       <c r="E113" s="1" t="n">
-        <v>45017</v>
+        <v>44900</v>
       </c>
       <c r="F113" t="n">
-        <v>0.177407331726181</v>
+        <v>0.181524171239409</v>
       </c>
       <c r="G113" t="n">
-        <v>0.578236892395145</v>
+        <v>0.627006672670229</v>
       </c>
       <c r="H113" t="n">
-        <v>0.00613093446588414</v>
+        <v>0.00501874272282305</v>
       </c>
       <c r="I113" t="n">
-        <v>0.161442727107901</v>
+        <v>0.161827980893174</v>
       </c>
       <c r="J113" t="n">
-        <v>0.286504015758066</v>
+        <v>0.27617042884809</v>
       </c>
       <c r="K113" t="n">
-        <v>0.0574130997017459</v>
+        <v>0.0601100298689455</v>
       </c>
     </row>
     <row r="114">
@@ -4824,28 +4824,28 @@
         <v>992</v>
       </c>
       <c r="D114" s="1" t="n">
-        <v>43883</v>
+        <v>43916</v>
       </c>
       <c r="E114" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F114" t="n">
-        <v>0.00419737693881481</v>
+        <v>0.00462295295858091</v>
       </c>
       <c r="G114" t="n">
-        <v>0.0448346895593896</v>
+        <v>0.053403756483059</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0.00159435239727556</v>
+        <v>0.00155450888603851</v>
       </c>
       <c r="J114" t="n">
-        <v>0.00587314864135638</v>
+        <v>0.00626231918112902</v>
       </c>
       <c r="K114" t="n">
-        <v>0.00040303906521181</v>
+        <v>0.000383622406081966</v>
       </c>
     </row>
     <row r="115">
@@ -4859,28 +4859,28 @@
         <v>999</v>
       </c>
       <c r="D115" s="1" t="n">
-        <v>43871</v>
+        <v>43904</v>
       </c>
       <c r="E115" s="1" t="n">
-        <v>45017</v>
+        <v>44902</v>
       </c>
       <c r="F115" t="n">
-        <v>0.0469099591314796</v>
+        <v>0.0480152656190307</v>
       </c>
       <c r="G115" t="n">
-        <v>0.164554480376244</v>
+        <v>0.188375675710173</v>
       </c>
       <c r="H115" t="n">
-        <v>0.0000123309239533072</v>
+        <v>0.0000124470307172759</v>
       </c>
       <c r="I115" t="n">
-        <v>0.032471124406073</v>
+        <v>0.0340037867195679</v>
       </c>
       <c r="J115" t="n">
-        <v>0.0857098676379176</v>
+        <v>0.0853317182397797</v>
       </c>
       <c r="K115" t="n">
-        <v>0.00696972557039308</v>
+        <v>0.00644835484131002</v>
       </c>
     </row>
     <row r="116">
@@ -4894,28 +4894,28 @@
         <v>1005</v>
       </c>
       <c r="D116" s="1" t="n">
-        <v>43871</v>
+        <v>43903</v>
       </c>
       <c r="E116" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F116" t="n">
-        <v>0.0747386944380689</v>
+        <v>0.0766919270744346</v>
       </c>
       <c r="G116" t="n">
-        <v>0.242346980471093</v>
+        <v>0.261695707628335</v>
       </c>
       <c r="H116" t="n">
-        <v>0.000827526092357429</v>
+        <v>0.000681282617982379</v>
       </c>
       <c r="I116" t="n">
-        <v>0.0654154868718685</v>
+        <v>0.0649386195538442</v>
       </c>
       <c r="J116" t="n">
-        <v>0.116955555055201</v>
+        <v>0.119742409475102</v>
       </c>
       <c r="K116" t="n">
-        <v>0.015965595410698</v>
+        <v>0.0150755468383905</v>
       </c>
     </row>
     <row r="117">
@@ -4932,25 +4932,25 @@
         <v>43871</v>
       </c>
       <c r="E117" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F117" t="n">
-        <v>0.0247320330476149</v>
+        <v>0.0254183246511269</v>
       </c>
       <c r="G117" t="n">
-        <v>0.106103331321813</v>
+        <v>0.117425634511868</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0.0194092831972369</v>
+        <v>0.0185713266163127</v>
       </c>
       <c r="J117" t="n">
-        <v>0.0382898909760144</v>
+        <v>0.0391485373820303</v>
       </c>
       <c r="K117" t="n">
-        <v>0.00523942756100721</v>
+        <v>0.00516543317756222</v>
       </c>
     </row>
     <row r="118">
@@ -4964,28 +4964,28 @@
         <v>1008</v>
       </c>
       <c r="D118" s="1" t="n">
-        <v>43871</v>
+        <v>43900</v>
       </c>
       <c r="E118" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F118" t="n">
-        <v>0.0834045066256482</v>
+        <v>0.0860338228399031</v>
       </c>
       <c r="G118" t="n">
-        <v>0.286900452246415</v>
+        <v>0.318327555880221</v>
       </c>
       <c r="H118" t="n">
-        <v>0.0022553230750305</v>
+        <v>0.00158832838544976</v>
       </c>
       <c r="I118" t="n">
-        <v>0.0764003822828519</v>
+        <v>0.0730626209592278</v>
       </c>
       <c r="J118" t="n">
-        <v>0.115263219504512</v>
+        <v>0.120868524139811</v>
       </c>
       <c r="K118" t="n">
-        <v>0.03397223152836</v>
+        <v>0.0315405626648237</v>
       </c>
     </row>
     <row r="119">
@@ -4999,28 +4999,28 @@
         <v>1006</v>
       </c>
       <c r="D119" s="1" t="n">
-        <v>43871</v>
+        <v>43898</v>
       </c>
       <c r="E119" s="1" t="n">
-        <v>45017</v>
+        <v>44903</v>
       </c>
       <c r="F119" t="n">
-        <v>0.363371452308909</v>
+        <v>0.374781865597421</v>
       </c>
       <c r="G119" t="n">
-        <v>1.27881680891038</v>
+        <v>1.66934069145036</v>
       </c>
       <c r="H119" t="n">
-        <v>0.00545700606819075</v>
+        <v>0.00422441798081269</v>
       </c>
       <c r="I119" t="n">
-        <v>0.329895516905172</v>
+        <v>0.313222368620833</v>
       </c>
       <c r="J119" t="n">
-        <v>0.496933680140325</v>
+        <v>0.499385221649162</v>
       </c>
       <c r="K119" t="n">
-        <v>0.194672459965544</v>
+        <v>0.185276878832411</v>
       </c>
     </row>
     <row r="120">
@@ -5034,28 +5034,28 @@
         <v>1012</v>
       </c>
       <c r="D120" s="1" t="n">
-        <v>43879</v>
+        <v>43896</v>
       </c>
       <c r="E120" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F120" t="n">
-        <v>0.141626316813994</v>
+        <v>0.14492527880225</v>
       </c>
       <c r="G120" t="n">
-        <v>0.469988674971687</v>
+        <v>0.479737793206151</v>
       </c>
       <c r="H120" t="n">
-        <v>0.000474972672108044</v>
+        <v>0.000870808011869113</v>
       </c>
       <c r="I120" t="n">
-        <v>0.114800456817787</v>
+        <v>0.115073612773252</v>
       </c>
       <c r="J120" t="n">
-        <v>0.219449045298608</v>
+        <v>0.217006957181765</v>
       </c>
       <c r="K120" t="n">
-        <v>0.0538330183852328</v>
+        <v>0.0543202346796523</v>
       </c>
     </row>
     <row r="121">
@@ -5072,25 +5072,25 @@
         <v>43871</v>
       </c>
       <c r="E121" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F121" t="n">
-        <v>0.356264480444362</v>
+        <v>0.369361841441621</v>
       </c>
       <c r="G121" t="n">
-        <v>1.53125223923054</v>
+        <v>1.79834280208847</v>
       </c>
       <c r="H121" t="n">
-        <v>0.000142467325118984</v>
+        <v>0.000115161556308627</v>
       </c>
       <c r="I121" t="n">
-        <v>0.301244882182377</v>
+        <v>0.301140521054999</v>
       </c>
       <c r="J121" t="n">
-        <v>0.449397109485277</v>
+        <v>0.46186983987991</v>
       </c>
       <c r="K121" t="n">
-        <v>0.167928265893721</v>
+        <v>0.162203120930122</v>
       </c>
     </row>
     <row r="122">
@@ -5104,28 +5104,28 @@
         <v>998</v>
       </c>
       <c r="D122" s="1" t="n">
-        <v>43871</v>
+        <v>43904</v>
       </c>
       <c r="E122" s="1" t="n">
-        <v>45017</v>
+        <v>44901</v>
       </c>
       <c r="F122" t="n">
-        <v>0.133866376414708</v>
+        <v>0.137097349469596</v>
       </c>
       <c r="G122" t="n">
-        <v>0.397573402819786</v>
+        <v>0.416523324936282</v>
       </c>
       <c r="H122" t="n">
-        <v>0.00579276387246265</v>
+        <v>0.00479829180811631</v>
       </c>
       <c r="I122" t="n">
-        <v>0.121637219285551</v>
+        <v>0.119003209537253</v>
       </c>
       <c r="J122" t="n">
-        <v>0.187822298837451</v>
+        <v>0.189341341197933</v>
       </c>
       <c r="K122" t="n">
-        <v>0.0836188443687831</v>
+        <v>0.0797563570867905</v>
       </c>
     </row>
     <row r="123">
@@ -5139,28 +5139,28 @@
         <v>1015</v>
       </c>
       <c r="D123" s="1" t="n">
-        <v>43871</v>
+        <v>43893</v>
       </c>
       <c r="E123" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F123" t="n">
-        <v>0.0849508398385025</v>
+        <v>0.0895793213500274</v>
       </c>
       <c r="G123" t="n">
-        <v>0.284567946156598</v>
+        <v>0.34246134922358</v>
       </c>
       <c r="H123" t="n">
-        <v>0.000272995056059535</v>
+        <v>0.000178676400956991</v>
       </c>
       <c r="I123" t="n">
-        <v>0.0796186085776606</v>
+        <v>0.0767697079243811</v>
       </c>
       <c r="J123" t="n">
-        <v>0.126360270527128</v>
+        <v>0.130231522963062</v>
       </c>
       <c r="K123" t="n">
-        <v>0.0362311201835944</v>
+        <v>0.034189688143073</v>
       </c>
     </row>
     <row r="124">
@@ -5177,25 +5177,25 @@
         <v>43871</v>
       </c>
       <c r="E124" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F124" t="n">
-        <v>0.0487233849951082</v>
+        <v>0.0499870704013074</v>
       </c>
       <c r="G124" t="n">
-        <v>0.140467601357031</v>
+        <v>0.166803646358374</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0.0543930112655278</v>
+        <v>0.0535074150679742</v>
       </c>
       <c r="J124" t="n">
-        <v>0.0647236210070283</v>
+        <v>0.0665084267405618</v>
       </c>
       <c r="K124" t="n">
-        <v>0.0331037179626188</v>
+        <v>0.0331272832885798</v>
       </c>
     </row>
     <row r="125">
@@ -5209,28 +5209,28 @@
         <v>992</v>
       </c>
       <c r="D125" s="1" t="n">
-        <v>43877</v>
+        <v>43910</v>
       </c>
       <c r="E125" s="1" t="n">
-        <v>45017</v>
+        <v>44901</v>
       </c>
       <c r="F125" t="n">
-        <v>0.0103650976811049</v>
+        <v>0.010979182864514</v>
       </c>
       <c r="G125" t="n">
-        <v>0.0524668433219458</v>
+        <v>0.0835296389901828</v>
       </c>
       <c r="H125" t="n">
-        <v>0.0000383721412115262</v>
+        <v>0.000037349249093347</v>
       </c>
       <c r="I125" t="n">
-        <v>0.00813887082928962</v>
+        <v>0.00739388929475715</v>
       </c>
       <c r="J125" t="n">
-        <v>0.0159441111010272</v>
+        <v>0.0172466998812835</v>
       </c>
       <c r="K125" t="n">
-        <v>0.000839510424536649</v>
+        <v>0.000862887799585282</v>
       </c>
     </row>
     <row r="126">
@@ -5244,28 +5244,28 @@
         <v>1004</v>
       </c>
       <c r="D126" s="1" t="n">
-        <v>43871</v>
+        <v>43898</v>
       </c>
       <c r="E126" s="1" t="n">
-        <v>45017</v>
+        <v>44901</v>
       </c>
       <c r="F126" t="n">
-        <v>0.00293222787713859</v>
+        <v>0.00316392725964973</v>
       </c>
       <c r="G126" t="n">
-        <v>0.0155039269550551</v>
+        <v>0.023929886383752</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0.00198836752389777</v>
+        <v>0.00188730413477674</v>
       </c>
       <c r="J126" t="n">
-        <v>0.00467969191626068</v>
+        <v>0.00485107623850583</v>
       </c>
       <c r="K126" t="n">
-        <v>0.000248010756580045</v>
+        <v>0.000260424106842363</v>
       </c>
     </row>
     <row r="127">
@@ -5279,28 +5279,28 @@
         <v>1006</v>
       </c>
       <c r="D127" s="1" t="n">
-        <v>43871</v>
+        <v>43902</v>
       </c>
       <c r="E127" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F127" t="n">
-        <v>0.128678574764808</v>
+        <v>0.134459600920083</v>
       </c>
       <c r="G127" t="n">
-        <v>0.306697657022254</v>
+        <v>0.366928687558731</v>
       </c>
       <c r="H127" t="n">
-        <v>0.00183058123242356</v>
+        <v>0.00138367129504715</v>
       </c>
       <c r="I127" t="n">
-        <v>0.121657593302333</v>
+        <v>0.121633612350595</v>
       </c>
       <c r="J127" t="n">
-        <v>0.19128647754658</v>
+        <v>0.206332425044441</v>
       </c>
       <c r="K127" t="n">
-        <v>0.0600089851260599</v>
+        <v>0.0593901171700076</v>
       </c>
     </row>
     <row r="128">
@@ -5314,28 +5314,28 @@
         <v>981</v>
       </c>
       <c r="D128" s="1" t="n">
-        <v>43894</v>
+        <v>43927</v>
       </c>
       <c r="E128" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F128" t="n">
-        <v>0.00160927711316389</v>
+        <v>0.00183299016672465</v>
       </c>
       <c r="G128" t="n">
-        <v>0.0241202725482635</v>
+        <v>0.0320123015738575</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>0.000571106358660124</v>
+        <v>0.000542687824255975</v>
       </c>
       <c r="J128" t="n">
-        <v>0.00162328278457137</v>
+        <v>0.00178599485585211</v>
       </c>
       <c r="K128" t="n">
-        <v>0.0000239106916538177</v>
+        <v>0.0000235115153524317</v>
       </c>
     </row>
     <row r="129">
@@ -5352,25 +5352,25 @@
         <v>43871</v>
       </c>
       <c r="E129" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F129" t="n">
-        <v>0.2927672987345</v>
+        <v>0.309824649237827</v>
       </c>
       <c r="G129" t="n">
-        <v>1.97964956682087</v>
+        <v>2.40966284884659</v>
       </c>
       <c r="H129" t="n">
-        <v>0.0130582397492818</v>
+        <v>0.0106016432547045</v>
       </c>
       <c r="I129" t="n">
-        <v>0.224496114101666</v>
+        <v>0.229634760942823</v>
       </c>
       <c r="J129" t="n">
-        <v>0.349082154679506</v>
+        <v>0.366399535886338</v>
       </c>
       <c r="K129" t="n">
-        <v>0.12313977041776</v>
+        <v>0.117047345371185</v>
       </c>
     </row>
     <row r="130">
@@ -5384,28 +5384,28 @@
         <v>1006</v>
       </c>
       <c r="D130" s="1" t="n">
-        <v>43871</v>
+        <v>43902</v>
       </c>
       <c r="E130" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F130" t="n">
-        <v>0.215835398713111</v>
+        <v>0.217907445453724</v>
       </c>
       <c r="G130" t="n">
-        <v>1.61280315391035</v>
+        <v>1.80208923477552</v>
       </c>
       <c r="H130" t="n">
-        <v>0.00359414872587428</v>
+        <v>0.00371511046880979</v>
       </c>
       <c r="I130" t="n">
-        <v>0.156532107034276</v>
+        <v>0.156228641704038</v>
       </c>
       <c r="J130" t="n">
-        <v>0.277163657802995</v>
+        <v>0.296866333911321</v>
       </c>
       <c r="K130" t="n">
-        <v>0.0552967694360982</v>
+        <v>0.0561262787462767</v>
       </c>
     </row>
     <row r="131">
@@ -5419,28 +5419,28 @@
         <v>1007</v>
       </c>
       <c r="D131" s="1" t="n">
-        <v>43871</v>
+        <v>43901</v>
       </c>
       <c r="E131" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F131" t="n">
-        <v>0.485035238688171</v>
+        <v>0.499385948940323</v>
       </c>
       <c r="G131" t="n">
-        <v>2.22821031898014</v>
+        <v>2.67035408260416</v>
       </c>
       <c r="H131" t="n">
-        <v>0.01294247071766</v>
+        <v>0.0124602828484207</v>
       </c>
       <c r="I131" t="n">
-        <v>0.345050032254677</v>
+        <v>0.326020443989688</v>
       </c>
       <c r="J131" t="n">
-        <v>0.66724270253781</v>
+        <v>0.708612217208495</v>
       </c>
       <c r="K131" t="n">
-        <v>0.184405748398998</v>
+        <v>0.183701811867013</v>
       </c>
     </row>
     <row r="132">
@@ -5454,28 +5454,28 @@
         <v>992</v>
       </c>
       <c r="D132" s="1" t="n">
-        <v>43879</v>
+        <v>43912</v>
       </c>
       <c r="E132" s="1" t="n">
-        <v>45017</v>
+        <v>44903</v>
       </c>
       <c r="F132" t="n">
-        <v>0.000974706994442632</v>
+        <v>0.00108727032209419</v>
       </c>
       <c r="G132" t="n">
-        <v>0.0161443640377775</v>
+        <v>0.0187251598218176</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0.0002990481786199</v>
+        <v>0.000298122254997883</v>
       </c>
       <c r="J132" t="n">
-        <v>0.000842908518532885</v>
+        <v>0.000913160801188341</v>
       </c>
       <c r="K132" t="n">
-        <v>0.000104428988272055</v>
+        <v>0.000103423689828928</v>
       </c>
     </row>
     <row r="133">
@@ -5489,28 +5489,28 @@
         <v>1006</v>
       </c>
       <c r="D133" s="1" t="n">
-        <v>43871</v>
+        <v>43901</v>
       </c>
       <c r="E133" s="1" t="n">
-        <v>45017</v>
+        <v>44906</v>
       </c>
       <c r="F133" t="n">
-        <v>0.0363581422472954</v>
+        <v>0.0369488038537074</v>
       </c>
       <c r="G133" t="n">
-        <v>0.128063751940905</v>
+        <v>0.142259778489847</v>
       </c>
       <c r="H133" t="n">
-        <v>0.00130902230517783</v>
+        <v>0.00124402764191791</v>
       </c>
       <c r="I133" t="n">
-        <v>0.034191254876332</v>
+        <v>0.0331149981854627</v>
       </c>
       <c r="J133" t="n">
-        <v>0.0539420350603097</v>
+        <v>0.0524933613635163</v>
       </c>
       <c r="K133" t="n">
-        <v>0.00730474095861387</v>
+        <v>0.00756458842474165</v>
       </c>
     </row>
     <row r="134">
@@ -5524,28 +5524,28 @@
         <v>976</v>
       </c>
       <c r="D134" s="1" t="n">
-        <v>43899</v>
+        <v>43932</v>
       </c>
       <c r="E134" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F134" t="n">
-        <v>0.00161688380158178</v>
+        <v>0.00177584597927216</v>
       </c>
       <c r="G134" t="n">
-        <v>0.0121648594849628</v>
+        <v>0.0161674244488789</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>0.000676676050820298</v>
+        <v>0.000714534092046801</v>
       </c>
       <c r="J134" t="n">
-        <v>0.00187097279574523</v>
+        <v>0.00191228079333904</v>
       </c>
       <c r="K134" t="n">
-        <v>0.00020008100317428</v>
+        <v>0.000199884324138837</v>
       </c>
     </row>
     <row r="135">
@@ -5562,25 +5562,25 @@
         <v>43871</v>
       </c>
       <c r="E135" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F135" t="n">
-        <v>0.30625955959597</v>
+        <v>0.31467303943389</v>
       </c>
       <c r="G135" t="n">
-        <v>1.04426161088671</v>
+        <v>1.24606289216285</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>0.298377135086331</v>
+        <v>0.289427061624967</v>
       </c>
       <c r="J135" t="n">
-        <v>0.495089015711758</v>
+        <v>0.49508380124757</v>
       </c>
       <c r="K135" t="n">
-        <v>0.0844385585472097</v>
+        <v>0.0822194065935834</v>
       </c>
     </row>
     <row r="136">
@@ -5597,25 +5597,25 @@
         <v>43871</v>
       </c>
       <c r="E136" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F136" t="n">
-        <v>0.0688891087577592</v>
+        <v>0.070975583139748</v>
       </c>
       <c r="G136" t="n">
-        <v>0.342953896549434</v>
+        <v>0.401837347449111</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>0.0320213202132021</v>
+        <v>0.030635140634644</v>
       </c>
       <c r="J136" t="n">
-        <v>0.132257160519456</v>
+        <v>0.13053476100023</v>
       </c>
       <c r="K136" t="n">
-        <v>0.00244391457525321</v>
+        <v>0.00262226711515712</v>
       </c>
     </row>
     <row r="137">
@@ -5629,28 +5629,28 @@
         <v>999</v>
       </c>
       <c r="D137" s="1" t="n">
-        <v>43876</v>
+        <v>43909</v>
       </c>
       <c r="E137" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F137" t="n">
-        <v>0.00130055065195843</v>
+        <v>0.00137309639993687</v>
       </c>
       <c r="G137" t="n">
-        <v>0.00661681844659463</v>
+        <v>0.0083904505628247</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>0.000687445632641094</v>
+        <v>0.000733095544450116</v>
       </c>
       <c r="J137" t="n">
-        <v>0.00188894670251122</v>
+        <v>0.00199858405456742</v>
       </c>
       <c r="K137" t="n">
-        <v>0.000226595896798577</v>
+        <v>0.000210507305538054</v>
       </c>
     </row>
     <row r="138">
@@ -5664,28 +5664,28 @@
         <v>986</v>
       </c>
       <c r="D138" s="1" t="n">
-        <v>43877</v>
+        <v>43910</v>
       </c>
       <c r="E138" s="1" t="n">
-        <v>45017</v>
+        <v>44895</v>
       </c>
       <c r="F138" t="n">
-        <v>0.0851173193512356</v>
+        <v>0.0908976947239488</v>
       </c>
       <c r="G138" t="n">
-        <v>0.35302807358338</v>
+        <v>0.455342491443574</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>0.0746745587976714</v>
+        <v>0.0693607776441314</v>
       </c>
       <c r="J138" t="n">
-        <v>0.143321101343621</v>
+        <v>0.15508468230301</v>
       </c>
       <c r="K138" t="n">
-        <v>0.00542758524896147</v>
+        <v>0.00487895536496547</v>
       </c>
     </row>
     <row r="139">
@@ -5702,25 +5702,25 @@
         <v>43871</v>
       </c>
       <c r="E139" s="1" t="n">
-        <v>45017</v>
+        <v>44895</v>
       </c>
       <c r="F139" t="n">
-        <v>0.364614983549092</v>
+        <v>0.377170388646105</v>
       </c>
       <c r="G139" t="n">
-        <v>2.05735103694675</v>
+        <v>2.22334553913047</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>0.319934229278442</v>
+        <v>0.297882602567523</v>
       </c>
       <c r="J139" t="n">
-        <v>0.550916504874529</v>
+        <v>0.564564964363815</v>
       </c>
       <c r="K139" t="n">
-        <v>0.0386499485006181</v>
+        <v>0.0392365317397677</v>
       </c>
     </row>
     <row r="140">
@@ -5734,28 +5734,28 @@
         <v>1009</v>
       </c>
       <c r="D140" s="1" t="n">
-        <v>43871</v>
+        <v>43891</v>
       </c>
       <c r="E140" s="1" t="n">
-        <v>45017</v>
+        <v>44899</v>
       </c>
       <c r="F140" t="n">
-        <v>0.415008624570444</v>
+        <v>0.429795454596866</v>
       </c>
       <c r="G140" t="n">
-        <v>1.15391699563423</v>
+        <v>1.38151527855595</v>
       </c>
       <c r="H140" t="n">
-        <v>0.00659996456861126</v>
+        <v>0.00390020937966143</v>
       </c>
       <c r="I140" t="n">
-        <v>0.393460623436832</v>
+        <v>0.370579831826713</v>
       </c>
       <c r="J140" t="n">
-        <v>0.598301430816957</v>
+        <v>0.618121282413235</v>
       </c>
       <c r="K140" t="n">
-        <v>0.180556465670881</v>
+        <v>0.179754927894287</v>
       </c>
     </row>
     <row r="141">
@@ -5769,28 +5769,28 @@
         <v>989</v>
       </c>
       <c r="D141" s="1" t="n">
-        <v>43885</v>
+        <v>43918</v>
       </c>
       <c r="E141" s="1" t="n">
-        <v>45017</v>
+        <v>44906</v>
       </c>
       <c r="F141" t="n">
-        <v>0.00314014235648713</v>
+        <v>0.00322547732971099</v>
       </c>
       <c r="G141" t="n">
-        <v>0.013963706952152</v>
+        <v>0.0154509247027277</v>
       </c>
       <c r="H141" t="n">
-        <v>0.000038147257144219</v>
+        <v>0.0000359015564503478</v>
       </c>
       <c r="I141" t="n">
-        <v>0.00225497786363397</v>
+        <v>0.00207865002104862</v>
       </c>
       <c r="J141" t="n">
-        <v>0.00479449729351775</v>
+        <v>0.0047822790152883</v>
       </c>
       <c r="K141" t="n">
-        <v>0.000589273810210598</v>
+        <v>0.000538683780051821</v>
       </c>
     </row>
     <row r="142">
@@ -5807,25 +5807,25 @@
         <v>43871</v>
       </c>
       <c r="E142" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F142" t="n">
-        <v>0.143699385543817</v>
+        <v>0.147673459850349</v>
       </c>
       <c r="G142" t="n">
-        <v>0.719163964935557</v>
+        <v>0.747513915629706</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>0.0567472477584837</v>
+        <v>0.0531319594388361</v>
       </c>
       <c r="J142" t="n">
-        <v>0.223885584441623</v>
+        <v>0.221170020559467</v>
       </c>
       <c r="K142" t="n">
-        <v>0.0189987650802698</v>
+        <v>0.0181647043281536</v>
       </c>
     </row>
     <row r="143">
@@ -5842,25 +5842,25 @@
         <v>43871</v>
       </c>
       <c r="E143" s="1" t="n">
-        <v>45017</v>
+        <v>44906</v>
       </c>
       <c r="F143" t="n">
-        <v>0.0879224257105947</v>
+        <v>0.0915674740449521</v>
       </c>
       <c r="G143" t="n">
-        <v>0.673588431617221</v>
+        <v>0.783679026409747</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>0.0562158244166078</v>
+        <v>0.0553077972345898</v>
       </c>
       <c r="J143" t="n">
-        <v>0.148192919163778</v>
+        <v>0.145066664396231</v>
       </c>
       <c r="K143" t="n">
-        <v>0.0221501929944887</v>
+        <v>0.0211982609001955</v>
       </c>
     </row>
     <row r="144">
@@ -5874,28 +5874,28 @@
         <v>1006</v>
       </c>
       <c r="D144" s="1" t="n">
-        <v>43871</v>
+        <v>43902</v>
       </c>
       <c r="E144" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F144" t="n">
-        <v>0.00406366713456028</v>
+        <v>0.00442786390247762</v>
       </c>
       <c r="G144" t="n">
-        <v>0.0256127428069323</v>
+        <v>0.0360717461330762</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>0.00229381086399026</v>
+        <v>0.00228861972106697</v>
       </c>
       <c r="J144" t="n">
-        <v>0.00525553953772098</v>
+        <v>0.00537185600349568</v>
       </c>
       <c r="K144" t="n">
-        <v>0.000650779440763971</v>
+        <v>0.000647349769920501</v>
       </c>
     </row>
     <row r="145">
@@ -5909,28 +5909,28 @@
         <v>992</v>
       </c>
       <c r="D145" s="1" t="n">
-        <v>43877</v>
+        <v>43910</v>
       </c>
       <c r="E145" s="1" t="n">
-        <v>45017</v>
+        <v>44901</v>
       </c>
       <c r="F145" t="n">
-        <v>0.133920797743529</v>
+        <v>0.138501457038081</v>
       </c>
       <c r="G145" t="n">
-        <v>1.52565707133917</v>
+        <v>1.74235782893734</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>0.0807945858637745</v>
+        <v>0.0811523139189534</v>
       </c>
       <c r="J145" t="n">
-        <v>0.144358074046588</v>
+        <v>0.149093770169286</v>
       </c>
       <c r="K145" t="n">
-        <v>0.0394520383520362</v>
+        <v>0.0371617768388145</v>
       </c>
     </row>
     <row r="146">
@@ -5944,28 +5944,28 @@
         <v>1002</v>
       </c>
       <c r="D146" s="1" t="n">
-        <v>43871</v>
+        <v>43900</v>
       </c>
       <c r="E146" s="1" t="n">
-        <v>45017</v>
+        <v>44901</v>
       </c>
       <c r="F146" t="n">
-        <v>0.0504810348408194</v>
+        <v>0.0534832232702731</v>
       </c>
       <c r="G146" t="n">
-        <v>0.215368772228229</v>
+        <v>0.240553024979639</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>0.0414385906444866</v>
+        <v>0.0407224670974395</v>
       </c>
       <c r="J146" t="n">
-        <v>0.0694378978121023</v>
+        <v>0.0735373658245058</v>
       </c>
       <c r="K146" t="n">
-        <v>0.0155616307195665</v>
+        <v>0.0147796594097692</v>
       </c>
     </row>
     <row r="147">
@@ -5979,28 +5979,28 @@
         <v>986</v>
       </c>
       <c r="D147" s="1" t="n">
-        <v>43874</v>
+        <v>43907</v>
       </c>
       <c r="E147" s="1" t="n">
-        <v>45017</v>
+        <v>44892</v>
       </c>
       <c r="F147" t="n">
-        <v>0.144061460090742</v>
+        <v>0.148612398932313</v>
       </c>
       <c r="G147" t="n">
-        <v>0.521966241587405</v>
+        <v>0.583399602110761</v>
       </c>
       <c r="H147" t="n">
-        <v>0.000262452806701302</v>
+        <v>0.000202884220423453</v>
       </c>
       <c r="I147" t="n">
-        <v>0.117110045821544</v>
+        <v>0.11675272726283</v>
       </c>
       <c r="J147" t="n">
-        <v>0.207803955694198</v>
+        <v>0.218545378759241</v>
       </c>
       <c r="K147" t="n">
-        <v>0.0638104236030003</v>
+        <v>0.0657805749183526</v>
       </c>
     </row>
     <row r="148">
@@ -6017,25 +6017,25 @@
         <v>43871</v>
       </c>
       <c r="E148" s="1" t="n">
-        <v>45017</v>
+        <v>44903</v>
       </c>
       <c r="F148" t="n">
-        <v>0.110946493251651</v>
+        <v>0.115064637447828</v>
       </c>
       <c r="G148" t="n">
-        <v>0.579580778048265</v>
+        <v>0.603150728309056</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>0.0840115799421003</v>
+        <v>0.0814954786254571</v>
       </c>
       <c r="J148" t="n">
-        <v>0.150217435209819</v>
+        <v>0.155678655518215</v>
       </c>
       <c r="K148" t="n">
-        <v>0.04202515857472</v>
+        <v>0.0396644505881587</v>
       </c>
     </row>
     <row r="149">
@@ -6052,25 +6052,25 @@
         <v>43871</v>
       </c>
       <c r="E149" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F149" t="n">
-        <v>0.210103884369278</v>
+        <v>0.214159296811687</v>
       </c>
       <c r="G149" t="n">
-        <v>0.667172297083314</v>
+        <v>0.741918006140509</v>
       </c>
       <c r="H149" t="n">
-        <v>0.00331599078720079</v>
+        <v>0.00216879338994814</v>
       </c>
       <c r="I149" t="n">
-        <v>0.212332415709619</v>
+        <v>0.208336400869708</v>
       </c>
       <c r="J149" t="n">
-        <v>0.353488424501609</v>
+        <v>0.36092044809376</v>
       </c>
       <c r="K149" t="n">
-        <v>0.0288080912988016</v>
+        <v>0.0280066597133613</v>
       </c>
     </row>
     <row r="150">
@@ -6087,25 +6087,25 @@
         <v>43871</v>
       </c>
       <c r="E150" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F150" t="n">
-        <v>0.35250370689629</v>
+        <v>0.353763755015504</v>
       </c>
       <c r="G150" t="n">
-        <v>1.55664974714041</v>
+        <v>1.61759783285783</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>0.281081779537995</v>
+        <v>0.257786278867201</v>
       </c>
       <c r="J150" t="n">
-        <v>0.598056884903837</v>
+        <v>0.608689946944819</v>
       </c>
       <c r="K150" t="n">
-        <v>0.0800428076547073</v>
+        <v>0.0852864385125477</v>
       </c>
     </row>
     <row r="151">
@@ -6122,25 +6122,25 @@
         <v>43871</v>
       </c>
       <c r="E151" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F151" t="n">
-        <v>0.234603796711999</v>
+        <v>0.236261968388036</v>
       </c>
       <c r="G151" t="n">
-        <v>0.589731656095146</v>
+        <v>0.62664473564414</v>
       </c>
       <c r="H151" t="n">
-        <v>0.00118747409147437</v>
+        <v>0.000751123185226636</v>
       </c>
       <c r="I151" t="n">
-        <v>0.240690236641695</v>
+        <v>0.240585488297068</v>
       </c>
       <c r="J151" t="n">
-        <v>0.37269799497752</v>
+        <v>0.369862273808643</v>
       </c>
       <c r="K151" t="n">
-        <v>0.0727260422990075</v>
+        <v>0.0727555327454361</v>
       </c>
     </row>
     <row r="152">
@@ -6154,28 +6154,28 @@
         <v>998</v>
       </c>
       <c r="D152" s="1" t="n">
-        <v>43877</v>
+        <v>43910</v>
       </c>
       <c r="E152" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F152" t="n">
-        <v>0.282247858303379</v>
+        <v>0.291227600991948</v>
       </c>
       <c r="G152" t="n">
-        <v>1.13330533789194</v>
+        <v>1.39045246368396</v>
       </c>
       <c r="H152" t="n">
-        <v>0.00508750508750509</v>
+        <v>0.00458466906673692</v>
       </c>
       <c r="I152" t="n">
-        <v>0.261889318187037</v>
+        <v>0.24699718429529</v>
       </c>
       <c r="J152" t="n">
-        <v>0.421756965756107</v>
+        <v>0.426631275645973</v>
       </c>
       <c r="K152" t="n">
-        <v>0.0816644750136962</v>
+        <v>0.0725669791586568</v>
       </c>
     </row>
     <row r="153">
@@ -6189,28 +6189,28 @@
         <v>997</v>
       </c>
       <c r="D153" s="1" t="n">
-        <v>43878</v>
+        <v>43911</v>
       </c>
       <c r="E153" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F153" t="n">
-        <v>0.00588624570451859</v>
+        <v>0.00606569922049321</v>
       </c>
       <c r="G153" t="n">
-        <v>0.0237572259105856</v>
+        <v>0.0244516579194855</v>
       </c>
       <c r="H153" t="n">
-        <v>0.000138586188808017</v>
+        <v>0.000133677728702796</v>
       </c>
       <c r="I153" t="n">
-        <v>0.00483443602966814</v>
+        <v>0.00479944549928775</v>
       </c>
       <c r="J153" t="n">
-        <v>0.00860723616076772</v>
+        <v>0.00883023909609691</v>
       </c>
       <c r="K153" t="n">
-        <v>0.00138046429602168</v>
+        <v>0.00141047186396889</v>
       </c>
     </row>
     <row r="154">
@@ -6224,28 +6224,28 @@
         <v>998</v>
       </c>
       <c r="D154" s="1" t="n">
-        <v>43877</v>
+        <v>43910</v>
       </c>
       <c r="E154" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F154" t="n">
-        <v>0.0226295927082081</v>
+        <v>0.0226499143508112</v>
       </c>
       <c r="G154" t="n">
-        <v>0.0606009792977934</v>
+        <v>0.0675515386325654</v>
       </c>
       <c r="H154" t="n">
-        <v>0.000163816362647509</v>
+        <v>0.000135271064793957</v>
       </c>
       <c r="I154" t="n">
-        <v>0.0219493120351334</v>
+        <v>0.0210775348140154</v>
       </c>
       <c r="J154" t="n">
-        <v>0.0393985090757278</v>
+        <v>0.0398033780755388</v>
       </c>
       <c r="K154" t="n">
-        <v>0.00245909868162451</v>
+        <v>0.00247342500594057</v>
       </c>
     </row>
     <row r="155">
@@ -6262,25 +6262,25 @@
         <v>43871</v>
       </c>
       <c r="E155" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F155" t="n">
-        <v>0.0813983644639954</v>
+        <v>0.0887379479185202</v>
       </c>
       <c r="G155" t="n">
-        <v>0.633121581377672</v>
+        <v>0.880906077976051</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>0.0316270922537952</v>
+        <v>0.0309147679846663</v>
       </c>
       <c r="J155" t="n">
-        <v>0.102264424524728</v>
+        <v>0.098529965223768</v>
       </c>
       <c r="K155" t="n">
-        <v>0.0127163983997104</v>
+        <v>0.0120717545088003</v>
       </c>
     </row>
     <row r="156">
@@ -6294,28 +6294,28 @@
         <v>988</v>
       </c>
       <c r="D156" s="1" t="n">
-        <v>43871</v>
+        <v>43882</v>
       </c>
       <c r="E156" s="1" t="n">
-        <v>45017</v>
+        <v>44869</v>
       </c>
       <c r="F156" t="n">
-        <v>0.000337308647051071</v>
+        <v>0.000362337067737064</v>
       </c>
       <c r="G156" t="n">
-        <v>0.00316574828181873</v>
+        <v>0.00303400870929056</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>0.000126859029525223</v>
+        <v>0.000129563118286293</v>
       </c>
       <c r="J156" t="n">
-        <v>0.000427977249778576</v>
+        <v>0.000420131186156028</v>
       </c>
       <c r="K156" t="n">
-        <v>0.0000106031252473458</v>
+        <v>0.00000902761083101654</v>
       </c>
     </row>
     <row r="157">
@@ -6329,28 +6329,28 @@
         <v>994</v>
       </c>
       <c r="D157" s="1" t="n">
-        <v>43881</v>
+        <v>43914</v>
       </c>
       <c r="E157" s="1" t="n">
-        <v>45017</v>
+        <v>44907</v>
       </c>
       <c r="F157" t="n">
-        <v>0.013091740555364</v>
+        <v>0.0145333240781702</v>
       </c>
       <c r="G157" t="n">
-        <v>0.0770654055325588</v>
+        <v>0.0912654870847798</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>0.00603824791288083</v>
+        <v>0.00606682136722526</v>
       </c>
       <c r="J157" t="n">
-        <v>0.0182798861461429</v>
+        <v>0.0205779264167756</v>
       </c>
       <c r="K157" t="n">
-        <v>0.00153766265256255</v>
+        <v>0.00140784398409797</v>
       </c>
     </row>
     <row r="158">
@@ -6364,28 +6364,28 @@
         <v>985</v>
       </c>
       <c r="D158" s="1" t="n">
-        <v>43883</v>
+        <v>43916</v>
       </c>
       <c r="E158" s="1" t="n">
-        <v>45017</v>
+        <v>44900</v>
       </c>
       <c r="F158" t="n">
-        <v>0.00681392203740866</v>
+        <v>0.00750648077397116</v>
       </c>
       <c r="G158" t="n">
-        <v>0.0367925985871604</v>
+        <v>0.0425754732413865</v>
       </c>
       <c r="H158" t="n">
-        <v>0.0000672732501119124</v>
+        <v>0.0000505562255993415</v>
       </c>
       <c r="I158" t="n">
-        <v>0.00267062041842886</v>
+        <v>0.00243839317676117</v>
       </c>
       <c r="J158" t="n">
-        <v>0.010498414557707</v>
+        <v>0.011062240148569</v>
       </c>
       <c r="K158" t="n">
-        <v>0.000908088473762729</v>
+        <v>0.000888672732601055</v>
       </c>
     </row>
   </sheetData>

--- a/stats_loc.xlsx
+++ b/stats_loc.xlsx
@@ -4719,7 +4719,7 @@
         <v>1035</v>
       </c>
       <c r="D111" s="1" t="n">
-        <v>43873</v>
+        <v>43871</v>
       </c>
       <c r="E111" s="1" t="n">
         <v>44907</v>

--- a/stats_loc.xlsx
+++ b/stats_loc.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
   <si>
     <t xml:space="preserve">location_name</t>
   </si>
@@ -20,7 +20,19 @@
     <t xml:space="preserve">""</t>
   </si>
   <si>
-    <t xml:space="preserve">n</t>
+    <t xml:space="preserve">n_ascert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_daily_cases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_zeros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_1to9</t>
   </si>
   <si>
     <t xml:space="preserve">min_date</t>
@@ -892,5499 +904,7395 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C2" t="n">
         <v>1017</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <v>43891</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>44907</v>
+      <c r="D2" t="n">
+        <v>1023</v>
+      </c>
+      <c r="E2" t="n">
+        <v>130</v>
       </c>
       <c r="F2" t="n">
+        <v>37</v>
+      </c>
+      <c r="G2" t="n">
+        <v>47</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J2" t="n">
         <v>0.00367153526710032</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
         <v>0.0548866847638496</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
         <v>0.00161632067581442</v>
       </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
         <v>0.00391961848129912</v>
       </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>0.000724350478633115</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
         <v>991</v>
       </c>
-      <c r="D3" s="1" t="n">
-        <v>43905</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>44895</v>
+      <c r="D3" t="n">
+        <v>997</v>
+      </c>
+      <c r="E3" t="n">
+        <v>156</v>
       </c>
       <c r="F3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" t="n">
+        <v>81</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J3" t="n">
         <v>0.0512171480954373</v>
       </c>
-      <c r="G3" t="n">
+      <c r="K3" t="n">
         <v>0.19962423673086</v>
       </c>
-      <c r="H3" t="n">
+      <c r="L3" t="n">
         <v>0.00276079199848962</v>
       </c>
-      <c r="I3" t="n">
+      <c r="M3" t="n">
         <v>0.035242199334583</v>
       </c>
-      <c r="J3" t="n">
+      <c r="N3" t="n">
         <v>0.0732472625683264</v>
       </c>
-      <c r="K3" t="n">
+      <c r="O3" t="n">
         <v>0.0187237539646794</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C4" t="n">
         <v>1016</v>
       </c>
-      <c r="D4" s="1" t="n">
-        <v>43892</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>44907</v>
+      <c r="D4" t="n">
+        <v>1022</v>
+      </c>
+      <c r="E4" t="n">
+        <v>131</v>
       </c>
       <c r="F4" t="n">
+        <v>18</v>
+      </c>
+      <c r="G4" t="n">
+        <v>162</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J4" t="n">
         <v>0.012358883503337</v>
       </c>
-      <c r="G4" t="n">
+      <c r="K4" t="n">
         <v>0.05641925627467</v>
       </c>
-      <c r="H4" t="n">
+      <c r="L4" t="n">
         <v>0.0000979159328071494</v>
       </c>
-      <c r="I4" t="n">
+      <c r="M4" t="n">
         <v>0.00978897339029682</v>
       </c>
-      <c r="J4" t="n">
+      <c r="N4" t="n">
         <v>0.0181142422535608</v>
       </c>
-      <c r="K4" t="n">
+      <c r="O4" t="n">
         <v>0.00126083905963514</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" t="n">
         <v>1005</v>
       </c>
-      <c r="D5" s="1" t="n">
-        <v>43898</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>44902</v>
+      <c r="D5" t="n">
+        <v>1011</v>
+      </c>
+      <c r="E5" t="n">
+        <v>142</v>
       </c>
       <c r="F5" t="n">
+        <v>77</v>
+      </c>
+      <c r="G5" t="n">
+        <v>222</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J5" t="n">
         <v>0.455518616362651</v>
       </c>
-      <c r="G5" t="n">
+      <c r="K5" t="n">
         <v>2.24502323949838</v>
       </c>
-      <c r="H5" t="n">
+      <c r="L5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
+      <c r="M5" t="n">
         <v>0.366434591425431</v>
       </c>
-      <c r="J5" t="n">
+      <c r="N5" t="n">
         <v>0.615955972906404</v>
       </c>
-      <c r="K5" t="n">
+      <c r="O5" t="n">
         <v>0.114366287151531</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C6" t="n">
         <v>985</v>
       </c>
-      <c r="D6" s="1" t="n">
-        <v>43916</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>44900</v>
+      <c r="D6" t="n">
+        <v>991</v>
+      </c>
+      <c r="E6" t="n">
+        <v>162</v>
       </c>
       <c r="F6" t="n">
+        <v>46</v>
+      </c>
+      <c r="G6" t="n">
+        <v>129</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J6" t="n">
         <v>0.00282655072614321</v>
       </c>
-      <c r="G6" t="n">
+      <c r="K6" t="n">
         <v>0.0436133791637616</v>
       </c>
-      <c r="H6" t="n">
+      <c r="L6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
+      <c r="M6" t="n">
         <v>0.00113742489733064</v>
       </c>
-      <c r="J6" t="n">
+      <c r="N6" t="n">
         <v>0.00227217521064162</v>
       </c>
-      <c r="K6" t="n">
+      <c r="O6" t="n">
         <v>0.000406319392189178</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C7" t="n">
         <v>1007</v>
       </c>
-      <c r="D7" s="1" t="n">
-        <v>43900</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <v>44906</v>
+      <c r="D7" t="n">
+        <v>1013</v>
+      </c>
+      <c r="E7" t="n">
+        <v>140</v>
       </c>
       <c r="F7" t="n">
+        <v>9</v>
+      </c>
+      <c r="G7" t="n">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J7" t="n">
         <v>0.185248712295755</v>
       </c>
-      <c r="G7" t="n">
+      <c r="K7" t="n">
         <v>0.5023132528369</v>
       </c>
-      <c r="H7" t="n">
+      <c r="L7" t="n">
         <v>0.00206142623693097</v>
       </c>
-      <c r="I7" t="n">
+      <c r="M7" t="n">
         <v>0.158510180509541</v>
       </c>
-      <c r="J7" t="n">
+      <c r="N7" t="n">
         <v>0.319997747682622</v>
       </c>
-      <c r="K7" t="n">
+      <c r="O7" t="n">
         <v>0.0343416646627078</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C8" t="n">
         <v>1011</v>
       </c>
-      <c r="D8" s="1" t="n">
-        <v>43897</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>44907</v>
+      <c r="D8" t="n">
+        <v>1017</v>
+      </c>
+      <c r="E8" t="n">
+        <v>136</v>
       </c>
       <c r="F8" t="n">
+        <v>10</v>
+      </c>
+      <c r="G8" t="n">
+        <v>69</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J8" t="n">
         <v>0.0625425159527209</v>
       </c>
-      <c r="G8" t="n">
+      <c r="K8" t="n">
         <v>0.258739305710104</v>
       </c>
-      <c r="H8" t="n">
+      <c r="L8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
+      <c r="M8" t="n">
         <v>0.0562611761749927</v>
       </c>
-      <c r="J8" t="n">
+      <c r="N8" t="n">
         <v>0.0971108978702471</v>
       </c>
-      <c r="K8" t="n">
+      <c r="O8" t="n">
         <v>0.0128999645760949</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C9" t="n">
         <v>1016</v>
       </c>
-      <c r="D9" s="1" t="n">
-        <v>43890</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <v>44905</v>
+      <c r="D9" t="n">
+        <v>1022</v>
+      </c>
+      <c r="E9" t="n">
+        <v>131</v>
       </c>
       <c r="F9" t="n">
+        <v>113</v>
+      </c>
+      <c r="G9" t="n">
+        <v>183</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J9" t="n">
         <v>0.245634047898832</v>
       </c>
-      <c r="G9" t="n">
+      <c r="K9" t="n">
         <v>1.28702055114405</v>
       </c>
-      <c r="H9" t="n">
+      <c r="L9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
+      <c r="M9" t="n">
         <v>0.173287454222707</v>
       </c>
-      <c r="J9" t="n">
+      <c r="N9" t="n">
         <v>0.377989043829009</v>
       </c>
-      <c r="K9" t="n">
+      <c r="O9" t="n">
         <v>0.0607497912126572</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C10" t="n">
         <v>1016</v>
       </c>
-      <c r="D10" s="1" t="n">
-        <v>43892</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <v>44907</v>
+      <c r="D10" t="n">
+        <v>1022</v>
+      </c>
+      <c r="E10" t="n">
+        <v>131</v>
       </c>
       <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>9</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J10" t="n">
         <v>0.405637163115154</v>
       </c>
-      <c r="G10" t="n">
+      <c r="K10" t="n">
         <v>2.17434603087311</v>
       </c>
-      <c r="H10" t="n">
+      <c r="L10" t="n">
         <v>0.00099526007389806</v>
       </c>
-      <c r="I10" t="n">
+      <c r="M10" t="n">
         <v>0.342793857253967</v>
       </c>
-      <c r="J10" t="n">
+      <c r="N10" t="n">
         <v>0.496336777438072</v>
       </c>
-      <c r="K10" t="n">
+      <c r="O10" t="n">
         <v>0.218069936777627</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C11" t="n">
         <v>1013</v>
       </c>
-      <c r="D11" s="1" t="n">
-        <v>43895</v>
-      </c>
-      <c r="E11" s="1" t="n">
-        <v>44907</v>
+      <c r="D11" t="n">
+        <v>1019</v>
+      </c>
+      <c r="E11" t="n">
+        <v>134</v>
       </c>
       <c r="F11" t="n">
+        <v>11</v>
+      </c>
+      <c r="G11" t="n">
+        <v>51</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J11" t="n">
         <v>0.0494350687014031</v>
       </c>
-      <c r="G11" t="n">
+      <c r="K11" t="n">
         <v>0.270225389109464</v>
       </c>
-      <c r="H11" t="n">
+      <c r="L11" t="n">
         <v>0.000418480917906962</v>
       </c>
-      <c r="I11" t="n">
+      <c r="M11" t="n">
         <v>0.0269206875129426</v>
       </c>
-      <c r="J11" t="n">
+      <c r="N11" t="n">
         <v>0.0732395505621845</v>
       </c>
-      <c r="K11" t="n">
+      <c r="O11" t="n">
         <v>0.00764337527896381</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C12" t="n">
         <v>986</v>
       </c>
-      <c r="D12" s="1" t="n">
-        <v>43912</v>
-      </c>
-      <c r="E12" s="1" t="n">
-        <v>44897</v>
+      <c r="D12" t="n">
+        <v>992</v>
+      </c>
+      <c r="E12" t="n">
+        <v>161</v>
       </c>
       <c r="F12" t="n">
+        <v>128</v>
+      </c>
+      <c r="G12" t="n">
+        <v>234</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J12" t="n">
         <v>0.107153101786549</v>
       </c>
-      <c r="G12" t="n">
+      <c r="K12" t="n">
         <v>0.999024521510983</v>
       </c>
-      <c r="H12" t="n">
+      <c r="L12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
+      <c r="M12" t="n">
         <v>0.0663175646401072</v>
       </c>
-      <c r="J12" t="n">
+      <c r="N12" t="n">
         <v>0.147960187369067</v>
       </c>
-      <c r="K12" t="n">
+      <c r="O12" t="n">
         <v>0.0161653684725229</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C13" t="n">
         <v>1017</v>
       </c>
-      <c r="D13" s="1" t="n">
-        <v>43891</v>
-      </c>
-      <c r="E13" s="1" t="n">
-        <v>44907</v>
+      <c r="D13" t="n">
+        <v>1023</v>
+      </c>
+      <c r="E13" t="n">
+        <v>130</v>
       </c>
       <c r="F13" t="n">
+        <v>6</v>
+      </c>
+      <c r="G13" t="n">
+        <v>14</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J13" t="n">
         <v>0.338165724723558</v>
       </c>
-      <c r="G13" t="n">
+      <c r="K13" t="n">
         <v>1.58776929358578</v>
       </c>
-      <c r="H13" t="n">
+      <c r="L13" t="n">
         <v>0.0161078253202683</v>
       </c>
-      <c r="I13" t="n">
+      <c r="M13" t="n">
         <v>0.277999791500156</v>
       </c>
-      <c r="J13" t="n">
+      <c r="N13" t="n">
         <v>0.457985488023719</v>
       </c>
-      <c r="K13" t="n">
+      <c r="O13" t="n">
         <v>0.131849602707988</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C14" t="n">
         <v>1004</v>
       </c>
-      <c r="D14" s="1" t="n">
-        <v>43904</v>
-      </c>
-      <c r="E14" s="1" t="n">
-        <v>44907</v>
+      <c r="D14" t="n">
+        <v>1010</v>
+      </c>
+      <c r="E14" t="n">
+        <v>143</v>
       </c>
       <c r="F14" t="n">
+        <v>10</v>
+      </c>
+      <c r="G14" t="n">
+        <v>21</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J14" t="n">
         <v>0.00821764362044173</v>
       </c>
-      <c r="G14" t="n">
+      <c r="K14" t="n">
         <v>0.0352063093401216</v>
       </c>
-      <c r="H14" t="n">
+      <c r="L14" t="n">
         <v>0.0000210861326345858</v>
       </c>
-      <c r="I14" t="n">
+      <c r="M14" t="n">
         <v>0.0062656484843965</v>
       </c>
-      <c r="J14" t="n">
+      <c r="N14" t="n">
         <v>0.0107361043499766</v>
       </c>
-      <c r="K14" t="n">
+      <c r="O14" t="n">
         <v>0.0018834755989756</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C15" t="n">
         <v>848</v>
       </c>
-      <c r="D15" s="1" t="n">
-        <v>43895</v>
-      </c>
-      <c r="E15" s="1" t="n">
-        <v>44742</v>
+      <c r="D15" t="n">
+        <v>854</v>
+      </c>
+      <c r="E15" t="n">
+        <v>299</v>
       </c>
       <c r="F15" t="n">
+        <v>20</v>
+      </c>
+      <c r="G15" t="n">
+        <v>9</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J15" t="n">
         <v>0.0610852898287099</v>
       </c>
-      <c r="G15" t="n">
+      <c r="K15" t="n">
         <v>0.19355242436015</v>
       </c>
-      <c r="H15" t="n">
+      <c r="L15" t="n">
         <v>0.000359488519734122</v>
       </c>
-      <c r="I15" t="n">
+      <c r="M15" t="n">
         <v>0.0665075835229924</v>
       </c>
-      <c r="J15" t="n">
+      <c r="N15" t="n">
         <v>0.0902330644875965</v>
       </c>
-      <c r="K15" t="n">
+      <c r="O15" t="n">
         <v>0.0273894592210754</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C16" t="n">
         <v>1037</v>
       </c>
-      <c r="D16" s="1" t="n">
-        <v>43871</v>
-      </c>
-      <c r="E16" s="1" t="n">
-        <v>44907</v>
+      <c r="D16" t="n">
+        <v>1043</v>
+      </c>
+      <c r="E16" t="n">
+        <v>110</v>
       </c>
       <c r="F16" t="n">
+        <v>31</v>
+      </c>
+      <c r="G16" t="n">
+        <v>4</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J16" t="n">
         <v>0.296509255509531</v>
       </c>
-      <c r="G16" t="n">
+      <c r="K16" t="n">
         <v>1.13440756533602</v>
       </c>
-      <c r="H16" t="n">
+      <c r="L16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
+      <c r="M16" t="n">
         <v>0.269349431478818</v>
       </c>
-      <c r="J16" t="n">
+      <c r="N16" t="n">
         <v>0.444840235240227</v>
       </c>
-      <c r="K16" t="n">
+      <c r="O16" t="n">
         <v>0.107250454289041</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C17" t="n">
         <v>989</v>
       </c>
-      <c r="D17" s="1" t="n">
-        <v>43919</v>
-      </c>
-      <c r="E17" s="1" t="n">
-        <v>44907</v>
+      <c r="D17" t="n">
+        <v>995</v>
+      </c>
+      <c r="E17" t="n">
+        <v>158</v>
       </c>
       <c r="F17" t="n">
+        <v>113</v>
+      </c>
+      <c r="G17" t="n">
+        <v>233</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J17" t="n">
         <v>0.0836024970579226</v>
       </c>
-      <c r="G17" t="n">
+      <c r="K17" t="n">
         <v>0.504832259497889</v>
       </c>
-      <c r="H17" t="n">
+      <c r="L17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
+      <c r="M17" t="n">
         <v>0.0595087312979739</v>
       </c>
-      <c r="J17" t="n">
+      <c r="N17" t="n">
         <v>0.114226304725345</v>
       </c>
-      <c r="K17" t="n">
+      <c r="O17" t="n">
         <v>0.0141371504032448</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C18" t="n">
         <v>983</v>
       </c>
-      <c r="D18" s="1" t="n">
-        <v>43912</v>
-      </c>
-      <c r="E18" s="1" t="n">
-        <v>44894</v>
+      <c r="D18" t="n">
+        <v>989</v>
+      </c>
+      <c r="E18" t="n">
+        <v>164</v>
       </c>
       <c r="F18" t="n">
+        <v>50</v>
+      </c>
+      <c r="G18" t="n">
+        <v>563</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J18" t="n">
         <v>0.00528918521543821</v>
       </c>
-      <c r="G18" t="n">
+      <c r="K18" t="n">
         <v>0.114443471965596</v>
       </c>
-      <c r="H18" t="n">
+      <c r="L18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
+      <c r="M18" t="n">
         <v>0.0013005042705309</v>
       </c>
-      <c r="J18" t="n">
+      <c r="N18" t="n">
         <v>0.00427656174483056</v>
       </c>
-      <c r="K18" t="n">
+      <c r="O18" t="n">
         <v>0.000250852485044297</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C19" t="n">
         <v>1001</v>
       </c>
-      <c r="D19" s="1" t="n">
-        <v>43907</v>
-      </c>
-      <c r="E19" s="1" t="n">
-        <v>44907</v>
+      <c r="D19" t="n">
+        <v>1007</v>
+      </c>
+      <c r="E19" t="n">
+        <v>146</v>
       </c>
       <c r="F19" t="n">
+        <v>7</v>
+      </c>
+      <c r="G19" t="n">
+        <v>20</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J19" t="n">
         <v>0.0393581423386706</v>
       </c>
-      <c r="G19" t="n">
+      <c r="K19" t="n">
         <v>0.238655951461007</v>
       </c>
-      <c r="H19" t="n">
+      <c r="L19" t="n">
         <v>0.00121414355831076</v>
       </c>
-      <c r="I19" t="n">
+      <c r="M19" t="n">
         <v>0.0369315442678066</v>
       </c>
-      <c r="J19" t="n">
+      <c r="N19" t="n">
         <v>0.0506870608262995</v>
       </c>
-      <c r="K19" t="n">
+      <c r="O19" t="n">
         <v>0.0128833327172904</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C20" t="n">
         <v>1007</v>
       </c>
-      <c r="D20" s="1" t="n">
-        <v>43901</v>
-      </c>
-      <c r="E20" s="1" t="n">
-        <v>44907</v>
+      <c r="D20" t="n">
+        <v>1013</v>
+      </c>
+      <c r="E20" t="n">
+        <v>140</v>
       </c>
       <c r="F20" t="n">
+        <v>3</v>
+      </c>
+      <c r="G20" t="n">
+        <v>31</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J20" t="n">
         <v>0.0563170241679913</v>
       </c>
-      <c r="G20" t="n">
+      <c r="K20" t="n">
         <v>0.20599872241177</v>
       </c>
-      <c r="H20" t="n">
+      <c r="L20" t="n">
         <v>0.000806765130627386</v>
       </c>
-      <c r="I20" t="n">
+      <c r="M20" t="n">
         <v>0.0479053467230536</v>
       </c>
-      <c r="J20" t="n">
+      <c r="N20" t="n">
         <v>0.084747816966138</v>
       </c>
-      <c r="K20" t="n">
+      <c r="O20" t="n">
         <v>0.0184357034255873</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C21" t="n">
         <v>982</v>
       </c>
-      <c r="D21" s="1" t="n">
-        <v>43926</v>
-      </c>
-      <c r="E21" s="1" t="n">
-        <v>44907</v>
+      <c r="D21" t="n">
+        <v>988</v>
+      </c>
+      <c r="E21" t="n">
+        <v>165</v>
       </c>
       <c r="F21" t="n">
+        <v>118</v>
+      </c>
+      <c r="G21" t="n">
+        <v>87</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J21" t="n">
         <v>0.108119234968697</v>
       </c>
-      <c r="G21" t="n">
+      <c r="K21" t="n">
         <v>0.711206197931862</v>
       </c>
-      <c r="H21" t="n">
+      <c r="L21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
+      <c r="M21" t="n">
         <v>0.0605264580521458</v>
       </c>
-      <c r="J21" t="n">
+      <c r="N21" t="n">
         <v>0.121222288876698</v>
       </c>
-      <c r="K21" t="n">
+      <c r="O21" t="n">
         <v>0.009014453177787</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C22" t="n">
         <v>1037</v>
       </c>
-      <c r="D22" s="1" t="n">
-        <v>43871</v>
-      </c>
-      <c r="E22" s="1" t="n">
-        <v>44907</v>
+      <c r="D22" t="n">
+        <v>1043</v>
+      </c>
+      <c r="E22" t="n">
+        <v>110</v>
       </c>
       <c r="F22" t="n">
+        <v>30</v>
+      </c>
+      <c r="G22" t="n">
+        <v>8</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J22" t="n">
         <v>0.0978804402599703</v>
       </c>
-      <c r="G22" t="n">
+      <c r="K22" t="n">
         <v>0.239578705212048</v>
       </c>
-      <c r="H22" t="n">
+      <c r="L22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
+      <c r="M22" t="n">
         <v>0.1140768245287</v>
       </c>
-      <c r="J22" t="n">
+      <c r="N22" t="n">
         <v>0.160115596483158</v>
       </c>
-      <c r="K22" t="n">
+      <c r="O22" t="n">
         <v>0.025666322498694</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C23" t="n">
         <v>1004</v>
       </c>
-      <c r="D23" s="1" t="n">
-        <v>43904</v>
-      </c>
-      <c r="E23" s="1" t="n">
-        <v>44907</v>
+      <c r="D23" t="n">
+        <v>1010</v>
+      </c>
+      <c r="E23" t="n">
+        <v>143</v>
       </c>
       <c r="F23" t="n">
+        <v>3</v>
+      </c>
+      <c r="G23" t="n">
+        <v>7</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J23" t="n">
         <v>0.0854732533878147</v>
       </c>
-      <c r="G23" t="n">
+      <c r="K23" t="n">
         <v>0.344701251210644</v>
       </c>
-      <c r="H23" t="n">
+      <c r="L23" t="n">
         <v>0.0085954959601169</v>
       </c>
-      <c r="I23" t="n">
+      <c r="M23" t="n">
         <v>0.0582386104117602</v>
       </c>
-      <c r="J23" t="n">
+      <c r="N23" t="n">
         <v>0.107027100803485</v>
       </c>
-      <c r="K23" t="n">
+      <c r="O23" t="n">
         <v>0.0317720359525052</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C24" t="n">
         <v>926</v>
       </c>
-      <c r="D24" s="1" t="n">
-        <v>43906</v>
-      </c>
-      <c r="E24" s="1" t="n">
-        <v>44831</v>
+      <c r="D24" t="n">
+        <v>932</v>
+      </c>
+      <c r="E24" t="n">
+        <v>221</v>
       </c>
       <c r="F24" t="n">
+        <v>59</v>
+      </c>
+      <c r="G24" t="n">
+        <v>451</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J24" t="n">
         <v>0.00062334494744197</v>
       </c>
-      <c r="G24" t="n">
+      <c r="K24" t="n">
         <v>0.00583949543542085</v>
       </c>
-      <c r="H24" t="n">
+      <c r="L24" t="n">
         <v>0.0000102344941250049</v>
       </c>
-      <c r="I24" t="n">
+      <c r="M24" t="n">
         <v>0.000327420566049374</v>
       </c>
-      <c r="J24" t="n">
+      <c r="N24" t="n">
         <v>0.000856021217243464</v>
       </c>
-      <c r="K24" t="n">
+      <c r="O24" t="n">
         <v>0.000127286112080773</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C25" t="n">
         <v>992</v>
       </c>
-      <c r="D25" s="1" t="n">
-        <v>43916</v>
-      </c>
-      <c r="E25" s="1" t="n">
-        <v>44907</v>
+      <c r="D25" t="n">
+        <v>998</v>
+      </c>
+      <c r="E25" t="n">
+        <v>155</v>
       </c>
       <c r="F25" t="n">
+        <v>51</v>
+      </c>
+      <c r="G25" t="n">
+        <v>261</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J25" t="n">
         <v>0.0681562583754222</v>
       </c>
-      <c r="G25" t="n">
+      <c r="K25" t="n">
         <v>0.372251289450353</v>
       </c>
-      <c r="H25" t="n">
+      <c r="L25" t="n">
         <v>0.000886705622600353</v>
       </c>
-      <c r="I25" t="n">
+      <c r="M25" t="n">
         <v>0.0380470571021607</v>
       </c>
-      <c r="J25" t="n">
+      <c r="N25" t="n">
         <v>0.0974456994590161</v>
       </c>
-      <c r="K25" t="n">
+      <c r="O25" t="n">
         <v>0.0107301541443178</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C26" t="n">
         <v>1037</v>
       </c>
-      <c r="D26" s="1" t="n">
-        <v>43871</v>
-      </c>
-      <c r="E26" s="1" t="n">
-        <v>44907</v>
+      <c r="D26" t="n">
+        <v>1043</v>
+      </c>
+      <c r="E26" t="n">
+        <v>110</v>
       </c>
       <c r="F26" t="n">
+        <v>318</v>
+      </c>
+      <c r="G26" t="n">
+        <v>225</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J26" t="n">
         <v>0.00933696390787261</v>
       </c>
-      <c r="G26" t="n">
+      <c r="K26" t="n">
         <v>0.0741702942022231</v>
       </c>
-      <c r="H26" t="n">
+      <c r="L26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
+      <c r="M26" t="n">
         <v>0.00505535614984076</v>
       </c>
-      <c r="J26" t="n">
+      <c r="N26" t="n">
         <v>0.0147646885007781</v>
       </c>
-      <c r="K26" t="n">
+      <c r="O26" t="n">
         <v>0.000620441692440849</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C27" t="n">
         <v>971</v>
       </c>
-      <c r="D27" s="1" t="n">
-        <v>43902</v>
-      </c>
-      <c r="E27" s="1" t="n">
-        <v>44872</v>
+      <c r="D27" t="n">
+        <v>977</v>
+      </c>
+      <c r="E27" t="n">
+        <v>176</v>
       </c>
       <c r="F27" t="n">
+        <v>9</v>
+      </c>
+      <c r="G27" t="n">
+        <v>132</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J27" t="n">
         <v>0.00381168759428293</v>
       </c>
-      <c r="G27" t="n">
+      <c r="K27" t="n">
         <v>0.0187732266557675</v>
       </c>
-      <c r="H27" t="n">
+      <c r="L27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
+      <c r="M27" t="n">
         <v>0.00265263101438004</v>
       </c>
-      <c r="J27" t="n">
+      <c r="N27" t="n">
         <v>0.00636013917848214</v>
       </c>
-      <c r="K27" t="n">
+      <c r="O27" t="n">
         <v>0.000339712736468986</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C28" t="n">
         <v>1037</v>
       </c>
-      <c r="D28" s="1" t="n">
-        <v>43871</v>
-      </c>
-      <c r="E28" s="1" t="n">
-        <v>44907</v>
+      <c r="D28" t="n">
+        <v>1043</v>
+      </c>
+      <c r="E28" t="n">
+        <v>110</v>
       </c>
       <c r="F28" t="n">
+        <v>9</v>
+      </c>
+      <c r="G28" t="n">
+        <v>34</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J28" t="n">
         <v>0.204531025621609</v>
       </c>
-      <c r="G28" t="n">
+      <c r="K28" t="n">
         <v>0.578568309974466</v>
       </c>
-      <c r="H28" t="n">
+      <c r="L28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
+      <c r="M28" t="n">
         <v>0.18591071001031</v>
       </c>
-      <c r="J28" t="n">
+      <c r="N28" t="n">
         <v>0.345700095217332</v>
       </c>
-      <c r="K28" t="n">
+      <c r="O28" t="n">
         <v>0.0456809009602303</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C29" t="n">
         <v>977</v>
       </c>
-      <c r="D29" s="1" t="n">
-        <v>43911</v>
-      </c>
-      <c r="E29" s="1" t="n">
-        <v>44887</v>
+      <c r="D29" t="n">
+        <v>983</v>
+      </c>
+      <c r="E29" t="n">
+        <v>170</v>
       </c>
       <c r="F29" t="n">
+        <v>207</v>
+      </c>
+      <c r="G29" t="n">
+        <v>500</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J29" t="n">
         <v>0.00211780427425949</v>
       </c>
-      <c r="G29" t="n">
+      <c r="K29" t="n">
         <v>0.0296938889780953</v>
       </c>
-      <c r="H29" t="n">
+      <c r="L29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
+      <c r="M29" t="n">
         <v>0.000918833326697315</v>
       </c>
-      <c r="J29" t="n">
+      <c r="N29" t="n">
         <v>0.0022459949718183</v>
       </c>
-      <c r="K29" t="n">
+      <c r="O29" t="n">
         <v>0.000166283590844259</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C30" t="n">
         <v>993</v>
       </c>
-      <c r="D30" s="1" t="n">
-        <v>43915</v>
-      </c>
-      <c r="E30" s="1" t="n">
-        <v>44907</v>
+      <c r="D30" t="n">
+        <v>999</v>
+      </c>
+      <c r="E30" t="n">
+        <v>154</v>
       </c>
       <c r="F30" t="n">
+        <v>247</v>
+      </c>
+      <c r="G30" t="n">
+        <v>462</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J30" t="n">
         <v>0.000637987655606043</v>
       </c>
-      <c r="G30" t="n">
+      <c r="K30" t="n">
         <v>0.00565894126867804</v>
       </c>
-      <c r="H30" t="n">
+      <c r="L30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
+      <c r="M30" t="n">
         <v>0.000248147212193498</v>
       </c>
-      <c r="J30" t="n">
+      <c r="N30" t="n">
         <v>0.000966515897190443</v>
       </c>
-      <c r="K30" t="n">
+      <c r="O30" t="n">
         <v>0.0000384431903684313</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C31" t="n">
         <v>1009</v>
       </c>
-      <c r="D31" s="1" t="n">
-        <v>43899</v>
-      </c>
-      <c r="E31" s="1" t="n">
-        <v>44907</v>
+      <c r="D31" t="n">
+        <v>1015</v>
+      </c>
+      <c r="E31" t="n">
+        <v>138</v>
       </c>
       <c r="F31" t="n">
+        <v>6</v>
+      </c>
+      <c r="G31" t="n">
+        <v>4</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J31" t="n">
         <v>0.289120291683164</v>
       </c>
-      <c r="G31" t="n">
+      <c r="K31" t="n">
         <v>0.772776963485457</v>
       </c>
-      <c r="H31" t="n">
+      <c r="L31" t="n">
         <v>0.00460812976493418</v>
       </c>
-      <c r="I31" t="n">
+      <c r="M31" t="n">
         <v>0.298459645467385</v>
       </c>
-      <c r="J31" t="n">
+      <c r="N31" t="n">
         <v>0.392273447798701</v>
       </c>
-      <c r="K31" t="n">
+      <c r="O31" t="n">
         <v>0.125795008480304</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C32" t="n">
         <v>1037</v>
       </c>
-      <c r="D32" s="1" t="n">
-        <v>43871</v>
-      </c>
-      <c r="E32" s="1" t="n">
-        <v>44907</v>
+      <c r="D32" t="n">
+        <v>1043</v>
+      </c>
+      <c r="E32" t="n">
+        <v>110</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>11</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I32" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J32" t="n">
         <v>0.15077467470659</v>
       </c>
-      <c r="G32" t="n">
+      <c r="K32" t="n">
         <v>1.05263157894737</v>
       </c>
-      <c r="H32" t="n">
+      <c r="L32" t="n">
         <v>0.000426748652609149</v>
       </c>
-      <c r="I32" t="n">
+      <c r="M32" t="n">
         <v>0.103844323813691</v>
       </c>
-      <c r="J32" t="n">
+      <c r="N32" t="n">
         <v>0.218913561231621</v>
       </c>
-      <c r="K32" t="n">
+      <c r="O32" t="n">
         <v>0.0336601319192956</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C33" t="n">
         <v>1001</v>
       </c>
-      <c r="D33" s="1" t="n">
-        <v>43902</v>
-      </c>
-      <c r="E33" s="1" t="n">
-        <v>44902</v>
+      <c r="D33" t="n">
+        <v>1007</v>
+      </c>
+      <c r="E33" t="n">
+        <v>146</v>
       </c>
       <c r="F33" t="n">
+        <v>5</v>
+      </c>
+      <c r="G33" t="n">
+        <v>6</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J33" t="n">
         <v>0.113618141296858</v>
       </c>
-      <c r="G33" t="n">
+      <c r="K33" t="n">
         <v>0.452355498132638</v>
       </c>
-      <c r="H33" t="n">
+      <c r="L33" t="n">
         <v>0.000252000887568658</v>
       </c>
-      <c r="I33" t="n">
+      <c r="M33" t="n">
         <v>0.0923751978132643</v>
       </c>
-      <c r="J33" t="n">
+      <c r="N33" t="n">
         <v>0.177952323875071</v>
       </c>
-      <c r="K33" t="n">
+      <c r="O33" t="n">
         <v>0.0124197816598034</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C34" t="n">
         <v>970</v>
       </c>
-      <c r="D34" s="1" t="n">
-        <v>43911</v>
-      </c>
-      <c r="E34" s="1" t="n">
-        <v>44880</v>
+      <c r="D34" t="n">
+        <v>976</v>
+      </c>
+      <c r="E34" t="n">
+        <v>177</v>
       </c>
       <c r="F34" t="n">
+        <v>103</v>
+      </c>
+      <c r="G34" t="n">
+        <v>296</v>
+      </c>
+      <c r="H34" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I34" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J34" t="n">
         <v>0.00282644462769596</v>
       </c>
-      <c r="G34" t="n">
+      <c r="K34" t="n">
         <v>0.0388143092441679</v>
       </c>
-      <c r="H34" t="n">
+      <c r="L34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
+      <c r="M34" t="n">
         <v>0.00171710926063722</v>
       </c>
-      <c r="J34" t="n">
+      <c r="N34" t="n">
         <v>0.00368951633758362</v>
       </c>
-      <c r="K34" t="n">
+      <c r="O34" t="n">
         <v>0.000439754361820045</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C35" t="n">
         <v>996</v>
       </c>
-      <c r="D35" s="1" t="n">
-        <v>43902</v>
-      </c>
-      <c r="E35" s="1" t="n">
-        <v>44897</v>
+      <c r="D35" t="n">
+        <v>1002</v>
+      </c>
+      <c r="E35" t="n">
+        <v>151</v>
       </c>
       <c r="F35" t="n">
+        <v>2</v>
+      </c>
+      <c r="G35" t="n">
+        <v>42</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I35" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J35" t="n">
         <v>0.115385473174419</v>
       </c>
-      <c r="G35" t="n">
+      <c r="K35" t="n">
         <v>0.2579663519477</v>
       </c>
-      <c r="H35" t="n">
+      <c r="L35" t="n">
         <v>0.00522311481276991</v>
       </c>
-      <c r="I35" t="n">
+      <c r="M35" t="n">
         <v>0.115857403925355</v>
       </c>
-      <c r="J35" t="n">
+      <c r="N35" t="n">
         <v>0.16227191887064</v>
       </c>
-      <c r="K35" t="n">
+      <c r="O35" t="n">
         <v>0.0656336981883681</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C36" t="n">
         <v>1016</v>
       </c>
-      <c r="D36" s="1" t="n">
-        <v>43892</v>
-      </c>
-      <c r="E36" s="1" t="n">
-        <v>44907</v>
+      <c r="D36" t="n">
+        <v>1022</v>
+      </c>
+      <c r="E36" t="n">
+        <v>131</v>
       </c>
       <c r="F36" t="n">
+        <v>22</v>
+      </c>
+      <c r="G36" t="n">
+        <v>45</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I36" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J36" t="n">
         <v>0.14011891385709</v>
       </c>
-      <c r="G36" t="n">
+      <c r="K36" t="n">
         <v>0.434098240313962</v>
       </c>
-      <c r="H36" t="n">
+      <c r="L36" t="n">
         <v>0.000578439255201615</v>
       </c>
-      <c r="I36" t="n">
+      <c r="M36" t="n">
         <v>0.127620785340411</v>
       </c>
-      <c r="J36" t="n">
+      <c r="N36" t="n">
         <v>0.198035089384414</v>
       </c>
-      <c r="K36" t="n">
+      <c r="O36" t="n">
         <v>0.052635405819842</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C37" t="n">
         <v>1000</v>
       </c>
-      <c r="D37" s="1" t="n">
-        <v>43908</v>
-      </c>
-      <c r="E37" s="1" t="n">
-        <v>44907</v>
+      <c r="D37" t="n">
+        <v>1006</v>
+      </c>
+      <c r="E37" t="n">
+        <v>147</v>
       </c>
       <c r="F37" t="n">
+        <v>10</v>
+      </c>
+      <c r="G37" t="n">
+        <v>120</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I37" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J37" t="n">
         <v>0.227381079574035</v>
       </c>
-      <c r="G37" t="n">
+      <c r="K37" t="n">
         <v>1.35612431516066</v>
       </c>
-      <c r="H37" t="n">
+      <c r="L37" t="n">
         <v>0.00083763599020301</v>
       </c>
-      <c r="I37" t="n">
+      <c r="M37" t="n">
         <v>0.146061221223922</v>
       </c>
-      <c r="J37" t="n">
+      <c r="N37" t="n">
         <v>0.332054735382065</v>
       </c>
-      <c r="K37" t="n">
+      <c r="O37" t="n">
         <v>0.0184020693382498</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C38" t="n">
         <v>1000</v>
       </c>
-      <c r="D38" s="1" t="n">
-        <v>43905</v>
-      </c>
-      <c r="E38" s="1" t="n">
-        <v>44904</v>
+      <c r="D38" t="n">
+        <v>1006</v>
+      </c>
+      <c r="E38" t="n">
+        <v>147</v>
       </c>
       <c r="F38" t="n">
+        <v>34</v>
+      </c>
+      <c r="G38" t="n">
+        <v>114</v>
+      </c>
+      <c r="H38" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I38" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J38" t="n">
         <v>0.594411220462214</v>
       </c>
-      <c r="G38" t="n">
+      <c r="K38" t="n">
         <v>3.03658672277238</v>
       </c>
-      <c r="H38" t="n">
+      <c r="L38" t="n">
         <v>0.0399042298483639</v>
       </c>
-      <c r="I38" t="n">
+      <c r="M38" t="n">
         <v>0.44434473747185</v>
       </c>
-      <c r="J38" t="n">
+      <c r="N38" t="n">
         <v>0.791990310024458</v>
       </c>
-      <c r="K38" t="n">
+      <c r="O38" t="n">
         <v>0.206307574854834</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C39" t="n">
         <v>1011</v>
       </c>
-      <c r="D39" s="1" t="n">
-        <v>43897</v>
-      </c>
-      <c r="E39" s="1" t="n">
-        <v>44907</v>
+      <c r="D39" t="n">
+        <v>1017</v>
+      </c>
+      <c r="E39" t="n">
+        <v>136</v>
       </c>
       <c r="F39" t="n">
+        <v>2</v>
+      </c>
+      <c r="G39" t="n">
+        <v>7</v>
+      </c>
+      <c r="H39" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I39" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J39" t="n">
         <v>0.190567407184184</v>
       </c>
-      <c r="G39" t="n">
+      <c r="K39" t="n">
         <v>0.663345055195275</v>
       </c>
-      <c r="H39" t="n">
+      <c r="L39" t="n">
         <v>0.00158715308175008</v>
       </c>
-      <c r="I39" t="n">
+      <c r="M39" t="n">
         <v>0.153283927379762</v>
       </c>
-      <c r="J39" t="n">
+      <c r="N39" t="n">
         <v>0.278808137090694</v>
       </c>
-      <c r="K39" t="n">
+      <c r="O39" t="n">
         <v>0.0727579379089821</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C40" t="n">
         <v>1037</v>
       </c>
-      <c r="D40" s="1" t="n">
-        <v>43871</v>
-      </c>
-      <c r="E40" s="1" t="n">
-        <v>44907</v>
+      <c r="D40" t="n">
+        <v>1043</v>
+      </c>
+      <c r="E40" t="n">
+        <v>110</v>
       </c>
       <c r="F40" t="n">
+        <v>77</v>
+      </c>
+      <c r="G40" t="n">
+        <v>142</v>
+      </c>
+      <c r="H40" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I40" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J40" t="n">
         <v>0.00252943250880526</v>
       </c>
-      <c r="G40" t="n">
+      <c r="K40" t="n">
         <v>0.0264942578018778</v>
       </c>
-      <c r="H40" t="n">
+      <c r="L40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
+      <c r="M40" t="n">
         <v>0.0013325402630742</v>
       </c>
-      <c r="J40" t="n">
+      <c r="N40" t="n">
         <v>0.00328235651315268</v>
       </c>
-      <c r="K40" t="n">
+      <c r="O40" t="n">
         <v>0.000338061649396856</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C41" t="n">
         <v>1001</v>
       </c>
-      <c r="D41" s="1" t="n">
-        <v>43907</v>
-      </c>
-      <c r="E41" s="1" t="n">
-        <v>44907</v>
+      <c r="D41" t="n">
+        <v>1007</v>
+      </c>
+      <c r="E41" t="n">
+        <v>146</v>
       </c>
       <c r="F41" t="n">
+        <v>4</v>
+      </c>
+      <c r="G41" t="n">
+        <v>129</v>
+      </c>
+      <c r="H41" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I41" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J41" t="n">
         <v>0.000483154984301707</v>
       </c>
-      <c r="G41" t="n">
+      <c r="K41" t="n">
         <v>0.00391417972765401</v>
       </c>
-      <c r="H41" t="n">
+      <c r="L41" t="n">
         <v>0.0000094127047952654</v>
       </c>
-      <c r="I41" t="n">
+      <c r="M41" t="n">
         <v>0.000377609858747644</v>
       </c>
-      <c r="J41" t="n">
+      <c r="N41" t="n">
         <v>0.000690044105822884</v>
       </c>
-      <c r="K41" t="n">
+      <c r="O41" t="n">
         <v>0.00015477495510471</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C42" t="n">
         <v>1014</v>
       </c>
-      <c r="D42" s="1" t="n">
-        <v>43894</v>
-      </c>
-      <c r="E42" s="1" t="n">
-        <v>44907</v>
+      <c r="D42" t="n">
+        <v>1020</v>
+      </c>
+      <c r="E42" t="n">
+        <v>133</v>
       </c>
       <c r="F42" t="n">
+        <v>4</v>
+      </c>
+      <c r="G42" t="n">
+        <v>5</v>
+      </c>
+      <c r="H42" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I42" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J42" t="n">
         <v>0.486279610456625</v>
       </c>
-      <c r="G42" t="n">
+      <c r="K42" t="n">
         <v>2.20313114511584</v>
       </c>
-      <c r="H42" t="n">
+      <c r="L42" t="n">
         <v>0.000718621396712547</v>
       </c>
-      <c r="I42" t="n">
+      <c r="M42" t="n">
         <v>0.406806507407532</v>
       </c>
-      <c r="J42" t="n">
+      <c r="N42" t="n">
         <v>0.7266745420987</v>
       </c>
-      <c r="K42" t="n">
+      <c r="O42" t="n">
         <v>0.165534169425647</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C43" t="n">
         <v>1002</v>
       </c>
-      <c r="D43" s="1" t="n">
-        <v>43897</v>
-      </c>
-      <c r="E43" s="1" t="n">
-        <v>44898</v>
+      <c r="D43" t="n">
+        <v>1008</v>
+      </c>
+      <c r="E43" t="n">
+        <v>145</v>
       </c>
       <c r="F43" t="n">
+        <v>14</v>
+      </c>
+      <c r="G43" t="n">
+        <v>4</v>
+      </c>
+      <c r="H43" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I43" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J43" t="n">
         <v>0.0841139489359432</v>
       </c>
-      <c r="G43" t="n">
+      <c r="K43" t="n">
         <v>0.696910642624871</v>
       </c>
-      <c r="H43" t="n">
+      <c r="L43" t="n">
         <v>0.0000852634127874656</v>
       </c>
-      <c r="I43" t="n">
+      <c r="M43" t="n">
         <v>0.0701655990068386</v>
       </c>
-      <c r="J43" t="n">
+      <c r="N43" t="n">
         <v>0.126571005685105</v>
       </c>
-      <c r="K43" t="n">
+      <c r="O43" t="n">
         <v>0.0174159594950699</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C44" t="n">
         <v>1007</v>
       </c>
-      <c r="D44" s="1" t="n">
-        <v>43897</v>
-      </c>
-      <c r="E44" s="1" t="n">
-        <v>44903</v>
+      <c r="D44" t="n">
+        <v>1013</v>
+      </c>
+      <c r="E44" t="n">
+        <v>140</v>
       </c>
       <c r="F44" t="n">
+        <v>20</v>
+      </c>
+      <c r="G44" t="n">
+        <v>6</v>
+      </c>
+      <c r="H44" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I44" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J44" t="n">
         <v>0.0317472156333742</v>
       </c>
-      <c r="G44" t="n">
+      <c r="K44" t="n">
         <v>0.116047054313967</v>
       </c>
-      <c r="H44" t="n">
+      <c r="L44" t="n">
         <v>0.0000831232911669658</v>
       </c>
-      <c r="I44" t="n">
+      <c r="M44" t="n">
         <v>0.0305541594617154</v>
       </c>
-      <c r="J44" t="n">
+      <c r="N44" t="n">
         <v>0.0468731251315689</v>
       </c>
-      <c r="K44" t="n">
+      <c r="O44" t="n">
         <v>0.0108434588540408</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C45" t="n">
         <v>1020</v>
       </c>
-      <c r="D45" s="1" t="n">
-        <v>43881</v>
-      </c>
-      <c r="E45" s="1" t="n">
-        <v>44900</v>
+      <c r="D45" t="n">
+        <v>1026</v>
+      </c>
+      <c r="E45" t="n">
+        <v>127</v>
       </c>
       <c r="F45" t="n">
+        <v>20</v>
+      </c>
+      <c r="G45" t="n">
+        <v>191</v>
+      </c>
+      <c r="H45" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I45" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J45" t="n">
         <v>0.00281138736770114</v>
       </c>
-      <c r="G45" t="n">
+      <c r="K45" t="n">
         <v>0.0182440507298423</v>
       </c>
-      <c r="H45" t="n">
+      <c r="L45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
+      <c r="M45" t="n">
         <v>0.00226075938949994</v>
       </c>
-      <c r="J45" t="n">
+      <c r="N45" t="n">
         <v>0.00405401268338967</v>
       </c>
-      <c r="K45" t="n">
+      <c r="O45" t="n">
         <v>0.000670038380549887</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C46" t="n">
         <v>888</v>
       </c>
-      <c r="D46" s="1" t="n">
-        <v>43915</v>
-      </c>
-      <c r="E46" s="1" t="n">
-        <v>44802</v>
+      <c r="D46" t="n">
+        <v>894</v>
+      </c>
+      <c r="E46" t="n">
+        <v>259</v>
       </c>
       <c r="F46" t="n">
+        <v>6</v>
+      </c>
+      <c r="G46" t="n">
+        <v>18</v>
+      </c>
+      <c r="H46" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I46" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J46" t="n">
         <v>0.0325088598136897</v>
       </c>
-      <c r="G46" t="n">
+      <c r="K46" t="n">
         <v>0.177947125787939</v>
       </c>
-      <c r="H46" t="n">
+      <c r="L46" t="n">
         <v>0.000580083118539665</v>
       </c>
-      <c r="I46" t="n">
+      <c r="M46" t="n">
         <v>0.0288132505878382</v>
       </c>
-      <c r="J46" t="n">
+      <c r="N46" t="n">
         <v>0.0370573796726328</v>
       </c>
-      <c r="K46" t="n">
+      <c r="O46" t="n">
         <v>0.0182997193319582</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C47" t="n">
         <v>997</v>
       </c>
-      <c r="D47" s="1" t="n">
-        <v>43911</v>
-      </c>
-      <c r="E47" s="1" t="n">
-        <v>44907</v>
+      <c r="D47" t="n">
+        <v>1003</v>
+      </c>
+      <c r="E47" t="n">
+        <v>150</v>
       </c>
       <c r="F47" t="n">
+        <v>177</v>
+      </c>
+      <c r="G47" t="n">
+        <v>455</v>
+      </c>
+      <c r="H47" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I47" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J47" t="n">
         <v>0.00949568948817881</v>
       </c>
-      <c r="G47" t="n">
+      <c r="K47" t="n">
         <v>0.133472619309435</v>
       </c>
-      <c r="H47" t="n">
+      <c r="L47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
+      <c r="M47" t="n">
         <v>0.00326959154377491</v>
       </c>
-      <c r="J47" t="n">
+      <c r="N47" t="n">
         <v>0.011462089293997</v>
       </c>
-      <c r="K47" t="n">
+      <c r="O47" t="n">
         <v>0.000499673269201195</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C48" t="n">
         <v>1001</v>
       </c>
-      <c r="D48" s="1" t="n">
-        <v>43894</v>
-      </c>
-      <c r="E48" s="1" t="n">
-        <v>44894</v>
+      <c r="D48" t="n">
+        <v>1007</v>
+      </c>
+      <c r="E48" t="n">
+        <v>146</v>
       </c>
       <c r="F48" t="n">
+        <v>25</v>
+      </c>
+      <c r="G48" t="n">
+        <v>98</v>
+      </c>
+      <c r="H48" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I48" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J48" t="n">
         <v>0.32528901485029</v>
       </c>
-      <c r="G48" t="n">
+      <c r="K48" t="n">
         <v>1.33088924319067</v>
       </c>
-      <c r="H48" t="n">
+      <c r="L48" t="n">
         <v>0.00242151271899556</v>
       </c>
-      <c r="I48" t="n">
+      <c r="M48" t="n">
         <v>0.307681351871013</v>
       </c>
-      <c r="J48" t="n">
+      <c r="N48" t="n">
         <v>0.448670386260599</v>
       </c>
-      <c r="K48" t="n">
+      <c r="O48" t="n">
         <v>0.121828342270176</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C49" t="n">
         <v>990</v>
       </c>
-      <c r="D49" s="1" t="n">
-        <v>43910</v>
-      </c>
-      <c r="E49" s="1" t="n">
-        <v>44899</v>
+      <c r="D49" t="n">
+        <v>996</v>
+      </c>
+      <c r="E49" t="n">
+        <v>157</v>
       </c>
       <c r="F49" t="n">
+        <v>36</v>
+      </c>
+      <c r="G49" t="n">
+        <v>358</v>
+      </c>
+      <c r="H49" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I49" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J49" t="n">
         <v>0.0583103142905026</v>
       </c>
-      <c r="G49" t="n">
+      <c r="K49" t="n">
         <v>1.00619485639197</v>
       </c>
-      <c r="H49" t="n">
+      <c r="L49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
+      <c r="M49" t="n">
         <v>0.0234358252427937</v>
       </c>
-      <c r="J49" t="n">
+      <c r="N49" t="n">
         <v>0.0591306420614008</v>
       </c>
-      <c r="K49" t="n">
+      <c r="O49" t="n">
         <v>0.00706805174039359</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C50" t="n">
         <v>999</v>
       </c>
-      <c r="D50" s="1" t="n">
-        <v>43909</v>
-      </c>
-      <c r="E50" s="1" t="n">
-        <v>44907</v>
+      <c r="D50" t="n">
+        <v>1005</v>
+      </c>
+      <c r="E50" t="n">
+        <v>148</v>
       </c>
       <c r="F50" t="n">
+        <v>14</v>
+      </c>
+      <c r="G50" t="n">
+        <v>75</v>
+      </c>
+      <c r="H50" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I50" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J50" t="n">
         <v>0.00253178177390816</v>
       </c>
-      <c r="G50" t="n">
+      <c r="K50" t="n">
         <v>0.0088294598358218</v>
       </c>
-      <c r="H50" t="n">
+      <c r="L50" t="n">
         <v>0.0000455862747853658</v>
       </c>
-      <c r="I50" t="n">
+      <c r="M50" t="n">
         <v>0.00236776693935981</v>
       </c>
-      <c r="J50" t="n">
+      <c r="N50" t="n">
         <v>0.00383159411734752</v>
       </c>
-      <c r="K50" t="n">
+      <c r="O50" t="n">
         <v>0.000502058079047876</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C51" t="n">
         <v>990</v>
       </c>
-      <c r="D51" s="1" t="n">
-        <v>43915</v>
-      </c>
-      <c r="E51" s="1" t="n">
-        <v>44904</v>
+      <c r="D51" t="n">
+        <v>996</v>
+      </c>
+      <c r="E51" t="n">
+        <v>157</v>
       </c>
       <c r="F51" t="n">
+        <v>368</v>
+      </c>
+      <c r="G51" t="n">
+        <v>247</v>
+      </c>
+      <c r="H51" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I51" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J51" t="n">
         <v>0.035150712073729</v>
       </c>
-      <c r="G51" t="n">
+      <c r="K51" t="n">
         <v>0.362058806701551</v>
       </c>
-      <c r="H51" t="n">
+      <c r="L51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
+      <c r="M51" t="n">
         <v>0.00568490282691362</v>
       </c>
-      <c r="J51" t="n">
+      <c r="N51" t="n">
         <v>0.0344691237278004</v>
       </c>
-      <c r="K51" t="n">
+      <c r="O51" t="n">
         <v>0.000454440403112342</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C52" t="n">
         <v>1033</v>
       </c>
-      <c r="D52" s="1" t="n">
-        <v>43871</v>
-      </c>
-      <c r="E52" s="1" t="n">
-        <v>44903</v>
+      <c r="D52" t="n">
+        <v>1039</v>
+      </c>
+      <c r="E52" t="n">
+        <v>114</v>
       </c>
       <c r="F52" t="n">
+        <v>22</v>
+      </c>
+      <c r="G52" t="n">
+        <v>55</v>
+      </c>
+      <c r="H52" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I52" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J52" t="n">
         <v>0.242143570777063</v>
       </c>
-      <c r="G52" t="n">
+      <c r="K52" t="n">
         <v>0.827559510776064</v>
       </c>
-      <c r="H52" t="n">
+      <c r="L52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
+      <c r="M52" t="n">
         <v>0.205408157492787</v>
       </c>
-      <c r="J52" t="n">
+      <c r="N52" t="n">
         <v>0.32825476106621</v>
       </c>
-      <c r="K52" t="n">
+      <c r="O52" t="n">
         <v>0.117991522090635</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C53" t="n">
         <v>1010</v>
       </c>
-      <c r="D53" s="1" t="n">
-        <v>43897</v>
-      </c>
-      <c r="E53" s="1" t="n">
-        <v>44906</v>
+      <c r="D53" t="n">
+        <v>1016</v>
+      </c>
+      <c r="E53" t="n">
+        <v>137</v>
       </c>
       <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I53" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J53" t="n">
         <v>0.3881909131201</v>
       </c>
-      <c r="G53" t="n">
+      <c r="K53" t="n">
         <v>1.35268094803233</v>
       </c>
-      <c r="H53" t="n">
+      <c r="L53" t="n">
         <v>0.00294668755763969</v>
       </c>
-      <c r="I53" t="n">
+      <c r="M53" t="n">
         <v>0.295925647645358</v>
       </c>
-      <c r="J53" t="n">
+      <c r="N53" t="n">
         <v>0.488910814460069</v>
       </c>
-      <c r="K53" t="n">
+      <c r="O53" t="n">
         <v>0.184607033449095</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C54" t="n">
         <v>998</v>
       </c>
-      <c r="D54" s="1" t="n">
-        <v>43910</v>
-      </c>
-      <c r="E54" s="1" t="n">
-        <v>44907</v>
+      <c r="D54" t="n">
+        <v>1004</v>
+      </c>
+      <c r="E54" t="n">
+        <v>149</v>
       </c>
       <c r="F54" t="n">
+        <v>44</v>
+      </c>
+      <c r="G54" t="n">
+        <v>370</v>
+      </c>
+      <c r="H54" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I54" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J54" t="n">
         <v>0.0165807052201894</v>
       </c>
-      <c r="G54" t="n">
+      <c r="K54" t="n">
         <v>0.113146789969212</v>
       </c>
-      <c r="H54" t="n">
+      <c r="L54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
+      <c r="M54" t="n">
         <v>0.00862603252267183</v>
       </c>
-      <c r="J54" t="n">
+      <c r="N54" t="n">
         <v>0.0228234795249647</v>
       </c>
-      <c r="K54" t="n">
+      <c r="O54" t="n">
         <v>0.00221729989042974</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C55" t="n">
         <v>975</v>
       </c>
-      <c r="D55" s="1" t="n">
-        <v>43913</v>
-      </c>
-      <c r="E55" s="1" t="n">
-        <v>44887</v>
+      <c r="D55" t="n">
+        <v>981</v>
+      </c>
+      <c r="E55" t="n">
+        <v>172</v>
       </c>
       <c r="F55" t="n">
+        <v>216</v>
+      </c>
+      <c r="G55" t="n">
+        <v>513</v>
+      </c>
+      <c r="H55" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I55" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J55" t="n">
         <v>0.00292347930476193</v>
       </c>
-      <c r="G55" t="n">
+      <c r="K55" t="n">
         <v>0.0204162649577497</v>
       </c>
-      <c r="H55" t="n">
+      <c r="L55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
+      <c r="M55" t="n">
         <v>0.000994453802841293</v>
       </c>
-      <c r="J55" t="n">
+      <c r="N55" t="n">
         <v>0.00425342420249928</v>
       </c>
-      <c r="K55" t="n">
+      <c r="O55" t="n">
         <v>0.000257586186409394</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C56" t="n">
         <v>1037</v>
       </c>
-      <c r="D56" s="1" t="n">
-        <v>43871</v>
-      </c>
-      <c r="E56" s="1" t="n">
-        <v>44907</v>
+      <c r="D56" t="n">
+        <v>1043</v>
+      </c>
+      <c r="E56" t="n">
+        <v>110</v>
       </c>
       <c r="F56" t="n">
+        <v>21</v>
+      </c>
+      <c r="G56" t="n">
+        <v>6</v>
+      </c>
+      <c r="H56" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I56" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J56" t="n">
         <v>0.318802811615024</v>
       </c>
-      <c r="G56" t="n">
+      <c r="K56" t="n">
         <v>0.861907226695875</v>
       </c>
-      <c r="H56" t="n">
+      <c r="L56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
+      <c r="M56" t="n">
         <v>0.301993515562595</v>
       </c>
-      <c r="J56" t="n">
+      <c r="N56" t="n">
         <v>0.38618526808387</v>
       </c>
-      <c r="K56" t="n">
+      <c r="O56" t="n">
         <v>0.217648812724822</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C57" t="n">
         <v>998</v>
       </c>
-      <c r="D57" s="1" t="n">
-        <v>43910</v>
-      </c>
-      <c r="E57" s="1" t="n">
-        <v>44907</v>
+      <c r="D57" t="n">
+        <v>1004</v>
+      </c>
+      <c r="E57" t="n">
+        <v>149</v>
       </c>
       <c r="F57" t="n">
+        <v>53</v>
+      </c>
+      <c r="G57" t="n">
+        <v>102</v>
+      </c>
+      <c r="H57" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I57" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J57" t="n">
         <v>0.00462954273251082</v>
       </c>
-      <c r="G57" t="n">
+      <c r="K57" t="n">
         <v>0.0233202506473869</v>
       </c>
-      <c r="H57" t="n">
+      <c r="L57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
+      <c r="M57" t="n">
         <v>0.00323666723998934</v>
       </c>
-      <c r="J57" t="n">
+      <c r="N57" t="n">
         <v>0.00704265460127663</v>
       </c>
-      <c r="K57" t="n">
+      <c r="O57" t="n">
         <v>0.000936047120953487</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C58" t="n">
         <v>1009</v>
       </c>
-      <c r="D58" s="1" t="n">
-        <v>43893</v>
-      </c>
-      <c r="E58" s="1" t="n">
-        <v>44901</v>
+      <c r="D58" t="n">
+        <v>1015</v>
+      </c>
+      <c r="E58" t="n">
+        <v>138</v>
       </c>
       <c r="F58" t="n">
+        <v>21</v>
+      </c>
+      <c r="G58" t="n">
+        <v>30</v>
+      </c>
+      <c r="H58" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I58" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J58" t="n">
         <v>0.355747978431648</v>
       </c>
-      <c r="G58" t="n">
+      <c r="K58" t="n">
         <v>1.08309666431031</v>
       </c>
-      <c r="H58" t="n">
+      <c r="L58" t="n">
         <v>0.00166850201888744</v>
       </c>
-      <c r="I58" t="n">
+      <c r="M58" t="n">
         <v>0.320981994468387</v>
       </c>
-      <c r="J58" t="n">
+      <c r="N58" t="n">
         <v>0.45343154139169</v>
       </c>
-      <c r="K58" t="n">
+      <c r="O58" t="n">
         <v>0.225657968509924</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C59" t="n">
         <v>999</v>
       </c>
-      <c r="D59" s="1" t="n">
-        <v>43909</v>
-      </c>
-      <c r="E59" s="1" t="n">
-        <v>44907</v>
+      <c r="D59" t="n">
+        <v>1005</v>
+      </c>
+      <c r="E59" t="n">
+        <v>148</v>
       </c>
       <c r="F59" t="n">
+        <v>3</v>
+      </c>
+      <c r="G59" t="n">
+        <v>30</v>
+      </c>
+      <c r="H59" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I59" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J59" t="n">
         <v>0.038588871570835</v>
       </c>
-      <c r="G59" t="n">
+      <c r="K59" t="n">
         <v>0.152435542634101</v>
       </c>
-      <c r="H59" t="n">
+      <c r="L59" t="n">
         <v>0.0022163631605939</v>
       </c>
-      <c r="I59" t="n">
+      <c r="M59" t="n">
         <v>0.0360237209959275</v>
       </c>
-      <c r="J59" t="n">
+      <c r="N59" t="n">
         <v>0.0477600251106826</v>
       </c>
-      <c r="K59" t="n">
+      <c r="O59" t="n">
         <v>0.0176056961836938</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C60" t="n">
         <v>972</v>
       </c>
-      <c r="D60" s="1" t="n">
-        <v>43909</v>
-      </c>
-      <c r="E60" s="1" t="n">
-        <v>44880</v>
+      <c r="D60" t="n">
+        <v>978</v>
+      </c>
+      <c r="E60" t="n">
+        <v>175</v>
       </c>
       <c r="F60" t="n">
+        <v>13</v>
+      </c>
+      <c r="G60" t="n">
+        <v>353</v>
+      </c>
+      <c r="H60" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I60" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J60" t="n">
         <v>0.00430978600032966</v>
       </c>
-      <c r="G60" t="n">
+      <c r="K60" t="n">
         <v>0.0604290462282204</v>
       </c>
-      <c r="H60" t="n">
+      <c r="L60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
+      <c r="M60" t="n">
         <v>0.00145280257739082</v>
       </c>
-      <c r="J60" t="n">
+      <c r="N60" t="n">
         <v>0.00319536033419805</v>
       </c>
-      <c r="K60" t="n">
+      <c r="O60" t="n">
         <v>0.000391805047382789</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C61" t="n">
         <v>960</v>
       </c>
-      <c r="D61" s="1" t="n">
-        <v>43921</v>
-      </c>
-      <c r="E61" s="1" t="n">
-        <v>44880</v>
+      <c r="D61" t="n">
+        <v>966</v>
+      </c>
+      <c r="E61" t="n">
+        <v>187</v>
       </c>
       <c r="F61" t="n">
+        <v>74</v>
+      </c>
+      <c r="G61" t="n">
+        <v>640</v>
+      </c>
+      <c r="H61" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I61" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J61" t="n">
         <v>0.00510220458714474</v>
       </c>
-      <c r="G61" t="n">
+      <c r="K61" t="n">
         <v>0.152755181878019</v>
       </c>
-      <c r="H61" t="n">
+      <c r="L61" t="n">
         <v>0.0000181317021570561</v>
       </c>
-      <c r="I61" t="n">
+      <c r="M61" t="n">
         <v>0.00136967393350629</v>
       </c>
-      <c r="J61" t="n">
+      <c r="N61" t="n">
         <v>0.00485887733452068</v>
       </c>
-      <c r="K61" t="n">
+      <c r="O61" t="n">
         <v>0.000334441846721225</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B62" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C62" t="n">
         <v>1000</v>
       </c>
-      <c r="D62" s="1" t="n">
-        <v>43908</v>
-      </c>
-      <c r="E62" s="1" t="n">
-        <v>44907</v>
+      <c r="D62" t="n">
+        <v>1006</v>
+      </c>
+      <c r="E62" t="n">
+        <v>147</v>
       </c>
       <c r="F62" t="n">
+        <v>74</v>
+      </c>
+      <c r="G62" t="n">
+        <v>196</v>
+      </c>
+      <c r="H62" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I62" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J62" t="n">
         <v>0.0637278003068844</v>
       </c>
-      <c r="G62" t="n">
+      <c r="K62" t="n">
         <v>0.360855360855361</v>
       </c>
-      <c r="H62" t="n">
+      <c r="L62" t="n">
         <v>0.0000375209179117358</v>
       </c>
-      <c r="I62" t="n">
+      <c r="M62" t="n">
         <v>0.0475137454825686</v>
       </c>
-      <c r="J62" t="n">
+      <c r="N62" t="n">
         <v>0.0972495290753387</v>
       </c>
-      <c r="K62" t="n">
+      <c r="O62" t="n">
         <v>0.0173371281086678</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C63" t="n">
         <v>989</v>
       </c>
-      <c r="D63" s="1" t="n">
-        <v>43916</v>
-      </c>
-      <c r="E63" s="1" t="n">
-        <v>44904</v>
+      <c r="D63" t="n">
+        <v>995</v>
+      </c>
+      <c r="E63" t="n">
+        <v>158</v>
       </c>
       <c r="F63" t="n">
+        <v>25</v>
+      </c>
+      <c r="G63" t="n">
+        <v>308</v>
+      </c>
+      <c r="H63" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I63" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J63" t="n">
         <v>0.00378510837452899</v>
       </c>
-      <c r="G63" t="n">
+      <c r="K63" t="n">
         <v>0.0341386554621849</v>
       </c>
-      <c r="H63" t="n">
+      <c r="L63" t="n">
         <v>0.00000628154557289231</v>
       </c>
-      <c r="I63" t="n">
+      <c r="M63" t="n">
         <v>0.00226563345206803</v>
       </c>
-      <c r="J63" t="n">
+      <c r="N63" t="n">
         <v>0.00506490383864753</v>
       </c>
-      <c r="K63" t="n">
+      <c r="O63" t="n">
         <v>0.000554220295177729</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C64" t="n">
         <v>1001</v>
       </c>
-      <c r="D64" s="1" t="n">
-        <v>43907</v>
-      </c>
-      <c r="E64" s="1" t="n">
-        <v>44907</v>
+      <c r="D64" t="n">
+        <v>1007</v>
+      </c>
+      <c r="E64" t="n">
+        <v>146</v>
       </c>
       <c r="F64" t="n">
+        <v>9</v>
+      </c>
+      <c r="G64" t="n">
+        <v>20</v>
+      </c>
+      <c r="H64" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I64" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J64" t="n">
         <v>0.0222891775400241</v>
       </c>
-      <c r="G64" t="n">
+      <c r="K64" t="n">
         <v>0.0868641434636679</v>
       </c>
-      <c r="H64" t="n">
+      <c r="L64" t="n">
         <v>0.000383379015825979</v>
       </c>
-      <c r="I64" t="n">
+      <c r="M64" t="n">
         <v>0.0188160091052432</v>
       </c>
-      <c r="J64" t="n">
+      <c r="N64" t="n">
         <v>0.0355174946313564</v>
       </c>
-      <c r="K64" t="n">
+      <c r="O64" t="n">
         <v>0.0057582334518494</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C65" t="n">
         <v>1037</v>
       </c>
-      <c r="D65" s="1" t="n">
-        <v>43871</v>
-      </c>
-      <c r="E65" s="1" t="n">
-        <v>44907</v>
+      <c r="D65" t="n">
+        <v>1043</v>
+      </c>
+      <c r="E65" t="n">
+        <v>110</v>
       </c>
       <c r="F65" t="n">
+        <v>51</v>
+      </c>
+      <c r="G65" t="n">
+        <v>392</v>
+      </c>
+      <c r="H65" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I65" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J65" t="n">
         <v>0.232905397984918</v>
       </c>
-      <c r="G65" t="n">
+      <c r="K65" t="n">
         <v>1.65593439792836</v>
       </c>
-      <c r="H65" t="n">
+      <c r="L65" t="n">
         <v>0.00323206205559147</v>
       </c>
-      <c r="I65" t="n">
+      <c r="M65" t="n">
         <v>0.152815627944884</v>
       </c>
-      <c r="J65" t="n">
+      <c r="N65" t="n">
         <v>0.302832747996888</v>
       </c>
-      <c r="K65" t="n">
+      <c r="O65" t="n">
         <v>0.0307098004671122</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C66" t="n">
         <v>1003</v>
       </c>
-      <c r="D66" s="1" t="n">
-        <v>43900</v>
-      </c>
-      <c r="E66" s="1" t="n">
-        <v>44902</v>
+      <c r="D66" t="n">
+        <v>1009</v>
+      </c>
+      <c r="E66" t="n">
+        <v>144</v>
       </c>
       <c r="F66" t="n">
+        <v>18</v>
+      </c>
+      <c r="G66" t="n">
+        <v>45</v>
+      </c>
+      <c r="H66" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I66" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J66" t="n">
         <v>0.106229308685008</v>
       </c>
-      <c r="G66" t="n">
+      <c r="K66" t="n">
         <v>0.5272150718119</v>
       </c>
-      <c r="H66" t="n">
+      <c r="L66" t="n">
         <v>0.00136259696116103</v>
       </c>
-      <c r="I66" t="n">
+      <c r="M66" t="n">
         <v>0.076429064308694</v>
       </c>
-      <c r="J66" t="n">
+      <c r="N66" t="n">
         <v>0.136006550502241</v>
       </c>
-      <c r="K66" t="n">
+      <c r="O66" t="n">
         <v>0.0405591603643616</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B67" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C67" t="n">
         <v>999</v>
       </c>
-      <c r="D67" s="1" t="n">
-        <v>43895</v>
-      </c>
-      <c r="E67" s="1" t="n">
-        <v>44893</v>
+      <c r="D67" t="n">
+        <v>1005</v>
+      </c>
+      <c r="E67" t="n">
+        <v>148</v>
       </c>
       <c r="F67" t="n">
+        <v>80</v>
+      </c>
+      <c r="G67" t="n">
+        <v>260</v>
+      </c>
+      <c r="H67" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I67" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J67" t="n">
         <v>0.839816884657472</v>
       </c>
-      <c r="G67" t="n">
+      <c r="K67" t="n">
         <v>14.2222222222222</v>
       </c>
-      <c r="H67" t="n">
+      <c r="L67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
+      <c r="M67" t="n">
         <v>0.50251256281407</v>
       </c>
-      <c r="J67" t="n">
+      <c r="N67" t="n">
         <v>0.845240014098631</v>
       </c>
-      <c r="K67" t="n">
+      <c r="O67" t="n">
         <v>0.170266246070359</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B68" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C68" t="n">
         <v>1037</v>
       </c>
-      <c r="D68" s="1" t="n">
-        <v>43871</v>
-      </c>
-      <c r="E68" s="1" t="n">
-        <v>44907</v>
+      <c r="D68" t="n">
+        <v>1043</v>
+      </c>
+      <c r="E68" t="n">
+        <v>110</v>
       </c>
       <c r="F68" t="n">
+        <v>30</v>
+      </c>
+      <c r="G68" t="n">
+        <v>8</v>
+      </c>
+      <c r="H68" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I68" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J68" t="n">
         <v>0.0335744937911651</v>
       </c>
-      <c r="G68" t="n">
+      <c r="K68" t="n">
         <v>0.137198001322969</v>
       </c>
-      <c r="H68" t="n">
+      <c r="L68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
+      <c r="M68" t="n">
         <v>0.0162373499154983</v>
       </c>
-      <c r="J68" t="n">
+      <c r="N68" t="n">
         <v>0.0537081120028977</v>
       </c>
-      <c r="K68" t="n">
+      <c r="O68" t="n">
         <v>0.00313729920622865</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C69" t="n">
         <v>1010</v>
       </c>
-      <c r="D69" s="1" t="n">
-        <v>43898</v>
-      </c>
-      <c r="E69" s="1" t="n">
-        <v>44907</v>
+      <c r="D69" t="n">
+        <v>1016</v>
+      </c>
+      <c r="E69" t="n">
+        <v>137</v>
       </c>
       <c r="F69" t="n">
+        <v>5</v>
+      </c>
+      <c r="G69" t="n">
+        <v>5</v>
+      </c>
+      <c r="H69" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I69" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J69" t="n">
         <v>0.0186829986879529</v>
       </c>
-      <c r="G69" t="n">
+      <c r="K69" t="n">
         <v>0.0745626704747029</v>
       </c>
-      <c r="H69" t="n">
+      <c r="L69" t="n">
         <v>0.0000457743660955984</v>
       </c>
-      <c r="I69" t="n">
+      <c r="M69" t="n">
         <v>0.0134855122293883</v>
       </c>
-      <c r="J69" t="n">
+      <c r="N69" t="n">
         <v>0.0286328400379894</v>
       </c>
-      <c r="K69" t="n">
+      <c r="O69" t="n">
         <v>0.00598045415403902</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C70" t="n">
         <v>1022</v>
       </c>
-      <c r="D70" s="1" t="n">
-        <v>43886</v>
-      </c>
-      <c r="E70" s="1" t="n">
-        <v>44907</v>
+      <c r="D70" t="n">
+        <v>1028</v>
+      </c>
+      <c r="E70" t="n">
+        <v>125</v>
       </c>
       <c r="F70" t="n">
+        <v>1</v>
+      </c>
+      <c r="G70" t="n">
+        <v>2</v>
+      </c>
+      <c r="H70" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I70" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J70" t="n">
         <v>0.0778478079229485</v>
       </c>
-      <c r="G70" t="n">
+      <c r="K70" t="n">
         <v>0.258801286947732</v>
       </c>
-      <c r="H70" t="n">
+      <c r="L70" t="n">
         <v>0.000238666476395995</v>
       </c>
-      <c r="I70" t="n">
+      <c r="M70" t="n">
         <v>0.0412232687171745</v>
       </c>
-      <c r="J70" t="n">
+      <c r="N70" t="n">
         <v>0.118832468116668</v>
       </c>
-      <c r="K70" t="n">
+      <c r="O70" t="n">
         <v>0.0147661303713165</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C71" t="n">
         <v>1011</v>
       </c>
-      <c r="D71" s="1" t="n">
-        <v>43890</v>
-      </c>
-      <c r="E71" s="1" t="n">
-        <v>44900</v>
+      <c r="D71" t="n">
+        <v>1017</v>
+      </c>
+      <c r="E71" t="n">
+        <v>136</v>
       </c>
       <c r="F71" t="n">
+        <v>7</v>
+      </c>
+      <c r="G71" t="n">
+        <v>14</v>
+      </c>
+      <c r="H71" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I71" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J71" t="n">
         <v>0.0374652269621986</v>
       </c>
-      <c r="G71" t="n">
+      <c r="K71" t="n">
         <v>0.183233133420506</v>
       </c>
-      <c r="H71" t="n">
+      <c r="L71" t="n">
         <v>0.000384597734496286</v>
       </c>
-      <c r="I71" t="n">
+      <c r="M71" t="n">
         <v>0.0224795260003389</v>
       </c>
-      <c r="J71" t="n">
+      <c r="N71" t="n">
         <v>0.0648456433406059</v>
       </c>
-      <c r="K71" t="n">
+      <c r="O71" t="n">
         <v>0.00602239163955445</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C72" t="n">
         <v>1007</v>
       </c>
-      <c r="D72" s="1" t="n">
-        <v>43896</v>
-      </c>
-      <c r="E72" s="1" t="n">
-        <v>44902</v>
+      <c r="D72" t="n">
+        <v>1013</v>
+      </c>
+      <c r="E72" t="n">
+        <v>140</v>
       </c>
       <c r="F72" t="n">
+        <v>6</v>
+      </c>
+      <c r="G72" t="n">
+        <v>26</v>
+      </c>
+      <c r="H72" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I72" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J72" t="n">
         <v>0.304688141573668</v>
       </c>
-      <c r="G72" t="n">
+      <c r="K72" t="n">
         <v>1.26634158305607</v>
       </c>
-      <c r="H72" t="n">
+      <c r="L72" t="n">
         <v>0.0104187970534098</v>
       </c>
-      <c r="I72" t="n">
+      <c r="M72" t="n">
         <v>0.298991516319954</v>
       </c>
-      <c r="J72" t="n">
+      <c r="N72" t="n">
         <v>0.404323691962199</v>
       </c>
-      <c r="K72" t="n">
+      <c r="O72" t="n">
         <v>0.124368941621134</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C73" t="n">
         <v>1020</v>
       </c>
-      <c r="D73" s="1" t="n">
-        <v>43888</v>
-      </c>
-      <c r="E73" s="1" t="n">
-        <v>44907</v>
+      <c r="D73" t="n">
+        <v>1026</v>
+      </c>
+      <c r="E73" t="n">
+        <v>127</v>
       </c>
       <c r="F73" t="n">
+        <v>8</v>
+      </c>
+      <c r="G73" t="n">
+        <v>23</v>
+      </c>
+      <c r="H73" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I73" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J73" t="n">
         <v>0.337309021482117</v>
       </c>
-      <c r="G73" t="n">
+      <c r="K73" t="n">
         <v>1.40160648365574</v>
       </c>
-      <c r="H73" t="n">
+      <c r="L73" t="n">
         <v>0.00157580405401856</v>
       </c>
-      <c r="I73" t="n">
+      <c r="M73" t="n">
         <v>0.236735223861832</v>
       </c>
-      <c r="J73" t="n">
+      <c r="N73" t="n">
         <v>0.472976481796141</v>
       </c>
-      <c r="K73" t="n">
+      <c r="O73" t="n">
         <v>0.0940064041207368</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C74" t="n">
         <v>1037</v>
       </c>
-      <c r="D74" s="1" t="n">
-        <v>43871</v>
-      </c>
-      <c r="E74" s="1" t="n">
-        <v>44907</v>
+      <c r="D74" t="n">
+        <v>1043</v>
+      </c>
+      <c r="E74" t="n">
+        <v>110</v>
       </c>
       <c r="F74" t="n">
+        <v>25</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I74" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J74" t="n">
         <v>0.291508722942256</v>
       </c>
-      <c r="G74" t="n">
+      <c r="K74" t="n">
         <v>0.914303532624962</v>
       </c>
-      <c r="H74" t="n">
+      <c r="L74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
+      <c r="M74" t="n">
         <v>0.26515797484202</v>
       </c>
-      <c r="J74" t="n">
+      <c r="N74" t="n">
         <v>0.386044133077353</v>
       </c>
-      <c r="K74" t="n">
+      <c r="O74" t="n">
         <v>0.162452753241814</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C75" t="n">
         <v>989</v>
       </c>
-      <c r="D75" s="1" t="n">
-        <v>43907</v>
-      </c>
-      <c r="E75" s="1" t="n">
-        <v>44895</v>
+      <c r="D75" t="n">
+        <v>995</v>
+      </c>
+      <c r="E75" t="n">
+        <v>158</v>
       </c>
       <c r="F75" t="n">
+        <v>28</v>
+      </c>
+      <c r="G75" t="n">
+        <v>146</v>
+      </c>
+      <c r="H75" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I75" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J75" t="n">
         <v>0.0716011576762057</v>
       </c>
-      <c r="G75" t="n">
+      <c r="K75" t="n">
         <v>0.407426508509541</v>
       </c>
-      <c r="H75" t="n">
+      <c r="L75" t="n">
         <v>0.00182187725715733</v>
       </c>
-      <c r="I75" t="n">
+      <c r="M75" t="n">
         <v>0.0503635555446808</v>
       </c>
-      <c r="J75" t="n">
+      <c r="N75" t="n">
         <v>0.101914460500226</v>
       </c>
-      <c r="K75" t="n">
+      <c r="O75" t="n">
         <v>0.021865495807002</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B76" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C76" t="n">
         <v>1036</v>
       </c>
-      <c r="D76" s="1" t="n">
-        <v>43871</v>
-      </c>
-      <c r="E76" s="1" t="n">
-        <v>44906</v>
+      <c r="D76" t="n">
+        <v>1042</v>
+      </c>
+      <c r="E76" t="n">
+        <v>111</v>
       </c>
       <c r="F76" t="n">
+        <v>5</v>
+      </c>
+      <c r="G76" t="n">
+        <v>14</v>
+      </c>
+      <c r="H76" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I76" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J76" t="n">
         <v>0.205871510804178</v>
       </c>
-      <c r="G76" t="n">
+      <c r="K76" t="n">
         <v>1.07043895894717</v>
       </c>
-      <c r="H76" t="n">
+      <c r="L76" t="n">
         <v>0.000841648115339458</v>
       </c>
-      <c r="I76" t="n">
+      <c r="M76" t="n">
         <v>0.16257671973438</v>
       </c>
-      <c r="J76" t="n">
+      <c r="N76" t="n">
         <v>0.278885684097494</v>
       </c>
-      <c r="K76" t="n">
+      <c r="O76" t="n">
         <v>0.106289947009389</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B77" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C77" t="n">
         <v>931</v>
       </c>
-      <c r="D77" s="1" t="n">
-        <v>43899</v>
-      </c>
-      <c r="E77" s="1" t="n">
-        <v>44829</v>
+      <c r="D77" t="n">
+        <v>937</v>
+      </c>
+      <c r="E77" t="n">
+        <v>216</v>
       </c>
       <c r="F77" t="n">
+        <v>16</v>
+      </c>
+      <c r="G77" t="n">
+        <v>93</v>
+      </c>
+      <c r="H77" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I77" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J77" t="n">
         <v>0.065497291580146</v>
       </c>
-      <c r="G77" t="n">
+      <c r="K77" t="n">
         <v>0.281994677680782</v>
       </c>
-      <c r="H77" t="n">
+      <c r="L77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
+      <c r="M77" t="n">
         <v>0.0472162108990754</v>
       </c>
-      <c r="J77" t="n">
+      <c r="N77" t="n">
         <v>0.0914295119668071</v>
       </c>
-      <c r="K77" t="n">
+      <c r="O77" t="n">
         <v>0.013395029625609</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C78" t="n">
         <v>995</v>
       </c>
-      <c r="D78" s="1" t="n">
-        <v>43909</v>
-      </c>
-      <c r="E78" s="1" t="n">
-        <v>44903</v>
+      <c r="D78" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E78" t="n">
+        <v>152</v>
       </c>
       <c r="F78" t="n">
+        <v>10</v>
+      </c>
+      <c r="G78" t="n">
+        <v>28</v>
+      </c>
+      <c r="H78" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I78" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J78" t="n">
         <v>0.0669193634588719</v>
       </c>
-      <c r="G78" t="n">
+      <c r="K78" t="n">
         <v>0.292536036139378</v>
       </c>
-      <c r="H78" t="n">
+      <c r="L78" t="n">
         <v>0.000305113296657174</v>
       </c>
-      <c r="I78" t="n">
+      <c r="M78" t="n">
         <v>0.0375942420961709</v>
       </c>
-      <c r="J78" t="n">
+      <c r="N78" t="n">
         <v>0.0907486795149033</v>
       </c>
-      <c r="K78" t="n">
+      <c r="O78" t="n">
         <v>0.0188141680803103</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B79" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C79" t="n">
         <v>999</v>
       </c>
-      <c r="D79" s="1" t="n">
-        <v>43909</v>
-      </c>
-      <c r="E79" s="1" t="n">
-        <v>44907</v>
+      <c r="D79" t="n">
+        <v>1005</v>
+      </c>
+      <c r="E79" t="n">
+        <v>148</v>
       </c>
       <c r="F79" t="n">
+        <v>12</v>
+      </c>
+      <c r="G79" t="n">
+        <v>85</v>
+      </c>
+      <c r="H79" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I79" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J79" t="n">
         <v>0.00379884201254591</v>
       </c>
-      <c r="G79" t="n">
+      <c r="K79" t="n">
         <v>0.0140574425463304</v>
       </c>
-      <c r="H79" t="n">
+      <c r="L79" t="n">
         <v>0.0000640572736496975</v>
       </c>
-      <c r="I79" t="n">
+      <c r="M79" t="n">
         <v>0.00289514347106174</v>
       </c>
-      <c r="J79" t="n">
+      <c r="N79" t="n">
         <v>0.00602033369817383</v>
       </c>
-      <c r="K79" t="n">
+      <c r="O79" t="n">
         <v>0.000931156771807078</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C80" t="n">
         <v>1008</v>
       </c>
-      <c r="D80" s="1" t="n">
-        <v>43891</v>
-      </c>
-      <c r="E80" s="1" t="n">
-        <v>44898</v>
+      <c r="D80" t="n">
+        <v>1014</v>
+      </c>
+      <c r="E80" t="n">
+        <v>139</v>
       </c>
       <c r="F80" t="n">
+        <v>7</v>
+      </c>
+      <c r="G80" t="n">
+        <v>14</v>
+      </c>
+      <c r="H80" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I80" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J80" t="n">
         <v>0.217919738447002</v>
       </c>
-      <c r="G80" t="n">
+      <c r="K80" t="n">
         <v>1.38428913832245</v>
       </c>
-      <c r="H80" t="n">
+      <c r="L80" t="n">
         <v>0.00337374901953372</v>
       </c>
-      <c r="I80" t="n">
+      <c r="M80" t="n">
         <v>0.120353861572575</v>
       </c>
-      <c r="J80" t="n">
+      <c r="N80" t="n">
         <v>0.259604079698237</v>
       </c>
-      <c r="K80" t="n">
+      <c r="O80" t="n">
         <v>0.035882841777622</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C81" t="n">
         <v>994</v>
       </c>
-      <c r="D81" s="1" t="n">
-        <v>43914</v>
-      </c>
-      <c r="E81" s="1" t="n">
-        <v>44907</v>
+      <c r="D81" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E81" t="n">
+        <v>153</v>
       </c>
       <c r="F81" t="n">
+        <v>19</v>
+      </c>
+      <c r="G81" t="n">
+        <v>157</v>
+      </c>
+      <c r="H81" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I81" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J81" t="n">
         <v>0.0270986796179525</v>
       </c>
-      <c r="G81" t="n">
+      <c r="K81" t="n">
         <v>0.128377304637474</v>
       </c>
-      <c r="H81" t="n">
+      <c r="L81" t="n">
         <v>0.000218614586734426</v>
       </c>
-      <c r="I81" t="n">
+      <c r="M81" t="n">
         <v>0.0103525491677904</v>
       </c>
-      <c r="J81" t="n">
+      <c r="N81" t="n">
         <v>0.0466696285459818</v>
       </c>
-      <c r="K81" t="n">
+      <c r="O81" t="n">
         <v>0.00184301554706695</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B82" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C82" t="n">
         <v>1010</v>
       </c>
-      <c r="D82" s="1" t="n">
-        <v>43898</v>
-      </c>
-      <c r="E82" s="1" t="n">
-        <v>44907</v>
+      <c r="D82" t="n">
+        <v>1016</v>
+      </c>
+      <c r="E82" t="n">
+        <v>137</v>
       </c>
       <c r="F82" t="n">
+        <v>24</v>
+      </c>
+      <c r="G82" t="n">
+        <v>128</v>
+      </c>
+      <c r="H82" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I82" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J82" t="n">
         <v>0.25255161536381</v>
       </c>
-      <c r="G82" t="n">
+      <c r="K82" t="n">
         <v>1.05194535810591</v>
       </c>
-      <c r="H82" t="n">
+      <c r="L82" t="n">
         <v>0.00168384185357311</v>
       </c>
-      <c r="I82" t="n">
+      <c r="M82" t="n">
         <v>0.198389153963107</v>
       </c>
-      <c r="J82" t="n">
+      <c r="N82" t="n">
         <v>0.319723151704415</v>
       </c>
-      <c r="K82" t="n">
+      <c r="O82" t="n">
         <v>0.110790995831779</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B83" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C83" t="n">
         <v>1020</v>
       </c>
-      <c r="D83" s="1" t="n">
-        <v>43888</v>
-      </c>
-      <c r="E83" s="1" t="n">
-        <v>44907</v>
+      <c r="D83" t="n">
+        <v>1026</v>
+      </c>
+      <c r="E83" t="n">
+        <v>127</v>
       </c>
       <c r="F83" t="n">
+        <v>14</v>
+      </c>
+      <c r="G83" t="n">
+        <v>54</v>
+      </c>
+      <c r="H83" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I83" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J83" t="n">
         <v>0.139316352472388</v>
       </c>
-      <c r="G83" t="n">
+      <c r="K83" t="n">
         <v>0.536861777678104</v>
       </c>
-      <c r="H83" t="n">
+      <c r="L83" t="n">
         <v>0.000608472369269711</v>
       </c>
-      <c r="I83" t="n">
+      <c r="M83" t="n">
         <v>0.112252369402661</v>
       </c>
-      <c r="J83" t="n">
+      <c r="N83" t="n">
         <v>0.217718089013602</v>
       </c>
-      <c r="K83" t="n">
+      <c r="O83" t="n">
         <v>0.0309590124306756</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C84" t="n">
         <v>851</v>
       </c>
-      <c r="D84" s="1" t="n">
-        <v>43970</v>
-      </c>
-      <c r="E84" s="1" t="n">
-        <v>44820</v>
+      <c r="D84" t="n">
+        <v>857</v>
+      </c>
+      <c r="E84" t="n">
+        <v>296</v>
       </c>
       <c r="F84" t="n">
+        <v>75</v>
+      </c>
+      <c r="G84" t="n">
+        <v>385</v>
+      </c>
+      <c r="H84" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I84" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J84" t="n">
         <v>0.0152065802610555</v>
       </c>
-      <c r="G84" t="n">
+      <c r="K84" t="n">
         <v>0.411334307893941</v>
       </c>
-      <c r="H84" t="n">
+      <c r="L84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
+      <c r="M84" t="n">
         <v>0.00496664654366552</v>
       </c>
-      <c r="J84" t="n">
+      <c r="N84" t="n">
         <v>0.0134639202163341</v>
       </c>
-      <c r="K84" t="n">
+      <c r="O84" t="n">
         <v>0.00171721202027629</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C85" t="n">
         <v>996</v>
       </c>
-      <c r="D85" s="1" t="n">
-        <v>43912</v>
-      </c>
-      <c r="E85" s="1" t="n">
-        <v>44907</v>
+      <c r="D85" t="n">
+        <v>1002</v>
+      </c>
+      <c r="E85" t="n">
+        <v>151</v>
       </c>
       <c r="F85" t="n">
+        <v>131</v>
+      </c>
+      <c r="G85" t="n">
+        <v>679</v>
+      </c>
+      <c r="H85" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I85" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J85" t="n">
         <v>0.000833662397456701</v>
       </c>
-      <c r="G85" t="n">
+      <c r="K85" t="n">
         <v>0.00490910485541152</v>
       </c>
-      <c r="H85" t="n">
+      <c r="L85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
+      <c r="M85" t="n">
         <v>0.000429029245418348</v>
       </c>
-      <c r="J85" t="n">
+      <c r="N85" t="n">
         <v>0.00126240849365462</v>
       </c>
-      <c r="K85" t="n">
+      <c r="O85" t="n">
         <v>0.000144356883512155</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B86" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C86" t="n">
         <v>981</v>
       </c>
-      <c r="D86" s="1" t="n">
-        <v>43920</v>
-      </c>
-      <c r="E86" s="1" t="n">
-        <v>44900</v>
+      <c r="D86" t="n">
+        <v>987</v>
+      </c>
+      <c r="E86" t="n">
+        <v>166</v>
       </c>
       <c r="F86" t="n">
+        <v>43</v>
+      </c>
+      <c r="G86" t="n">
+        <v>208</v>
+      </c>
+      <c r="H86" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I86" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J86" t="n">
         <v>0.0372125984167719</v>
       </c>
-      <c r="G86" t="n">
+      <c r="K86" t="n">
         <v>0.142511612625101</v>
       </c>
-      <c r="H86" t="n">
+      <c r="L86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
+      <c r="M86" t="n">
         <v>0.0329789052465537</v>
       </c>
-      <c r="J86" t="n">
+      <c r="N86" t="n">
         <v>0.0532323125305246</v>
       </c>
-      <c r="K86" t="n">
+      <c r="O86" t="n">
         <v>0.00498075616934571</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B87" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C87" t="n">
         <v>1013</v>
       </c>
-      <c r="D87" s="1" t="n">
-        <v>43895</v>
-      </c>
-      <c r="E87" s="1" t="n">
-        <v>44907</v>
+      <c r="D87" t="n">
+        <v>1019</v>
+      </c>
+      <c r="E87" t="n">
+        <v>134</v>
       </c>
       <c r="F87" t="n">
+        <v>23</v>
+      </c>
+      <c r="G87" t="n">
+        <v>73</v>
+      </c>
+      <c r="H87" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I87" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J87" t="n">
         <v>0.295873810613503</v>
       </c>
-      <c r="G87" t="n">
+      <c r="K87" t="n">
         <v>1.9545275668618</v>
       </c>
-      <c r="H87" t="n">
+      <c r="L87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
+      <c r="M87" t="n">
         <v>0.223483299221546</v>
       </c>
-      <c r="J87" t="n">
+      <c r="N87" t="n">
         <v>0.378652710043218</v>
       </c>
-      <c r="K87" t="n">
+      <c r="O87" t="n">
         <v>0.130562414299439</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B88" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C88" t="n">
         <v>1012</v>
       </c>
-      <c r="D88" s="1" t="n">
-        <v>43896</v>
-      </c>
-      <c r="E88" s="1" t="n">
-        <v>44907</v>
+      <c r="D88" t="n">
+        <v>1018</v>
+      </c>
+      <c r="E88" t="n">
+        <v>135</v>
       </c>
       <c r="F88" t="n">
+        <v>5</v>
+      </c>
+      <c r="G88" t="n">
+        <v>90</v>
+      </c>
+      <c r="H88" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I88" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J88" t="n">
         <v>0.390595995351775</v>
       </c>
-      <c r="G88" t="n">
+      <c r="K88" t="n">
         <v>1.50367175661499</v>
       </c>
-      <c r="H88" t="n">
+      <c r="L88" t="n">
         <v>0.000718876722444965</v>
       </c>
-      <c r="I88" t="n">
+      <c r="M88" t="n">
         <v>0.370941318293487</v>
       </c>
-      <c r="J88" t="n">
+      <c r="N88" t="n">
         <v>0.534694106641882</v>
       </c>
-      <c r="K88" t="n">
+      <c r="O88" t="n">
         <v>0.201642319526325</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B89" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C89" t="n">
         <v>1037</v>
       </c>
-      <c r="D89" s="1" t="n">
-        <v>43871</v>
-      </c>
-      <c r="E89" s="1" t="n">
-        <v>44907</v>
+      <c r="D89" t="n">
+        <v>1043</v>
+      </c>
+      <c r="E89" t="n">
+        <v>110</v>
       </c>
       <c r="F89" t="n">
+        <v>932</v>
+      </c>
+      <c r="G89" t="n">
+        <v>80</v>
+      </c>
+      <c r="H89" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I89" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J89" t="n">
         <v>0.0134843845994335</v>
       </c>
-      <c r="G89" t="n">
+      <c r="K89" t="n">
         <v>0.380228136882129</v>
       </c>
-      <c r="H89" t="n">
+      <c r="L89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
+      <c r="M89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
+      <c r="N89" t="n">
         <v>0.0000196394202443144</v>
       </c>
-      <c r="K89" t="n">
+      <c r="O89" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B90" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C90" t="n">
         <v>991</v>
       </c>
-      <c r="D90" s="1" t="n">
-        <v>43916</v>
-      </c>
-      <c r="E90" s="1" t="n">
-        <v>44906</v>
+      <c r="D90" t="n">
+        <v>997</v>
+      </c>
+      <c r="E90" t="n">
+        <v>156</v>
       </c>
       <c r="F90" t="n">
+        <v>61</v>
+      </c>
+      <c r="G90" t="n">
+        <v>278</v>
+      </c>
+      <c r="H90" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I90" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J90" t="n">
         <v>0.0017280693343489</v>
       </c>
-      <c r="G90" t="n">
+      <c r="K90" t="n">
         <v>0.0136387194151717</v>
       </c>
-      <c r="H90" t="n">
+      <c r="L90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
+      <c r="M90" t="n">
         <v>0.00074030454725048</v>
       </c>
-      <c r="J90" t="n">
+      <c r="N90" t="n">
         <v>0.00221761629267135</v>
       </c>
-      <c r="K90" t="n">
+      <c r="O90" t="n">
         <v>0.000246889527470952</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B91" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C91" t="n">
         <v>974</v>
       </c>
-      <c r="D91" s="1" t="n">
-        <v>43929</v>
-      </c>
-      <c r="E91" s="1" t="n">
-        <v>44902</v>
+      <c r="D91" t="n">
+        <v>980</v>
+      </c>
+      <c r="E91" t="n">
+        <v>173</v>
       </c>
       <c r="F91" t="n">
+        <v>54</v>
+      </c>
+      <c r="G91" t="n">
+        <v>376</v>
+      </c>
+      <c r="H91" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I91" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J91" t="n">
         <v>0.00332946161824802</v>
       </c>
-      <c r="G91" t="n">
+      <c r="K91" t="n">
         <v>0.0165595218896474</v>
       </c>
-      <c r="H91" t="n">
+      <c r="L91" t="n">
         <v>0.00000179190429585163</v>
       </c>
-      <c r="I91" t="n">
+      <c r="M91" t="n">
         <v>0.0019727626898684</v>
       </c>
-      <c r="J91" t="n">
+      <c r="N91" t="n">
         <v>0.0054836526510781</v>
       </c>
-      <c r="K91" t="n">
+      <c r="O91" t="n">
         <v>0.00056646519284535</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B92" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C92" t="n">
         <v>1037</v>
       </c>
-      <c r="D92" s="1" t="n">
-        <v>43871</v>
-      </c>
-      <c r="E92" s="1" t="n">
-        <v>44907</v>
+      <c r="D92" t="n">
+        <v>1043</v>
+      </c>
+      <c r="E92" t="n">
+        <v>110</v>
       </c>
       <c r="F92" t="n">
+        <v>47</v>
+      </c>
+      <c r="G92" t="n">
+        <v>44</v>
+      </c>
+      <c r="H92" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I92" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J92" t="n">
         <v>0.148621125493654</v>
       </c>
-      <c r="G92" t="n">
+      <c r="K92" t="n">
         <v>0.507769781014256</v>
       </c>
-      <c r="H92" t="n">
+      <c r="L92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
+      <c r="M92" t="n">
         <v>0.127227444116309</v>
       </c>
-      <c r="J92" t="n">
+      <c r="N92" t="n">
         <v>0.226023686974569</v>
       </c>
-      <c r="K92" t="n">
+      <c r="O92" t="n">
         <v>0.0366360971920204</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B93" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C93" t="n">
         <v>1006</v>
       </c>
-      <c r="D93" s="1" t="n">
-        <v>43902</v>
-      </c>
-      <c r="E93" s="1" t="n">
-        <v>44907</v>
+      <c r="D93" t="n">
+        <v>1012</v>
+      </c>
+      <c r="E93" t="n">
+        <v>141</v>
       </c>
       <c r="F93" t="n">
+        <v>29</v>
+      </c>
+      <c r="G93" t="n">
+        <v>111</v>
+      </c>
+      <c r="H93" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I93" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J93" t="n">
         <v>0.299614046467597</v>
       </c>
-      <c r="G93" t="n">
+      <c r="K93" t="n">
         <v>1.75876156774546</v>
       </c>
-      <c r="H93" t="n">
+      <c r="L93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
+      <c r="M93" t="n">
         <v>0.199353450847475</v>
       </c>
-      <c r="J93" t="n">
+      <c r="N93" t="n">
         <v>0.464972312150631</v>
       </c>
-      <c r="K93" t="n">
+      <c r="O93" t="n">
         <v>0.0483430983260426</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B94" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C94" t="n">
         <v>987</v>
       </c>
-      <c r="D94" s="1" t="n">
-        <v>43921</v>
-      </c>
-      <c r="E94" s="1" t="n">
-        <v>44907</v>
+      <c r="D94" t="n">
+        <v>993</v>
+      </c>
+      <c r="E94" t="n">
+        <v>160</v>
       </c>
       <c r="F94" t="n">
+        <v>60</v>
+      </c>
+      <c r="G94" t="n">
+        <v>383</v>
+      </c>
+      <c r="H94" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I94" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J94" t="n">
         <v>0.000891735741190328</v>
       </c>
-      <c r="G94" t="n">
+      <c r="K94" t="n">
         <v>0.00547357695722625</v>
       </c>
-      <c r="H94" t="n">
+      <c r="L94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
+      <c r="M94" t="n">
         <v>0.000650758834100473</v>
       </c>
-      <c r="J94" t="n">
+      <c r="N94" t="n">
         <v>0.00110190288372855</v>
       </c>
-      <c r="K94" t="n">
+      <c r="O94" t="n">
         <v>0.00029034040764554</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B95" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C95" t="n">
         <v>1005</v>
       </c>
-      <c r="D95" s="1" t="n">
-        <v>43903</v>
-      </c>
-      <c r="E95" s="1" t="n">
-        <v>44907</v>
+      <c r="D95" t="n">
+        <v>1011</v>
+      </c>
+      <c r="E95" t="n">
+        <v>142</v>
       </c>
       <c r="F95" t="n">
+        <v>40</v>
+      </c>
+      <c r="G95" t="n">
+        <v>154</v>
+      </c>
+      <c r="H95" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I95" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J95" t="n">
         <v>0.431291537462223</v>
       </c>
-      <c r="G95" t="n">
+      <c r="K95" t="n">
         <v>2.69756838905775</v>
       </c>
-      <c r="H95" t="n">
+      <c r="L95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
+      <c r="M95" t="n">
         <v>0.322913975716869</v>
       </c>
-      <c r="J95" t="n">
+      <c r="N95" t="n">
         <v>0.558006423634978</v>
       </c>
-      <c r="K95" t="n">
+      <c r="O95" t="n">
         <v>0.0978473581213307</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B96" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C96" t="n">
         <v>998</v>
       </c>
-      <c r="D96" s="1" t="n">
-        <v>43910</v>
-      </c>
-      <c r="E96" s="1" t="n">
-        <v>44907</v>
+      <c r="D96" t="n">
+        <v>1004</v>
+      </c>
+      <c r="E96" t="n">
+        <v>149</v>
       </c>
       <c r="F96" t="n">
+        <v>111</v>
+      </c>
+      <c r="G96" t="n">
+        <v>208</v>
+      </c>
+      <c r="H96" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I96" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J96" t="n">
         <v>0.0138048927275178</v>
       </c>
-      <c r="G96" t="n">
+      <c r="K96" t="n">
         <v>0.0768434065016204</v>
       </c>
-      <c r="H96" t="n">
+      <c r="L96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
+      <c r="M96" t="n">
         <v>0.00495945467084746</v>
       </c>
-      <c r="J96" t="n">
+      <c r="N96" t="n">
         <v>0.0232724507180187</v>
       </c>
-      <c r="K96" t="n">
+      <c r="O96" t="n">
         <v>0.00076588494607003</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B97" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C97" t="n">
         <v>1037</v>
       </c>
-      <c r="D97" s="1" t="n">
-        <v>43871</v>
-      </c>
-      <c r="E97" s="1" t="n">
-        <v>44907</v>
+      <c r="D97" t="n">
+        <v>1043</v>
+      </c>
+      <c r="E97" t="n">
+        <v>110</v>
       </c>
       <c r="F97" t="n">
+        <v>34</v>
+      </c>
+      <c r="G97" t="n">
+        <v>8</v>
+      </c>
+      <c r="H97" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I97" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J97" t="n">
         <v>0.0253200810447198</v>
       </c>
-      <c r="G97" t="n">
+      <c r="K97" t="n">
         <v>0.0726275088008777</v>
       </c>
-      <c r="H97" t="n">
+      <c r="L97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
+      <c r="M97" t="n">
         <v>0.0248716243572162</v>
       </c>
-      <c r="J97" t="n">
+      <c r="N97" t="n">
         <v>0.037580177946481</v>
       </c>
-      <c r="K97" t="n">
+      <c r="O97" t="n">
         <v>0.00723514338635193</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B98" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C98" t="n">
         <v>1002</v>
       </c>
-      <c r="D98" s="1" t="n">
-        <v>43906</v>
-      </c>
-      <c r="E98" s="1" t="n">
-        <v>44907</v>
+      <c r="D98" t="n">
+        <v>1008</v>
+      </c>
+      <c r="E98" t="n">
+        <v>145</v>
       </c>
       <c r="F98" t="n">
+        <v>169</v>
+      </c>
+      <c r="G98" t="n">
+        <v>104</v>
+      </c>
+      <c r="H98" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I98" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J98" t="n">
         <v>0.108064147708709</v>
       </c>
-      <c r="G98" t="n">
+      <c r="K98" t="n">
         <v>0.754246768243953</v>
       </c>
-      <c r="H98" t="n">
+      <c r="L98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
+      <c r="M98" t="n">
         <v>0.0553674537311016</v>
       </c>
-      <c r="J98" t="n">
+      <c r="N98" t="n">
         <v>0.146552711271945</v>
       </c>
-      <c r="K98" t="n">
+      <c r="O98" t="n">
         <v>0.00996613194589441</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B99" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C99" t="n">
         <v>995</v>
       </c>
-      <c r="D99" s="1" t="n">
-        <v>43913</v>
-      </c>
-      <c r="E99" s="1" t="n">
-        <v>44907</v>
+      <c r="D99" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E99" t="n">
+        <v>152</v>
       </c>
       <c r="F99" t="n">
+        <v>48</v>
+      </c>
+      <c r="G99" t="n">
+        <v>36</v>
+      </c>
+      <c r="H99" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I99" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J99" t="n">
         <v>0.187632017660176</v>
       </c>
-      <c r="G99" t="n">
+      <c r="K99" t="n">
         <v>0.759392486011191</v>
       </c>
-      <c r="H99" t="n">
+      <c r="L99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
+      <c r="M99" t="n">
         <v>0.176131746772613</v>
       </c>
-      <c r="J99" t="n">
+      <c r="N99" t="n">
         <v>0.267246881287908</v>
       </c>
-      <c r="K99" t="n">
+      <c r="O99" t="n">
         <v>0.0904503313631677</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B100" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C100" t="n">
         <v>1010</v>
       </c>
-      <c r="D100" s="1" t="n">
-        <v>43898</v>
-      </c>
-      <c r="E100" s="1" t="n">
-        <v>44907</v>
+      <c r="D100" t="n">
+        <v>1016</v>
+      </c>
+      <c r="E100" t="n">
+        <v>137</v>
       </c>
       <c r="F100" t="n">
+        <v>7</v>
+      </c>
+      <c r="G100" t="n">
+        <v>17</v>
+      </c>
+      <c r="H100" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I100" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J100" t="n">
         <v>0.0266443707129391</v>
       </c>
-      <c r="G100" t="n">
+      <c r="K100" t="n">
         <v>0.13837028294688</v>
       </c>
-      <c r="H100" t="n">
+      <c r="L100" t="n">
         <v>0.000023551555768671</v>
       </c>
-      <c r="I100" t="n">
+      <c r="M100" t="n">
         <v>0.0228746263349234</v>
       </c>
-      <c r="J100" t="n">
+      <c r="N100" t="n">
         <v>0.0380339678069531</v>
       </c>
-      <c r="K100" t="n">
+      <c r="O100" t="n">
         <v>0.00576788823697165</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B101" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C101" t="n">
         <v>990</v>
       </c>
-      <c r="D101" s="1" t="n">
-        <v>43918</v>
-      </c>
-      <c r="E101" s="1" t="n">
-        <v>44907</v>
+      <c r="D101" t="n">
+        <v>996</v>
+      </c>
+      <c r="E101" t="n">
+        <v>157</v>
       </c>
       <c r="F101" t="n">
+        <v>33</v>
+      </c>
+      <c r="G101" t="n">
+        <v>235</v>
+      </c>
+      <c r="H101" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I101" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J101" t="n">
         <v>0.00974548070071221</v>
       </c>
-      <c r="G101" t="n">
+      <c r="K101" t="n">
         <v>0.0692210031358131</v>
       </c>
-      <c r="H101" t="n">
+      <c r="L101" t="n">
         <v>0.0000294450484360005</v>
       </c>
-      <c r="I101" t="n">
+      <c r="M101" t="n">
         <v>0.0053660352532408</v>
       </c>
-      <c r="J101" t="n">
+      <c r="N101" t="n">
         <v>0.0141753555096099</v>
       </c>
-      <c r="K101" t="n">
+      <c r="O101" t="n">
         <v>0.000423667045435062</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B102" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C102" t="n">
         <v>985</v>
       </c>
-      <c r="D102" s="1" t="n">
-        <v>43923</v>
-      </c>
-      <c r="E102" s="1" t="n">
-        <v>44907</v>
+      <c r="D102" t="n">
+        <v>991</v>
+      </c>
+      <c r="E102" t="n">
+        <v>162</v>
       </c>
       <c r="F102" t="n">
+        <v>55</v>
+      </c>
+      <c r="G102" t="n">
+        <v>143</v>
+      </c>
+      <c r="H102" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I102" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J102" t="n">
         <v>0.0277451672130555</v>
       </c>
-      <c r="G102" t="n">
+      <c r="K102" t="n">
         <v>0.388705392955923</v>
       </c>
-      <c r="H102" t="n">
+      <c r="L102" t="n">
         <v>0.0000708931760355543</v>
       </c>
-      <c r="I102" t="n">
+      <c r="M102" t="n">
         <v>0.00791114205246669</v>
       </c>
-      <c r="J102" t="n">
+      <c r="N102" t="n">
         <v>0.0404522742735749</v>
       </c>
-      <c r="K102" t="n">
+      <c r="O102" t="n">
         <v>0.00126392182322949</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B103" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C103" t="n">
         <v>957</v>
       </c>
-      <c r="D103" s="1" t="n">
-        <v>43910</v>
-      </c>
-      <c r="E103" s="1" t="n">
-        <v>44866</v>
+      <c r="D103" t="n">
+        <v>963</v>
+      </c>
+      <c r="E103" t="n">
+        <v>190</v>
       </c>
       <c r="F103" t="n">
+        <v>78</v>
+      </c>
+      <c r="G103" t="n">
+        <v>161</v>
+      </c>
+      <c r="H103" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I103" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J103" t="n">
         <v>0.0413518199370278</v>
       </c>
-      <c r="G103" t="n">
+      <c r="K103" t="n">
         <v>0.237979665724938</v>
       </c>
-      <c r="H103" t="n">
+      <c r="L103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
+      <c r="M103" t="n">
         <v>0.0256617667568548</v>
       </c>
-      <c r="J103" t="n">
+      <c r="N103" t="n">
         <v>0.0649055736363743</v>
       </c>
-      <c r="K103" t="n">
+      <c r="O103" t="n">
         <v>0.00353070993148841</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B104" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C104" t="n">
         <v>1037</v>
       </c>
-      <c r="D104" s="1" t="n">
-        <v>43871</v>
-      </c>
-      <c r="E104" s="1" t="n">
-        <v>44907</v>
+      <c r="D104" t="n">
+        <v>1043</v>
+      </c>
+      <c r="E104" t="n">
+        <v>110</v>
       </c>
       <c r="F104" t="n">
+        <v>73</v>
+      </c>
+      <c r="G104" t="n">
+        <v>95</v>
+      </c>
+      <c r="H104" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I104" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J104" t="n">
         <v>0.0221291552215972</v>
       </c>
-      <c r="G104" t="n">
+      <c r="K104" t="n">
         <v>0.10071000553905</v>
       </c>
-      <c r="H104" t="n">
+      <c r="L104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
+      <c r="M104" t="n">
         <v>0.0123189770060587</v>
       </c>
-      <c r="J104" t="n">
+      <c r="N104" t="n">
         <v>0.039707760272594</v>
       </c>
-      <c r="K104" t="n">
+      <c r="O104" t="n">
         <v>0.00119146908137734</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B105" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C105" t="n">
         <v>1011</v>
       </c>
-      <c r="D105" s="1" t="n">
-        <v>43894</v>
-      </c>
-      <c r="E105" s="1" t="n">
-        <v>44904</v>
+      <c r="D105" t="n">
+        <v>1017</v>
+      </c>
+      <c r="E105" t="n">
+        <v>136</v>
       </c>
       <c r="F105" t="n">
+        <v>1</v>
+      </c>
+      <c r="G105" t="n">
+        <v>5</v>
+      </c>
+      <c r="H105" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I105" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J105" t="n">
         <v>0.452957028220435</v>
       </c>
-      <c r="G105" t="n">
+      <c r="K105" t="n">
         <v>2.09520163161554</v>
       </c>
-      <c r="H105" t="n">
+      <c r="L105" t="n">
         <v>0.000495041398788976</v>
       </c>
-      <c r="I105" t="n">
+      <c r="M105" t="n">
         <v>0.334697773127551</v>
       </c>
-      <c r="J105" t="n">
+      <c r="N105" t="n">
         <v>0.667413988235471</v>
       </c>
-      <c r="K105" t="n">
+      <c r="O105" t="n">
         <v>0.0993869927151567</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B106" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C106" t="n">
         <v>1029</v>
       </c>
-      <c r="D106" s="1" t="n">
-        <v>43878</v>
-      </c>
-      <c r="E106" s="1" t="n">
-        <v>44906</v>
+      <c r="D106" t="n">
+        <v>1035</v>
+      </c>
+      <c r="E106" t="n">
+        <v>118</v>
       </c>
       <c r="F106" t="n">
+        <v>455</v>
+      </c>
+      <c r="G106" t="n">
+        <v>78</v>
+      </c>
+      <c r="H106" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I106" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J106" t="n">
         <v>0.245171027079639</v>
       </c>
-      <c r="G106" t="n">
+      <c r="K106" t="n">
         <v>1.59078098578318</v>
       </c>
-      <c r="H106" t="n">
+      <c r="L106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
+      <c r="M106" t="n">
         <v>0.0750664048966393</v>
       </c>
-      <c r="J106" t="n">
+      <c r="N106" t="n">
         <v>0.383311632504767</v>
       </c>
-      <c r="K106" t="n">
+      <c r="O106" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B107" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C107" t="n">
         <v>992</v>
       </c>
-      <c r="D107" s="1" t="n">
-        <v>43916</v>
-      </c>
-      <c r="E107" s="1" t="n">
-        <v>44907</v>
+      <c r="D107" t="n">
+        <v>998</v>
+      </c>
+      <c r="E107" t="n">
+        <v>155</v>
       </c>
       <c r="F107" t="n">
+        <v>223</v>
+      </c>
+      <c r="G107" t="n">
+        <v>516</v>
+      </c>
+      <c r="H107" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I107" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J107" t="n">
         <v>0.000436780818442349</v>
       </c>
-      <c r="G107" t="n">
+      <c r="K107" t="n">
         <v>0.00409587194243159</v>
       </c>
-      <c r="H107" t="n">
+      <c r="L107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
+      <c r="M107" t="n">
         <v>0.000248728690945329</v>
       </c>
-      <c r="J107" t="n">
+      <c r="N107" t="n">
         <v>0.000656935457949181</v>
       </c>
-      <c r="K107" t="n">
+      <c r="O107" t="n">
         <v>0.0000618033611271781</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B108" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C108" t="n">
         <v>1013</v>
       </c>
-      <c r="D108" s="1" t="n">
-        <v>43895</v>
-      </c>
-      <c r="E108" s="1" t="n">
-        <v>44907</v>
+      <c r="D108" t="n">
+        <v>1019</v>
+      </c>
+      <c r="E108" t="n">
+        <v>134</v>
       </c>
       <c r="F108" t="n">
+        <v>52</v>
+      </c>
+      <c r="G108" t="n">
+        <v>68</v>
+      </c>
+      <c r="H108" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I108" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J108" t="n">
         <v>0.00122798482926021</v>
       </c>
-      <c r="G108" t="n">
+      <c r="K108" t="n">
         <v>0.00720337391421316</v>
       </c>
-      <c r="H108" t="n">
+      <c r="L108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
+      <c r="M108" t="n">
         <v>0.000810650823547164</v>
       </c>
-      <c r="J108" t="n">
+      <c r="N108" t="n">
         <v>0.00204341798011406</v>
       </c>
-      <c r="K108" t="n">
+      <c r="O108" t="n">
         <v>0.000164543810627457</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B109" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C109" t="n">
         <v>1014</v>
       </c>
-      <c r="D109" s="1" t="n">
-        <v>43894</v>
-      </c>
-      <c r="E109" s="1" t="n">
-        <v>44907</v>
+      <c r="D109" t="n">
+        <v>1020</v>
+      </c>
+      <c r="E109" t="n">
+        <v>133</v>
       </c>
       <c r="F109" t="n">
+        <v>4</v>
+      </c>
+      <c r="G109" t="n">
+        <v>33</v>
+      </c>
+      <c r="H109" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I109" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J109" t="n">
         <v>0.386807305060327</v>
       </c>
-      <c r="G109" t="n">
+      <c r="K109" t="n">
         <v>1.54587457110651</v>
       </c>
-      <c r="H109" t="n">
+      <c r="L109" t="n">
         <v>0.00656559213367332</v>
       </c>
-      <c r="I109" t="n">
+      <c r="M109" t="n">
         <v>0.364922744954641</v>
       </c>
-      <c r="J109" t="n">
+      <c r="N109" t="n">
         <v>0.586362197647758</v>
       </c>
-      <c r="K109" t="n">
+      <c r="O109" t="n">
         <v>0.0767235453124843</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B110" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C110" t="n">
         <v>1003</v>
       </c>
-      <c r="D110" s="1" t="n">
-        <v>43891</v>
-      </c>
-      <c r="E110" s="1" t="n">
-        <v>44893</v>
+      <c r="D110" t="n">
+        <v>1009</v>
+      </c>
+      <c r="E110" t="n">
+        <v>144</v>
       </c>
       <c r="F110" t="n">
+        <v>35</v>
+      </c>
+      <c r="G110" t="n">
+        <v>46</v>
+      </c>
+      <c r="H110" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I110" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J110" t="n">
         <v>0.0800477166718245</v>
       </c>
-      <c r="G110" t="n">
+      <c r="K110" t="n">
         <v>0.409450201716829</v>
       </c>
-      <c r="H110" t="n">
+      <c r="L110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
+      <c r="M110" t="n">
         <v>0.0654149834741094</v>
       </c>
-      <c r="J110" t="n">
+      <c r="N110" t="n">
         <v>0.136854723899271</v>
       </c>
-      <c r="K110" t="n">
+      <c r="O110" t="n">
         <v>0.00880245444242682</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B111" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C111" t="n">
         <v>1035</v>
       </c>
-      <c r="D111" s="1" t="n">
-        <v>43871</v>
-      </c>
-      <c r="E111" s="1" t="n">
-        <v>44907</v>
+      <c r="D111" t="n">
+        <v>1043</v>
+      </c>
+      <c r="E111" t="n">
+        <v>110</v>
       </c>
       <c r="F111" t="n">
+        <v>32</v>
+      </c>
+      <c r="G111" t="n">
+        <v>8</v>
+      </c>
+      <c r="H111" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I111" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J111" t="n">
         <v>0.00397469379350357</v>
       </c>
-      <c r="G111" t="n">
+      <c r="K111" t="n">
         <v>0.0168218482556531</v>
       </c>
-      <c r="H111" t="n">
+      <c r="L111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
+      <c r="M111" t="n">
         <v>0.00320423556660292</v>
       </c>
-      <c r="J111" t="n">
+      <c r="N111" t="n">
         <v>0.00571433494484798</v>
       </c>
-      <c r="K111" t="n">
+      <c r="O111" t="n">
         <v>0.000496269701031925</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B112" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C112" t="n">
         <v>960</v>
       </c>
-      <c r="D112" s="1" t="n">
-        <v>43901</v>
-      </c>
-      <c r="E112" s="1" t="n">
-        <v>44860</v>
+      <c r="D112" t="n">
+        <v>966</v>
+      </c>
+      <c r="E112" t="n">
+        <v>187</v>
       </c>
       <c r="F112" t="n">
+        <v>27</v>
+      </c>
+      <c r="G112" t="n">
+        <v>96</v>
+      </c>
+      <c r="H112" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I112" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J112" t="n">
         <v>0.0751292547349285</v>
       </c>
-      <c r="G112" t="n">
+      <c r="K112" t="n">
         <v>0.31509910176275</v>
       </c>
-      <c r="H112" t="n">
+      <c r="L112" t="n">
         <v>-0.0119310649580203</v>
       </c>
-      <c r="I112" t="n">
+      <c r="M112" t="n">
         <v>0.0579793348486666</v>
       </c>
-      <c r="J112" t="n">
+      <c r="N112" t="n">
         <v>0.114891529571646</v>
       </c>
-      <c r="K112" t="n">
+      <c r="O112" t="n">
         <v>0.0146907671257356</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B113" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C113" t="n">
         <v>995</v>
       </c>
-      <c r="D113" s="1" t="n">
-        <v>43906</v>
-      </c>
-      <c r="E113" s="1" t="n">
-        <v>44900</v>
+      <c r="D113" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E113" t="n">
+        <v>152</v>
       </c>
       <c r="F113" t="n">
+        <v>4</v>
+      </c>
+      <c r="G113" t="n">
+        <v>5</v>
+      </c>
+      <c r="H113" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I113" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J113" t="n">
         <v>0.181524171239409</v>
       </c>
-      <c r="G113" t="n">
+      <c r="K113" t="n">
         <v>0.627006672670229</v>
       </c>
-      <c r="H113" t="n">
+      <c r="L113" t="n">
         <v>0.00501874272282305</v>
       </c>
-      <c r="I113" t="n">
+      <c r="M113" t="n">
         <v>0.161827980893174</v>
       </c>
-      <c r="J113" t="n">
+      <c r="N113" t="n">
         <v>0.27617042884809</v>
       </c>
-      <c r="K113" t="n">
+      <c r="O113" t="n">
         <v>0.0601100298689455</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B114" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C114" t="n">
         <v>992</v>
       </c>
-      <c r="D114" s="1" t="n">
-        <v>43916</v>
-      </c>
-      <c r="E114" s="1" t="n">
-        <v>44907</v>
+      <c r="D114" t="n">
+        <v>998</v>
+      </c>
+      <c r="E114" t="n">
+        <v>155</v>
       </c>
       <c r="F114" t="n">
+        <v>202</v>
+      </c>
+      <c r="G114" t="n">
+        <v>315</v>
+      </c>
+      <c r="H114" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I114" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J114" t="n">
         <v>0.00462295295858091</v>
       </c>
-      <c r="G114" t="n">
+      <c r="K114" t="n">
         <v>0.053403756483059</v>
       </c>
-      <c r="H114" t="n">
+      <c r="L114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
+      <c r="M114" t="n">
         <v>0.00155450888603851</v>
       </c>
-      <c r="J114" t="n">
+      <c r="N114" t="n">
         <v>0.00626231918112902</v>
       </c>
-      <c r="K114" t="n">
+      <c r="O114" t="n">
         <v>0.000383622406081966</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B115" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C115" t="n">
         <v>999</v>
       </c>
-      <c r="D115" s="1" t="n">
-        <v>43904</v>
-      </c>
-      <c r="E115" s="1" t="n">
-        <v>44902</v>
+      <c r="D115" t="n">
+        <v>1005</v>
+      </c>
+      <c r="E115" t="n">
+        <v>148</v>
       </c>
       <c r="F115" t="n">
+        <v>9</v>
+      </c>
+      <c r="G115" t="n">
+        <v>72</v>
+      </c>
+      <c r="H115" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I115" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J115" t="n">
         <v>0.0480152656190307</v>
       </c>
-      <c r="G115" t="n">
+      <c r="K115" t="n">
         <v>0.188375675710173</v>
       </c>
-      <c r="H115" t="n">
+      <c r="L115" t="n">
         <v>0.0000124470307172759</v>
       </c>
-      <c r="I115" t="n">
+      <c r="M115" t="n">
         <v>0.0340037867195679</v>
       </c>
-      <c r="J115" t="n">
+      <c r="N115" t="n">
         <v>0.0853317182397797</v>
       </c>
-      <c r="K115" t="n">
+      <c r="O115" t="n">
         <v>0.00644835484131002</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B116" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C116" t="n">
         <v>1005</v>
       </c>
-      <c r="D116" s="1" t="n">
-        <v>43903</v>
-      </c>
-      <c r="E116" s="1" t="n">
-        <v>44907</v>
+      <c r="D116" t="n">
+        <v>1011</v>
+      </c>
+      <c r="E116" t="n">
+        <v>142</v>
       </c>
       <c r="F116" t="n">
+        <v>4</v>
+      </c>
+      <c r="G116" t="n">
+        <v>5</v>
+      </c>
+      <c r="H116" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I116" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J116" t="n">
         <v>0.0766919270744346</v>
       </c>
-      <c r="G116" t="n">
+      <c r="K116" t="n">
         <v>0.261695707628335</v>
       </c>
-      <c r="H116" t="n">
+      <c r="L116" t="n">
         <v>0.000681282617982379</v>
       </c>
-      <c r="I116" t="n">
+      <c r="M116" t="n">
         <v>0.0649386195538442</v>
       </c>
-      <c r="J116" t="n">
+      <c r="N116" t="n">
         <v>0.119742409475102</v>
       </c>
-      <c r="K116" t="n">
+      <c r="O116" t="n">
         <v>0.0150755468383905</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B117" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C117" t="n">
         <v>1037</v>
       </c>
-      <c r="D117" s="1" t="n">
-        <v>43871</v>
-      </c>
-      <c r="E117" s="1" t="n">
-        <v>44907</v>
+      <c r="D117" t="n">
+        <v>1043</v>
+      </c>
+      <c r="E117" t="n">
+        <v>110</v>
       </c>
       <c r="F117" t="n">
+        <v>30</v>
+      </c>
+      <c r="G117" t="n">
+        <v>9</v>
+      </c>
+      <c r="H117" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I117" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J117" t="n">
         <v>0.0254183246511269</v>
       </c>
-      <c r="G117" t="n">
+      <c r="K117" t="n">
         <v>0.117425634511868</v>
       </c>
-      <c r="H117" t="n">
+      <c r="L117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
+      <c r="M117" t="n">
         <v>0.0185713266163127</v>
       </c>
-      <c r="J117" t="n">
+      <c r="N117" t="n">
         <v>0.0391485373820303</v>
       </c>
-      <c r="K117" t="n">
+      <c r="O117" t="n">
         <v>0.00516543317756222</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B118" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C118" t="n">
         <v>1008</v>
       </c>
-      <c r="D118" s="1" t="n">
-        <v>43900</v>
-      </c>
-      <c r="E118" s="1" t="n">
-        <v>44907</v>
+      <c r="D118" t="n">
+        <v>1014</v>
+      </c>
+      <c r="E118" t="n">
+        <v>139</v>
       </c>
       <c r="F118" t="n">
+        <v>2</v>
+      </c>
+      <c r="G118" t="n">
+        <v>6</v>
+      </c>
+      <c r="H118" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I118" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J118" t="n">
         <v>0.0860338228399031</v>
       </c>
-      <c r="G118" t="n">
+      <c r="K118" t="n">
         <v>0.318327555880221</v>
       </c>
-      <c r="H118" t="n">
+      <c r="L118" t="n">
         <v>0.00158832838544976</v>
       </c>
-      <c r="I118" t="n">
+      <c r="M118" t="n">
         <v>0.0730626209592278</v>
       </c>
-      <c r="J118" t="n">
+      <c r="N118" t="n">
         <v>0.120868524139811</v>
       </c>
-      <c r="K118" t="n">
+      <c r="O118" t="n">
         <v>0.0315405626648237</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B119" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C119" t="n">
         <v>1006</v>
       </c>
-      <c r="D119" s="1" t="n">
-        <v>43898</v>
-      </c>
-      <c r="E119" s="1" t="n">
-        <v>44903</v>
+      <c r="D119" t="n">
+        <v>1012</v>
+      </c>
+      <c r="E119" t="n">
+        <v>141</v>
       </c>
       <c r="F119" t="n">
+        <v>2</v>
+      </c>
+      <c r="G119" t="n">
+        <v>7</v>
+      </c>
+      <c r="H119" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I119" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J119" t="n">
         <v>0.374781865597421</v>
       </c>
-      <c r="G119" t="n">
+      <c r="K119" t="n">
         <v>1.66934069145036</v>
       </c>
-      <c r="H119" t="n">
+      <c r="L119" t="n">
         <v>0.00422441798081269</v>
       </c>
-      <c r="I119" t="n">
+      <c r="M119" t="n">
         <v>0.313222368620833</v>
       </c>
-      <c r="J119" t="n">
+      <c r="N119" t="n">
         <v>0.499385221649162</v>
       </c>
-      <c r="K119" t="n">
+      <c r="O119" t="n">
         <v>0.185276878832411</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B120" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C120" t="n">
         <v>1012</v>
       </c>
-      <c r="D120" s="1" t="n">
-        <v>43896</v>
-      </c>
-      <c r="E120" s="1" t="n">
-        <v>44907</v>
+      <c r="D120" t="n">
+        <v>1018</v>
+      </c>
+      <c r="E120" t="n">
+        <v>135</v>
       </c>
       <c r="F120" t="n">
+        <v>7</v>
+      </c>
+      <c r="G120" t="n">
+        <v>9</v>
+      </c>
+      <c r="H120" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I120" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J120" t="n">
         <v>0.14492527880225</v>
       </c>
-      <c r="G120" t="n">
+      <c r="K120" t="n">
         <v>0.479737793206151</v>
       </c>
-      <c r="H120" t="n">
+      <c r="L120" t="n">
         <v>0.000870808011869113</v>
       </c>
-      <c r="I120" t="n">
+      <c r="M120" t="n">
         <v>0.115073612773252</v>
       </c>
-      <c r="J120" t="n">
+      <c r="N120" t="n">
         <v>0.217006957181765</v>
       </c>
-      <c r="K120" t="n">
+      <c r="O120" t="n">
         <v>0.0543202346796523</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B121" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C121" t="n">
         <v>1037</v>
       </c>
-      <c r="D121" s="1" t="n">
-        <v>43871</v>
-      </c>
-      <c r="E121" s="1" t="n">
-        <v>44907</v>
+      <c r="D121" t="n">
+        <v>1043</v>
+      </c>
+      <c r="E121" t="n">
+        <v>110</v>
       </c>
       <c r="F121" t="n">
+        <v>6</v>
+      </c>
+      <c r="G121" t="n">
+        <v>20</v>
+      </c>
+      <c r="H121" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I121" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J121" t="n">
         <v>0.369361841441621</v>
       </c>
-      <c r="G121" t="n">
+      <c r="K121" t="n">
         <v>1.79834280208847</v>
       </c>
-      <c r="H121" t="n">
+      <c r="L121" t="n">
         <v>0.000115161556308627</v>
       </c>
-      <c r="I121" t="n">
+      <c r="M121" t="n">
         <v>0.301140521054999</v>
       </c>
-      <c r="J121" t="n">
+      <c r="N121" t="n">
         <v>0.46186983987991</v>
       </c>
-      <c r="K121" t="n">
+      <c r="O121" t="n">
         <v>0.162203120930122</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B122" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C122" t="n">
         <v>998</v>
       </c>
-      <c r="D122" s="1" t="n">
-        <v>43904</v>
-      </c>
-      <c r="E122" s="1" t="n">
-        <v>44901</v>
+      <c r="D122" t="n">
+        <v>1004</v>
+      </c>
+      <c r="E122" t="n">
+        <v>149</v>
       </c>
       <c r="F122" t="n">
+        <v>3</v>
+      </c>
+      <c r="G122" t="n">
+        <v>17</v>
+      </c>
+      <c r="H122" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I122" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J122" t="n">
         <v>0.137097349469596</v>
       </c>
-      <c r="G122" t="n">
+      <c r="K122" t="n">
         <v>0.416523324936282</v>
       </c>
-      <c r="H122" t="n">
+      <c r="L122" t="n">
         <v>0.00479829180811631</v>
       </c>
-      <c r="I122" t="n">
+      <c r="M122" t="n">
         <v>0.119003209537253</v>
       </c>
-      <c r="J122" t="n">
+      <c r="N122" t="n">
         <v>0.189341341197933</v>
       </c>
-      <c r="K122" t="n">
+      <c r="O122" t="n">
         <v>0.0797563570867905</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B123" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C123" t="n">
         <v>1015</v>
       </c>
-      <c r="D123" s="1" t="n">
-        <v>43893</v>
-      </c>
-      <c r="E123" s="1" t="n">
-        <v>44907</v>
+      <c r="D123" t="n">
+        <v>1021</v>
+      </c>
+      <c r="E123" t="n">
+        <v>132</v>
       </c>
       <c r="F123" t="n">
+        <v>7</v>
+      </c>
+      <c r="G123" t="n">
+        <v>8</v>
+      </c>
+      <c r="H123" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I123" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J123" t="n">
         <v>0.0895793213500274</v>
       </c>
-      <c r="G123" t="n">
+      <c r="K123" t="n">
         <v>0.34246134922358</v>
       </c>
-      <c r="H123" t="n">
+      <c r="L123" t="n">
         <v>0.000178676400956991</v>
       </c>
-      <c r="I123" t="n">
+      <c r="M123" t="n">
         <v>0.0767697079243811</v>
       </c>
-      <c r="J123" t="n">
+      <c r="N123" t="n">
         <v>0.130231522963062</v>
       </c>
-      <c r="K123" t="n">
+      <c r="O123" t="n">
         <v>0.034189688143073</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B124" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C124" t="n">
         <v>1037</v>
       </c>
-      <c r="D124" s="1" t="n">
-        <v>43871</v>
-      </c>
-      <c r="E124" s="1" t="n">
-        <v>44907</v>
+      <c r="D124" t="n">
+        <v>1043</v>
+      </c>
+      <c r="E124" t="n">
+        <v>110</v>
       </c>
       <c r="F124" t="n">
+        <v>31</v>
+      </c>
+      <c r="G124" t="n">
+        <v>6</v>
+      </c>
+      <c r="H124" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I124" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J124" t="n">
         <v>0.0499870704013074</v>
       </c>
-      <c r="G124" t="n">
+      <c r="K124" t="n">
         <v>0.166803646358374</v>
       </c>
-      <c r="H124" t="n">
+      <c r="L124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
+      <c r="M124" t="n">
         <v>0.0535074150679742</v>
       </c>
-      <c r="J124" t="n">
+      <c r="N124" t="n">
         <v>0.0665084267405618</v>
       </c>
-      <c r="K124" t="n">
+      <c r="O124" t="n">
         <v>0.0331272832885798</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B125" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C125" t="n">
         <v>992</v>
       </c>
-      <c r="D125" s="1" t="n">
-        <v>43910</v>
-      </c>
-      <c r="E125" s="1" t="n">
-        <v>44901</v>
+      <c r="D125" t="n">
+        <v>998</v>
+      </c>
+      <c r="E125" t="n">
+        <v>155</v>
       </c>
       <c r="F125" t="n">
+        <v>29</v>
+      </c>
+      <c r="G125" t="n">
+        <v>290</v>
+      </c>
+      <c r="H125" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I125" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J125" t="n">
         <v>0.010979182864514</v>
       </c>
-      <c r="G125" t="n">
+      <c r="K125" t="n">
         <v>0.0835296389901828</v>
       </c>
-      <c r="H125" t="n">
+      <c r="L125" t="n">
         <v>0.000037349249093347</v>
       </c>
-      <c r="I125" t="n">
+      <c r="M125" t="n">
         <v>0.00739388929475715</v>
       </c>
-      <c r="J125" t="n">
+      <c r="N125" t="n">
         <v>0.0172466998812835</v>
       </c>
-      <c r="K125" t="n">
+      <c r="O125" t="n">
         <v>0.000862887799585282</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B126" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C126" t="n">
         <v>1004</v>
       </c>
-      <c r="D126" s="1" t="n">
-        <v>43898</v>
-      </c>
-      <c r="E126" s="1" t="n">
-        <v>44901</v>
+      <c r="D126" t="n">
+        <v>1010</v>
+      </c>
+      <c r="E126" t="n">
+        <v>143</v>
       </c>
       <c r="F126" t="n">
+        <v>17</v>
+      </c>
+      <c r="G126" t="n">
+        <v>273</v>
+      </c>
+      <c r="H126" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I126" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J126" t="n">
         <v>0.00316392725964973</v>
       </c>
-      <c r="G126" t="n">
+      <c r="K126" t="n">
         <v>0.023929886383752</v>
       </c>
-      <c r="H126" t="n">
+      <c r="L126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
+      <c r="M126" t="n">
         <v>0.00188730413477674</v>
       </c>
-      <c r="J126" t="n">
+      <c r="N126" t="n">
         <v>0.00485107623850583</v>
       </c>
-      <c r="K126" t="n">
+      <c r="O126" t="n">
         <v>0.000260424106842363</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B127" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C127" t="n">
         <v>1006</v>
       </c>
-      <c r="D127" s="1" t="n">
-        <v>43902</v>
-      </c>
-      <c r="E127" s="1" t="n">
-        <v>44907</v>
+      <c r="D127" t="n">
+        <v>1012</v>
+      </c>
+      <c r="E127" t="n">
+        <v>141</v>
       </c>
       <c r="F127" t="n">
+        <v>2</v>
+      </c>
+      <c r="G127" t="n">
+        <v>6</v>
+      </c>
+      <c r="H127" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I127" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J127" t="n">
         <v>0.134459600920083</v>
       </c>
-      <c r="G127" t="n">
+      <c r="K127" t="n">
         <v>0.366928687558731</v>
       </c>
-      <c r="H127" t="n">
+      <c r="L127" t="n">
         <v>0.00138367129504715</v>
       </c>
-      <c r="I127" t="n">
+      <c r="M127" t="n">
         <v>0.121633612350595</v>
       </c>
-      <c r="J127" t="n">
+      <c r="N127" t="n">
         <v>0.206332425044441</v>
       </c>
-      <c r="K127" t="n">
+      <c r="O127" t="n">
         <v>0.0593901171700076</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B128" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C128" t="n">
         <v>981</v>
       </c>
-      <c r="D128" s="1" t="n">
-        <v>43927</v>
-      </c>
-      <c r="E128" s="1" t="n">
-        <v>44907</v>
+      <c r="D128" t="n">
+        <v>987</v>
+      </c>
+      <c r="E128" t="n">
+        <v>166</v>
       </c>
       <c r="F128" t="n">
+        <v>364</v>
+      </c>
+      <c r="G128" t="n">
+        <v>403</v>
+      </c>
+      <c r="H128" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I128" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J128" t="n">
         <v>0.00183299016672465</v>
       </c>
-      <c r="G128" t="n">
+      <c r="K128" t="n">
         <v>0.0320123015738575</v>
       </c>
-      <c r="H128" t="n">
+      <c r="L128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
+      <c r="M128" t="n">
         <v>0.000542687824255975</v>
       </c>
-      <c r="J128" t="n">
+      <c r="N128" t="n">
         <v>0.00178599485585211</v>
       </c>
-      <c r="K128" t="n">
+      <c r="O128" t="n">
         <v>0.0000235115153524317</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B129" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C129" t="n">
         <v>1037</v>
       </c>
-      <c r="D129" s="1" t="n">
-        <v>43871</v>
-      </c>
-      <c r="E129" s="1" t="n">
-        <v>44907</v>
+      <c r="D129" t="n">
+        <v>1043</v>
+      </c>
+      <c r="E129" t="n">
+        <v>110</v>
       </c>
       <c r="F129" t="n">
+        <v>9</v>
+      </c>
+      <c r="G129" t="n">
+        <v>102</v>
+      </c>
+      <c r="H129" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I129" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J129" t="n">
         <v>0.309824649237827</v>
       </c>
-      <c r="G129" t="n">
+      <c r="K129" t="n">
         <v>2.40966284884659</v>
       </c>
-      <c r="H129" t="n">
+      <c r="L129" t="n">
         <v>0.0106016432547045</v>
       </c>
-      <c r="I129" t="n">
+      <c r="M129" t="n">
         <v>0.229634760942823</v>
       </c>
-      <c r="J129" t="n">
+      <c r="N129" t="n">
         <v>0.366399535886338</v>
       </c>
-      <c r="K129" t="n">
+      <c r="O129" t="n">
         <v>0.117047345371185</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B130" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C130" t="n">
         <v>1006</v>
       </c>
-      <c r="D130" s="1" t="n">
-        <v>43902</v>
-      </c>
-      <c r="E130" s="1" t="n">
-        <v>44907</v>
+      <c r="D130" t="n">
+        <v>1012</v>
+      </c>
+      <c r="E130" t="n">
+        <v>141</v>
       </c>
       <c r="F130" t="n">
+        <v>11</v>
+      </c>
+      <c r="G130" t="n">
+        <v>66</v>
+      </c>
+      <c r="H130" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I130" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J130" t="n">
         <v>0.217907445453724</v>
       </c>
-      <c r="G130" t="n">
+      <c r="K130" t="n">
         <v>1.80208923477552</v>
       </c>
-      <c r="H130" t="n">
+      <c r="L130" t="n">
         <v>0.00371511046880979</v>
       </c>
-      <c r="I130" t="n">
+      <c r="M130" t="n">
         <v>0.156228641704038</v>
       </c>
-      <c r="J130" t="n">
+      <c r="N130" t="n">
         <v>0.296866333911321</v>
       </c>
-      <c r="K130" t="n">
+      <c r="O130" t="n">
         <v>0.0561262787462767</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B131" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C131" t="n">
         <v>1007</v>
       </c>
-      <c r="D131" s="1" t="n">
-        <v>43901</v>
-      </c>
-      <c r="E131" s="1" t="n">
-        <v>44907</v>
+      <c r="D131" t="n">
+        <v>1013</v>
+      </c>
+      <c r="E131" t="n">
+        <v>140</v>
       </c>
       <c r="F131" t="n">
+        <v>19</v>
+      </c>
+      <c r="G131" t="n">
+        <v>65</v>
+      </c>
+      <c r="H131" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I131" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J131" t="n">
         <v>0.499385948940323</v>
       </c>
-      <c r="G131" t="n">
+      <c r="K131" t="n">
         <v>2.67035408260416</v>
       </c>
-      <c r="H131" t="n">
+      <c r="L131" t="n">
         <v>0.0124602828484207</v>
       </c>
-      <c r="I131" t="n">
+      <c r="M131" t="n">
         <v>0.326020443989688</v>
       </c>
-      <c r="J131" t="n">
+      <c r="N131" t="n">
         <v>0.708612217208495</v>
       </c>
-      <c r="K131" t="n">
+      <c r="O131" t="n">
         <v>0.183701811867013</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B132" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C132" t="n">
         <v>992</v>
       </c>
-      <c r="D132" s="1" t="n">
-        <v>43912</v>
-      </c>
-      <c r="E132" s="1" t="n">
-        <v>44903</v>
+      <c r="D132" t="n">
+        <v>998</v>
+      </c>
+      <c r="E132" t="n">
+        <v>155</v>
       </c>
       <c r="F132" t="n">
+        <v>45</v>
+      </c>
+      <c r="G132" t="n">
+        <v>502</v>
+      </c>
+      <c r="H132" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I132" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J132" t="n">
         <v>0.00108727032209419</v>
       </c>
-      <c r="G132" t="n">
+      <c r="K132" t="n">
         <v>0.0187251598218176</v>
       </c>
-      <c r="H132" t="n">
+      <c r="L132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
+      <c r="M132" t="n">
         <v>0.000298122254997883</v>
       </c>
-      <c r="J132" t="n">
+      <c r="N132" t="n">
         <v>0.000913160801188341</v>
       </c>
-      <c r="K132" t="n">
+      <c r="O132" t="n">
         <v>0.000103423689828928</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B133" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C133" t="n">
         <v>1006</v>
       </c>
-      <c r="D133" s="1" t="n">
-        <v>43901</v>
-      </c>
-      <c r="E133" s="1" t="n">
-        <v>44906</v>
+      <c r="D133" t="n">
+        <v>1012</v>
+      </c>
+      <c r="E133" t="n">
+        <v>141</v>
       </c>
       <c r="F133" t="n">
+        <v>4</v>
+      </c>
+      <c r="G133" t="n">
+        <v>6</v>
+      </c>
+      <c r="H133" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I133" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J133" t="n">
         <v>0.0369488038537074</v>
       </c>
-      <c r="G133" t="n">
+      <c r="K133" t="n">
         <v>0.142259778489847</v>
       </c>
-      <c r="H133" t="n">
+      <c r="L133" t="n">
         <v>0.00124402764191791</v>
       </c>
-      <c r="I133" t="n">
+      <c r="M133" t="n">
         <v>0.0331149981854627</v>
       </c>
-      <c r="J133" t="n">
+      <c r="N133" t="n">
         <v>0.0524933613635163</v>
       </c>
-      <c r="K133" t="n">
+      <c r="O133" t="n">
         <v>0.00756458842474165</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B134" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C134" t="n">
         <v>976</v>
       </c>
-      <c r="D134" s="1" t="n">
-        <v>43932</v>
-      </c>
-      <c r="E134" s="1" t="n">
-        <v>44907</v>
+      <c r="D134" t="n">
+        <v>982</v>
+      </c>
+      <c r="E134" t="n">
+        <v>171</v>
       </c>
       <c r="F134" t="n">
+        <v>143</v>
+      </c>
+      <c r="G134" t="n">
+        <v>506</v>
+      </c>
+      <c r="H134" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I134" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J134" t="n">
         <v>0.00177584597927216</v>
       </c>
-      <c r="G134" t="n">
+      <c r="K134" t="n">
         <v>0.0161674244488789</v>
       </c>
-      <c r="H134" t="n">
+      <c r="L134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
+      <c r="M134" t="n">
         <v>0.000714534092046801</v>
       </c>
-      <c r="J134" t="n">
+      <c r="N134" t="n">
         <v>0.00191228079333904</v>
       </c>
-      <c r="K134" t="n">
+      <c r="O134" t="n">
         <v>0.000199884324138837</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B135" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C135" t="n">
         <v>1037</v>
       </c>
-      <c r="D135" s="1" t="n">
-        <v>43871</v>
-      </c>
-      <c r="E135" s="1" t="n">
-        <v>44907</v>
+      <c r="D135" t="n">
+        <v>1043</v>
+      </c>
+      <c r="E135" t="n">
+        <v>110</v>
       </c>
       <c r="F135" t="n">
+        <v>21</v>
+      </c>
+      <c r="G135" t="n">
+        <v>5</v>
+      </c>
+      <c r="H135" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I135" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J135" t="n">
         <v>0.31467303943389</v>
       </c>
-      <c r="G135" t="n">
+      <c r="K135" t="n">
         <v>1.24606289216285</v>
       </c>
-      <c r="H135" t="n">
+      <c r="L135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
+      <c r="M135" t="n">
         <v>0.289427061624967</v>
       </c>
-      <c r="J135" t="n">
+      <c r="N135" t="n">
         <v>0.49508380124757</v>
       </c>
-      <c r="K135" t="n">
+      <c r="O135" t="n">
         <v>0.0822194065935834</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B136" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C136" t="n">
         <v>1037</v>
       </c>
-      <c r="D136" s="1" t="n">
-        <v>43871</v>
-      </c>
-      <c r="E136" s="1" t="n">
-        <v>44907</v>
+      <c r="D136" t="n">
+        <v>1043</v>
+      </c>
+      <c r="E136" t="n">
+        <v>110</v>
       </c>
       <c r="F136" t="n">
+        <v>54</v>
+      </c>
+      <c r="G136" t="n">
+        <v>155</v>
+      </c>
+      <c r="H136" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I136" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J136" t="n">
         <v>0.070975583139748</v>
       </c>
-      <c r="G136" t="n">
+      <c r="K136" t="n">
         <v>0.401837347449111</v>
       </c>
-      <c r="H136" t="n">
+      <c r="L136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
+      <c r="M136" t="n">
         <v>0.030635140634644</v>
       </c>
-      <c r="J136" t="n">
+      <c r="N136" t="n">
         <v>0.13053476100023</v>
       </c>
-      <c r="K136" t="n">
+      <c r="O136" t="n">
         <v>0.00262226711515712</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B137" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C137" t="n">
         <v>999</v>
       </c>
-      <c r="D137" s="1" t="n">
-        <v>43909</v>
-      </c>
-      <c r="E137" s="1" t="n">
-        <v>44907</v>
+      <c r="D137" t="n">
+        <v>1005</v>
+      </c>
+      <c r="E137" t="n">
+        <v>148</v>
       </c>
       <c r="F137" t="n">
+        <v>81</v>
+      </c>
+      <c r="G137" t="n">
+        <v>260</v>
+      </c>
+      <c r="H137" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I137" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J137" t="n">
         <v>0.00137309639993687</v>
       </c>
-      <c r="G137" t="n">
+      <c r="K137" t="n">
         <v>0.0083904505628247</v>
       </c>
-      <c r="H137" t="n">
+      <c r="L137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
+      <c r="M137" t="n">
         <v>0.000733095544450116</v>
       </c>
-      <c r="J137" t="n">
+      <c r="N137" t="n">
         <v>0.00199858405456742</v>
       </c>
-      <c r="K137" t="n">
+      <c r="O137" t="n">
         <v>0.000210507305538054</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B138" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C138" t="n">
         <v>986</v>
       </c>
-      <c r="D138" s="1" t="n">
-        <v>43910</v>
-      </c>
-      <c r="E138" s="1" t="n">
-        <v>44895</v>
+      <c r="D138" t="n">
+        <v>992</v>
+      </c>
+      <c r="E138" t="n">
+        <v>161</v>
       </c>
       <c r="F138" t="n">
+        <v>72</v>
+      </c>
+      <c r="G138" t="n">
+        <v>295</v>
+      </c>
+      <c r="H138" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I138" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J138" t="n">
         <v>0.0908976947239488</v>
       </c>
-      <c r="G138" t="n">
+      <c r="K138" t="n">
         <v>0.455342491443574</v>
       </c>
-      <c r="H138" t="n">
+      <c r="L138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
+      <c r="M138" t="n">
         <v>0.0693607776441314</v>
       </c>
-      <c r="J138" t="n">
+      <c r="N138" t="n">
         <v>0.15508468230301</v>
       </c>
-      <c r="K138" t="n">
+      <c r="O138" t="n">
         <v>0.00487895536496547</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B139" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C139" t="n">
         <v>1025</v>
       </c>
-      <c r="D139" s="1" t="n">
-        <v>43871</v>
-      </c>
-      <c r="E139" s="1" t="n">
-        <v>44895</v>
+      <c r="D139" t="n">
+        <v>1031</v>
+      </c>
+      <c r="E139" t="n">
+        <v>122</v>
       </c>
       <c r="F139" t="n">
+        <v>22</v>
+      </c>
+      <c r="G139" t="n">
+        <v>10</v>
+      </c>
+      <c r="H139" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I139" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J139" t="n">
         <v>0.377170388646105</v>
       </c>
-      <c r="G139" t="n">
+      <c r="K139" t="n">
         <v>2.22334553913047</v>
       </c>
-      <c r="H139" t="n">
+      <c r="L139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
+      <c r="M139" t="n">
         <v>0.297882602567523</v>
       </c>
-      <c r="J139" t="n">
+      <c r="N139" t="n">
         <v>0.564564964363815</v>
       </c>
-      <c r="K139" t="n">
+      <c r="O139" t="n">
         <v>0.0392365317397677</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B140" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C140" t="n">
         <v>1009</v>
       </c>
-      <c r="D140" s="1" t="n">
-        <v>43891</v>
-      </c>
-      <c r="E140" s="1" t="n">
-        <v>44899</v>
+      <c r="D140" t="n">
+        <v>1015</v>
+      </c>
+      <c r="E140" t="n">
+        <v>138</v>
       </c>
       <c r="F140" t="n">
+        <v>0</v>
+      </c>
+      <c r="G140" t="n">
+        <v>6</v>
+      </c>
+      <c r="H140" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I140" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J140" t="n">
         <v>0.429795454596866</v>
       </c>
-      <c r="G140" t="n">
+      <c r="K140" t="n">
         <v>1.38151527855595</v>
       </c>
-      <c r="H140" t="n">
+      <c r="L140" t="n">
         <v>0.00390020937966143</v>
       </c>
-      <c r="I140" t="n">
+      <c r="M140" t="n">
         <v>0.370579831826713</v>
       </c>
-      <c r="J140" t="n">
+      <c r="N140" t="n">
         <v>0.618121282413235</v>
       </c>
-      <c r="K140" t="n">
+      <c r="O140" t="n">
         <v>0.179754927894287</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B141" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C141" t="n">
         <v>989</v>
       </c>
-      <c r="D141" s="1" t="n">
-        <v>43918</v>
-      </c>
-      <c r="E141" s="1" t="n">
-        <v>44906</v>
+      <c r="D141" t="n">
+        <v>995</v>
+      </c>
+      <c r="E141" t="n">
+        <v>158</v>
       </c>
       <c r="F141" t="n">
+        <v>65</v>
+      </c>
+      <c r="G141" t="n">
+        <v>257</v>
+      </c>
+      <c r="H141" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I141" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J141" t="n">
         <v>0.00322547732971099</v>
       </c>
-      <c r="G141" t="n">
+      <c r="K141" t="n">
         <v>0.0154509247027277</v>
       </c>
-      <c r="H141" t="n">
+      <c r="L141" t="n">
         <v>0.0000359015564503478</v>
       </c>
-      <c r="I141" t="n">
+      <c r="M141" t="n">
         <v>0.00207865002104862</v>
       </c>
-      <c r="J141" t="n">
+      <c r="N141" t="n">
         <v>0.0047822790152883</v>
       </c>
-      <c r="K141" t="n">
+      <c r="O141" t="n">
         <v>0.000538683780051821</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B142" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C142" t="n">
         <v>1037</v>
       </c>
-      <c r="D142" s="1" t="n">
-        <v>43871</v>
-      </c>
-      <c r="E142" s="1" t="n">
-        <v>44907</v>
+      <c r="D142" t="n">
+        <v>1043</v>
+      </c>
+      <c r="E142" t="n">
+        <v>110</v>
       </c>
       <c r="F142" t="n">
+        <v>169</v>
+      </c>
+      <c r="G142" t="n">
+        <v>367</v>
+      </c>
+      <c r="H142" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I142" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J142" t="n">
         <v>0.147673459850349</v>
       </c>
-      <c r="G142" t="n">
+      <c r="K142" t="n">
         <v>0.747513915629706</v>
       </c>
-      <c r="H142" t="n">
+      <c r="L142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
+      <c r="M142" t="n">
         <v>0.0531319594388361</v>
       </c>
-      <c r="J142" t="n">
+      <c r="N142" t="n">
         <v>0.221170020559467</v>
       </c>
-      <c r="K142" t="n">
+      <c r="O142" t="n">
         <v>0.0181647043281536</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B143" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C143" t="n">
         <v>1036</v>
       </c>
-      <c r="D143" s="1" t="n">
-        <v>43871</v>
-      </c>
-      <c r="E143" s="1" t="n">
-        <v>44906</v>
+      <c r="D143" t="n">
+        <v>1042</v>
+      </c>
+      <c r="E143" t="n">
+        <v>111</v>
       </c>
       <c r="F143" t="n">
+        <v>45</v>
+      </c>
+      <c r="G143" t="n">
+        <v>192</v>
+      </c>
+      <c r="H143" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I143" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J143" t="n">
         <v>0.0915674740449521</v>
       </c>
-      <c r="G143" t="n">
+      <c r="K143" t="n">
         <v>0.783679026409747</v>
       </c>
-      <c r="H143" t="n">
+      <c r="L143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
+      <c r="M143" t="n">
         <v>0.0553077972345898</v>
       </c>
-      <c r="J143" t="n">
+      <c r="N143" t="n">
         <v>0.145066664396231</v>
       </c>
-      <c r="K143" t="n">
+      <c r="O143" t="n">
         <v>0.0211982609001955</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B144" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C144" t="n">
         <v>1006</v>
       </c>
-      <c r="D144" s="1" t="n">
-        <v>43902</v>
-      </c>
-      <c r="E144" s="1" t="n">
-        <v>44907</v>
+      <c r="D144" t="n">
+        <v>1012</v>
+      </c>
+      <c r="E144" t="n">
+        <v>141</v>
       </c>
       <c r="F144" t="n">
+        <v>74</v>
+      </c>
+      <c r="G144" t="n">
+        <v>324</v>
+      </c>
+      <c r="H144" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I144" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J144" t="n">
         <v>0.00442786390247762</v>
       </c>
-      <c r="G144" t="n">
+      <c r="K144" t="n">
         <v>0.0360717461330762</v>
       </c>
-      <c r="H144" t="n">
+      <c r="L144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
+      <c r="M144" t="n">
         <v>0.00228861972106697</v>
       </c>
-      <c r="J144" t="n">
+      <c r="N144" t="n">
         <v>0.00537185600349568</v>
       </c>
-      <c r="K144" t="n">
+      <c r="O144" t="n">
         <v>0.000647349769920501</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B145" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C145" t="n">
         <v>992</v>
       </c>
-      <c r="D145" s="1" t="n">
-        <v>43910</v>
-      </c>
-      <c r="E145" s="1" t="n">
-        <v>44901</v>
+      <c r="D145" t="n">
+        <v>998</v>
+      </c>
+      <c r="E145" t="n">
+        <v>155</v>
       </c>
       <c r="F145" t="n">
+        <v>102</v>
+      </c>
+      <c r="G145" t="n">
+        <v>109</v>
+      </c>
+      <c r="H145" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I145" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J145" t="n">
         <v>0.138501457038081</v>
       </c>
-      <c r="G145" t="n">
+      <c r="K145" t="n">
         <v>1.74235782893734</v>
       </c>
-      <c r="H145" t="n">
+      <c r="L145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
+      <c r="M145" t="n">
         <v>0.0811523139189534</v>
       </c>
-      <c r="J145" t="n">
+      <c r="N145" t="n">
         <v>0.149093770169286</v>
       </c>
-      <c r="K145" t="n">
+      <c r="O145" t="n">
         <v>0.0371617768388145</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B146" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C146" t="n">
         <v>1002</v>
       </c>
-      <c r="D146" s="1" t="n">
-        <v>43900</v>
-      </c>
-      <c r="E146" s="1" t="n">
-        <v>44901</v>
+      <c r="D146" t="n">
+        <v>1008</v>
+      </c>
+      <c r="E146" t="n">
+        <v>145</v>
       </c>
       <c r="F146" t="n">
+        <v>28</v>
+      </c>
+      <c r="G146" t="n">
+        <v>70</v>
+      </c>
+      <c r="H146" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I146" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J146" t="n">
         <v>0.0534832232702731</v>
       </c>
-      <c r="G146" t="n">
+      <c r="K146" t="n">
         <v>0.240553024979639</v>
       </c>
-      <c r="H146" t="n">
+      <c r="L146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
+      <c r="M146" t="n">
         <v>0.0407224670974395</v>
       </c>
-      <c r="J146" t="n">
+      <c r="N146" t="n">
         <v>0.0735373658245058</v>
       </c>
-      <c r="K146" t="n">
+      <c r="O146" t="n">
         <v>0.0147796594097692</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B147" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C147" t="n">
         <v>986</v>
       </c>
-      <c r="D147" s="1" t="n">
-        <v>43907</v>
-      </c>
-      <c r="E147" s="1" t="n">
-        <v>44892</v>
+      <c r="D147" t="n">
+        <v>992</v>
+      </c>
+      <c r="E147" t="n">
+        <v>161</v>
       </c>
       <c r="F147" t="n">
+        <v>2</v>
+      </c>
+      <c r="G147" t="n">
+        <v>2</v>
+      </c>
+      <c r="H147" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I147" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J147" t="n">
         <v>0.148612398932313</v>
       </c>
-      <c r="G147" t="n">
+      <c r="K147" t="n">
         <v>0.583399602110761</v>
       </c>
-      <c r="H147" t="n">
+      <c r="L147" t="n">
         <v>0.000202884220423453</v>
       </c>
-      <c r="I147" t="n">
+      <c r="M147" t="n">
         <v>0.11675272726283</v>
       </c>
-      <c r="J147" t="n">
+      <c r="N147" t="n">
         <v>0.218545378759241</v>
       </c>
-      <c r="K147" t="n">
+      <c r="O147" t="n">
         <v>0.0657805749183526</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B148" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C148" t="n">
         <v>1033</v>
       </c>
-      <c r="D148" s="1" t="n">
-        <v>43871</v>
-      </c>
-      <c r="E148" s="1" t="n">
-        <v>44903</v>
+      <c r="D148" t="n">
+        <v>1039</v>
+      </c>
+      <c r="E148" t="n">
+        <v>114</v>
       </c>
       <c r="F148" t="n">
+        <v>41</v>
+      </c>
+      <c r="G148" t="n">
+        <v>5</v>
+      </c>
+      <c r="H148" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I148" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J148" t="n">
         <v>0.115064637447828</v>
       </c>
-      <c r="G148" t="n">
+      <c r="K148" t="n">
         <v>0.603150728309056</v>
       </c>
-      <c r="H148" t="n">
+      <c r="L148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
+      <c r="M148" t="n">
         <v>0.0814954786254571</v>
       </c>
-      <c r="J148" t="n">
+      <c r="N148" t="n">
         <v>0.155678655518215</v>
       </c>
-      <c r="K148" t="n">
+      <c r="O148" t="n">
         <v>0.0396644505881587</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B149" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C149" t="n">
         <v>1037</v>
       </c>
-      <c r="D149" s="1" t="n">
-        <v>43871</v>
-      </c>
-      <c r="E149" s="1" t="n">
-        <v>44907</v>
+      <c r="D149" t="n">
+        <v>1043</v>
+      </c>
+      <c r="E149" t="n">
+        <v>110</v>
       </c>
       <c r="F149" t="n">
+        <v>34</v>
+      </c>
+      <c r="G149" t="n">
+        <v>8</v>
+      </c>
+      <c r="H149" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I149" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J149" t="n">
         <v>0.214159296811687</v>
       </c>
-      <c r="G149" t="n">
+      <c r="K149" t="n">
         <v>0.741918006140509</v>
       </c>
-      <c r="H149" t="n">
+      <c r="L149" t="n">
         <v>0.00216879338994814</v>
       </c>
-      <c r="I149" t="n">
+      <c r="M149" t="n">
         <v>0.208336400869708</v>
       </c>
-      <c r="J149" t="n">
+      <c r="N149" t="n">
         <v>0.36092044809376</v>
       </c>
-      <c r="K149" t="n">
+      <c r="O149" t="n">
         <v>0.0280066597133613</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B150" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C150" t="n">
         <v>1037</v>
       </c>
-      <c r="D150" s="1" t="n">
-        <v>43871</v>
-      </c>
-      <c r="E150" s="1" t="n">
-        <v>44907</v>
+      <c r="D150" t="n">
+        <v>1043</v>
+      </c>
+      <c r="E150" t="n">
+        <v>110</v>
       </c>
       <c r="F150" t="n">
+        <v>23</v>
+      </c>
+      <c r="G150" t="n">
+        <v>8</v>
+      </c>
+      <c r="H150" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I150" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J150" t="n">
         <v>0.353763755015504</v>
       </c>
-      <c r="G150" t="n">
+      <c r="K150" t="n">
         <v>1.61759783285783</v>
       </c>
-      <c r="H150" t="n">
+      <c r="L150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
+      <c r="M150" t="n">
         <v>0.257786278867201</v>
       </c>
-      <c r="J150" t="n">
+      <c r="N150" t="n">
         <v>0.608689946944819</v>
       </c>
-      <c r="K150" t="n">
+      <c r="O150" t="n">
         <v>0.0852864385125477</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B151" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C151" t="n">
         <v>1037</v>
       </c>
-      <c r="D151" s="1" t="n">
-        <v>43871</v>
-      </c>
-      <c r="E151" s="1" t="n">
-        <v>44907</v>
+      <c r="D151" t="n">
+        <v>1043</v>
+      </c>
+      <c r="E151" t="n">
+        <v>110</v>
       </c>
       <c r="F151" t="n">
+        <v>1</v>
+      </c>
+      <c r="G151" t="n">
+        <v>20</v>
+      </c>
+      <c r="H151" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I151" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J151" t="n">
         <v>0.236261968388036</v>
       </c>
-      <c r="G151" t="n">
+      <c r="K151" t="n">
         <v>0.62664473564414</v>
       </c>
-      <c r="H151" t="n">
+      <c r="L151" t="n">
         <v>0.000751123185226636</v>
       </c>
-      <c r="I151" t="n">
+      <c r="M151" t="n">
         <v>0.240585488297068</v>
       </c>
-      <c r="J151" t="n">
+      <c r="N151" t="n">
         <v>0.369862273808643</v>
       </c>
-      <c r="K151" t="n">
+      <c r="O151" t="n">
         <v>0.0727555327454361</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B152" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C152" t="n">
         <v>998</v>
       </c>
-      <c r="D152" s="1" t="n">
-        <v>43910</v>
-      </c>
-      <c r="E152" s="1" t="n">
-        <v>44907</v>
+      <c r="D152" t="n">
+        <v>1004</v>
+      </c>
+      <c r="E152" t="n">
+        <v>149</v>
       </c>
       <c r="F152" t="n">
+        <v>10</v>
+      </c>
+      <c r="G152" t="n">
+        <v>101</v>
+      </c>
+      <c r="H152" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I152" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J152" t="n">
         <v>0.291227600991948</v>
       </c>
-      <c r="G152" t="n">
+      <c r="K152" t="n">
         <v>1.39045246368396</v>
       </c>
-      <c r="H152" t="n">
+      <c r="L152" t="n">
         <v>0.00458466906673692</v>
       </c>
-      <c r="I152" t="n">
+      <c r="M152" t="n">
         <v>0.24699718429529</v>
       </c>
-      <c r="J152" t="n">
+      <c r="N152" t="n">
         <v>0.426631275645973</v>
       </c>
-      <c r="K152" t="n">
+      <c r="O152" t="n">
         <v>0.0725669791586568</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B153" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C153" t="n">
         <v>997</v>
       </c>
-      <c r="D153" s="1" t="n">
-        <v>43911</v>
-      </c>
-      <c r="E153" s="1" t="n">
-        <v>44907</v>
+      <c r="D153" t="n">
+        <v>1003</v>
+      </c>
+      <c r="E153" t="n">
+        <v>150</v>
       </c>
       <c r="F153" t="n">
+        <v>1</v>
+      </c>
+      <c r="G153" t="n">
+        <v>36</v>
+      </c>
+      <c r="H153" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I153" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J153" t="n">
         <v>0.00606569922049321</v>
       </c>
-      <c r="G153" t="n">
+      <c r="K153" t="n">
         <v>0.0244516579194855</v>
       </c>
-      <c r="H153" t="n">
+      <c r="L153" t="n">
         <v>0.000133677728702796</v>
       </c>
-      <c r="I153" t="n">
+      <c r="M153" t="n">
         <v>0.00479944549928775</v>
       </c>
-      <c r="J153" t="n">
+      <c r="N153" t="n">
         <v>0.00883023909609691</v>
       </c>
-      <c r="K153" t="n">
+      <c r="O153" t="n">
         <v>0.00141047186396889</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B154" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C154" t="n">
         <v>998</v>
       </c>
-      <c r="D154" s="1" t="n">
-        <v>43910</v>
-      </c>
-      <c r="E154" s="1" t="n">
-        <v>44907</v>
+      <c r="D154" t="n">
+        <v>1004</v>
+      </c>
+      <c r="E154" t="n">
+        <v>149</v>
       </c>
       <c r="F154" t="n">
+        <v>23</v>
+      </c>
+      <c r="G154" t="n">
+        <v>45</v>
+      </c>
+      <c r="H154" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I154" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J154" t="n">
         <v>0.0226499143508112</v>
       </c>
-      <c r="G154" t="n">
+      <c r="K154" t="n">
         <v>0.0675515386325654</v>
       </c>
-      <c r="H154" t="n">
+      <c r="L154" t="n">
         <v>0.000135271064793957</v>
       </c>
-      <c r="I154" t="n">
+      <c r="M154" t="n">
         <v>0.0210775348140154</v>
       </c>
-      <c r="J154" t="n">
+      <c r="N154" t="n">
         <v>0.0398033780755388</v>
       </c>
-      <c r="K154" t="n">
+      <c r="O154" t="n">
         <v>0.00247342500594057</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B155" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C155" t="n">
         <v>1037</v>
       </c>
-      <c r="D155" s="1" t="n">
-        <v>43871</v>
-      </c>
-      <c r="E155" s="1" t="n">
-        <v>44907</v>
+      <c r="D155" t="n">
+        <v>1043</v>
+      </c>
+      <c r="E155" t="n">
+        <v>110</v>
       </c>
       <c r="F155" t="n">
+        <v>123</v>
+      </c>
+      <c r="G155" t="n">
+        <v>237</v>
+      </c>
+      <c r="H155" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I155" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J155" t="n">
         <v>0.0887379479185202</v>
       </c>
-      <c r="G155" t="n">
+      <c r="K155" t="n">
         <v>0.880906077976051</v>
       </c>
-      <c r="H155" t="n">
+      <c r="L155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
+      <c r="M155" t="n">
         <v>0.0309147679846663</v>
       </c>
-      <c r="J155" t="n">
+      <c r="N155" t="n">
         <v>0.098529965223768</v>
       </c>
-      <c r="K155" t="n">
+      <c r="O155" t="n">
         <v>0.0120717545088003</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B156" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C156" t="n">
         <v>988</v>
       </c>
-      <c r="D156" s="1" t="n">
-        <v>43882</v>
-      </c>
-      <c r="E156" s="1" t="n">
-        <v>44869</v>
+      <c r="D156" t="n">
+        <v>994</v>
+      </c>
+      <c r="E156" t="n">
+        <v>159</v>
       </c>
       <c r="F156" t="n">
+        <v>247</v>
+      </c>
+      <c r="G156" t="n">
+        <v>452</v>
+      </c>
+      <c r="H156" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I156" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J156" t="n">
         <v>0.000362337067737064</v>
       </c>
-      <c r="G156" t="n">
+      <c r="K156" t="n">
         <v>0.00303400870929056</v>
       </c>
-      <c r="H156" t="n">
+      <c r="L156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
+      <c r="M156" t="n">
         <v>0.000129563118286293</v>
       </c>
-      <c r="J156" t="n">
+      <c r="N156" t="n">
         <v>0.000420131186156028</v>
       </c>
-      <c r="K156" t="n">
+      <c r="O156" t="n">
         <v>0.00000902761083101654</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B157" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C157" t="n">
         <v>994</v>
       </c>
-      <c r="D157" s="1" t="n">
-        <v>43914</v>
-      </c>
-      <c r="E157" s="1" t="n">
-        <v>44907</v>
+      <c r="D157" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E157" t="n">
+        <v>153</v>
       </c>
       <c r="F157" t="n">
+        <v>36</v>
+      </c>
+      <c r="G157" t="n">
+        <v>122</v>
+      </c>
+      <c r="H157" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I157" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J157" t="n">
         <v>0.0145333240781702</v>
       </c>
-      <c r="G157" t="n">
+      <c r="K157" t="n">
         <v>0.0912654870847798</v>
       </c>
-      <c r="H157" t="n">
+      <c r="L157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
+      <c r="M157" t="n">
         <v>0.00606682136722526</v>
       </c>
-      <c r="J157" t="n">
+      <c r="N157" t="n">
         <v>0.0205779264167756</v>
       </c>
-      <c r="K157" t="n">
+      <c r="O157" t="n">
         <v>0.00140784398409797</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B158" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C158" t="n">
         <v>985</v>
       </c>
-      <c r="D158" s="1" t="n">
-        <v>43916</v>
-      </c>
-      <c r="E158" s="1" t="n">
-        <v>44900</v>
+      <c r="D158" t="n">
+        <v>991</v>
+      </c>
+      <c r="E158" t="n">
+        <v>162</v>
       </c>
       <c r="F158" t="n">
+        <v>44</v>
+      </c>
+      <c r="G158" t="n">
+        <v>94</v>
+      </c>
+      <c r="H158" s="1" t="n">
+        <v>43865</v>
+      </c>
+      <c r="I158" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J158" t="n">
         <v>0.00750648077397116</v>
       </c>
-      <c r="G158" t="n">
+      <c r="K158" t="n">
         <v>0.0425754732413865</v>
       </c>
-      <c r="H158" t="n">
+      <c r="L158" t="n">
         <v>0.0000505562255993415</v>
       </c>
-      <c r="I158" t="n">
+      <c r="M158" t="n">
         <v>0.00243839317676117</v>
       </c>
-      <c r="J158" t="n">
+      <c r="N158" t="n">
         <v>0.011062240148569</v>
       </c>
-      <c r="K158" t="n">
+      <c r="O158" t="n">
         <v>0.000888672732601055</v>
       </c>
     </row>
